--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B1BE8-3144-445F-AA25-1297FECB0A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA823B9-2833-4DD9-9F2A-CB0965EAE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26760" yWindow="2970" windowWidth="20130" windowHeight="16230" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Spikevax" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Q222 guidance: Reiterates 21B expected delivery</t>
+    Q222 guidance: Reiterates 21B expected delivery
+Q322 guidance: 18-19B</t>
       </text>
     </comment>
   </commentList>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
   <si>
     <t>Price</t>
   </si>
@@ -305,9 +307,6 @@
     <t>Nipah</t>
   </si>
   <si>
-    <t>mRNA-4157</t>
-  </si>
-  <si>
     <t>mRNA-3283</t>
   </si>
   <si>
@@ -390,6 +389,30 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>mRNA-4157/V940</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Q422: 4157 p2 data</t>
+  </si>
+  <si>
+    <t>Q123: RSV data</t>
+  </si>
+  <si>
+    <t>Q123: influenza p3 immunogenicity data</t>
+  </si>
+  <si>
+    <t>Spikevax, fka mRNA-1273</t>
   </si>
 </sst>
 </file>
@@ -418,9 +441,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -527,10 +551,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -551,7 +576,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -559,14 +583,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -575,9 +595,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,16 +620,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43615</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>20554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>43615</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -621,8 +644,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="85725"/>
-          <a:ext cx="0" cy="6600825"/>
+          <a:off x="7984457" y="20554"/>
+          <a:ext cx="0" cy="7662111"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1002,141 +1025,129 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="Z6" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
-    <text>Q222 guidance: Reiterates 21B expected delivery</text>
+    <text>Q222 guidance: Reiterates 21B expected delivery
+Q322 guidance: 18-19B</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>142.28</v>
+      <c r="L2" s="23">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>391.199544</v>
+        <v>384.18046900000002</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>55659.87112032</v>
+        <v>65694.860199000002</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="F5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="10"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>2873+5024+10162</f>
-        <v>18059</v>
+        <f>3027+5321+8655</f>
+        <v>17003</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="F6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1144,85 +1155,65 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="F7" s="18"/>
+      <c r="I7" s="10"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>37600.87112032</v>
+        <v>48691.860199000002</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="F8" s="18"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="18"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="F10" s="18"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="F11" s="18"/>
+      <c r="I11" s="10"/>
       <c r="K11" t="s">
         <v>71</v>
       </c>
@@ -1231,15 +1222,11 @@
       <c r="B12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="F12" s="18"/>
+      <c r="I12" s="10"/>
       <c r="K12" t="s">
         <v>78</v>
       </c>
@@ -1248,184 +1235,164 @@
       <c r="B13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="18"/>
+      <c r="I13" s="10"/>
       <c r="K13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="18" t="s">
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="F16" s="18"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18" t="s">
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="F19" s="18"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="18" t="s">
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="11"/>
+      <c r="F23" s="18"/>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1437,11 +1404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763993C8-90F0-44F5-B32B-73F90FF84785}">
   <dimension ref="A1:AM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1452,7 +1419,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1640,28 +1607,27 @@
         <v>4531</v>
       </c>
       <c r="M6" s="3">
-        <f>+L6-200</f>
-        <v>4331</v>
+        <v>3120</v>
       </c>
       <c r="N6" s="3">
         <f>+M6-300</f>
-        <v>4031</v>
+        <v>2820</v>
       </c>
       <c r="O6" s="3">
         <f>+N6-400</f>
-        <v>3631</v>
+        <v>2420</v>
       </c>
       <c r="P6" s="3">
         <f>+O6-500</f>
-        <v>3131</v>
+        <v>1920</v>
       </c>
       <c r="Q6" s="3">
         <f>+P6-600</f>
-        <v>2531</v>
+        <v>1320</v>
       </c>
       <c r="R6" s="3">
         <f>+Q6-700</f>
-        <v>1831</v>
+        <v>620</v>
       </c>
       <c r="Y6" s="2">
         <f>SUM(G6:J6)</f>
@@ -1669,59 +1635,59 @@
       </c>
       <c r="Z6" s="2">
         <f>SUM(K6:N6)</f>
-        <v>18818</v>
+        <v>16396</v>
       </c>
       <c r="AA6" s="2">
         <f>SUM(O6:R6)</f>
-        <v>11124</v>
+        <v>6280</v>
       </c>
       <c r="AB6" s="2">
         <f>+AA6*0.2</f>
-        <v>2224.8000000000002</v>
+        <v>1256</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" ref="AC6:AM6" si="2">+AB6*0.2</f>
-        <v>444.96000000000004</v>
+        <v>251.20000000000002</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="2"/>
-        <v>88.992000000000019</v>
+        <v>50.240000000000009</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="2"/>
-        <v>17.798400000000004</v>
+        <v>10.048000000000002</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="2"/>
-        <v>3.5596800000000011</v>
+        <v>2.0096000000000003</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="2"/>
-        <v>0.71193600000000024</v>
+        <v>0.40192000000000005</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="2"/>
-        <v>0.14238720000000005</v>
+        <v>8.0384000000000011E-2</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" si="2"/>
-        <v>2.847744000000001E-2</v>
+        <v>1.6076800000000002E-2</v>
       </c>
       <c r="AJ6" s="2">
         <f t="shared" si="2"/>
-        <v>5.695488000000002E-3</v>
+        <v>3.2153600000000004E-3</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" si="2"/>
-        <v>1.1390976000000004E-3</v>
+        <v>6.4307200000000017E-4</v>
       </c>
       <c r="AL6" s="2">
         <f t="shared" si="2"/>
-        <v>2.2781952000000007E-4</v>
+        <v>1.2861440000000004E-4</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" si="2"/>
-        <v>4.5563904000000017E-5</v>
+        <v>2.5722880000000009E-5</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1754,7 +1720,9 @@
       <c r="L7" s="3">
         <v>183</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>144</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="Y7" s="2">
         <f>SUM(G7:J7)</f>
@@ -1762,7 +1730,7 @@
       </c>
       <c r="Z7" s="2">
         <f>SUM(K7:N7)</f>
-        <v>309</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1763,9 @@
       <c r="L8" s="3">
         <v>35</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="Y8" s="2">
         <f>SUM(G8:J8)</f>
@@ -1803,7 +1773,7 @@
       </c>
       <c r="Z8" s="2">
         <f>SUM(K8:N8)</f>
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1813,60 +1783,60 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <f>SUM(E6:E8)</f>
+        <f t="shared" ref="E9:L9" si="3">SUM(E6:E8)</f>
         <v>157</v>
       </c>
       <c r="F9" s="5">
-        <f>SUM(F6:F8)</f>
+        <f t="shared" si="3"/>
         <v>571</v>
       </c>
       <c r="G9" s="5">
-        <f>SUM(G6:G8)</f>
+        <f t="shared" si="3"/>
         <v>1937</v>
       </c>
       <c r="H9" s="5">
-        <f>SUM(H6:H8)</f>
+        <f t="shared" si="3"/>
         <v>4354</v>
       </c>
       <c r="I9" s="5">
-        <f>SUM(I6:I8)</f>
+        <f t="shared" si="3"/>
         <v>4969</v>
       </c>
       <c r="J9" s="5">
-        <f>SUM(J6:J8)</f>
+        <f t="shared" si="3"/>
         <v>7211</v>
       </c>
       <c r="K9" s="5">
-        <f>SUM(K6:K8)</f>
+        <f t="shared" si="3"/>
         <v>6066</v>
       </c>
       <c r="L9" s="5">
-        <f>SUM(L6:L8)</f>
+        <f t="shared" si="3"/>
         <v>4749</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" ref="M9:N9" si="3">SUM(M6:M8)</f>
-        <v>4331</v>
+        <f t="shared" ref="M9:N9" si="4">SUM(M6:M8)</f>
+        <v>3364</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="3"/>
-        <v>4031</v>
+        <f t="shared" si="4"/>
+        <v>2820</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" ref="O9" si="4">SUM(O6:O8)</f>
-        <v>3631</v>
+        <f t="shared" ref="O9" si="5">SUM(O6:O8)</f>
+        <v>2420</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" ref="P9" si="5">SUM(P6:P8)</f>
-        <v>3131</v>
+        <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
+        <v>1920</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" ref="Q9" si="6">SUM(Q6:Q8)</f>
-        <v>2531</v>
+        <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
+        <v>1320</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ref="R9" si="7">SUM(R6:R8)</f>
-        <v>1831</v>
+        <f t="shared" ref="R9" si="8">SUM(R6:R8)</f>
+        <v>620</v>
       </c>
       <c r="Y9" s="4">
         <f>SUM(Y6:Y8)</f>
@@ -1874,7 +1844,7 @@
       </c>
       <c r="Z9" s="4">
         <f>SUM(Z6:Z8)</f>
-        <v>19177</v>
+        <v>16999</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1908,28 +1878,27 @@
         <v>1381</v>
       </c>
       <c r="M10" s="3">
-        <f>+M9-M11</f>
-        <v>736.27</v>
+        <v>1100</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N10" si="8">+N9-N11</f>
-        <v>685.27</v>
+        <f t="shared" ref="N10" si="9">+N9-N11</f>
+        <v>846.00000000000023</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" ref="O10" si="9">+O9-O11</f>
-        <v>617.27</v>
+        <f t="shared" ref="O10" si="10">+O9-O11</f>
+        <v>726</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" ref="P10" si="10">+P9-P11</f>
-        <v>532.27</v>
+        <f t="shared" ref="P10" si="11">+P9-P11</f>
+        <v>576</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="11">+Q9-Q11</f>
-        <v>430.27</v>
+        <f t="shared" ref="Q10" si="12">+Q9-Q11</f>
+        <v>396.00000000000011</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ref="R10" si="12">+R9-R11</f>
-        <v>311.27</v>
+        <f t="shared" ref="R10" si="13">+R9-R11</f>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
@@ -1937,60 +1906,60 @@
         <v>35</v>
       </c>
       <c r="E11" s="3">
-        <f>+E9-E10</f>
+        <f t="shared" ref="E11:L11" si="14">+E9-E10</f>
         <v>157</v>
       </c>
       <c r="F11" s="3">
-        <f>+F9-F10</f>
+        <f t="shared" si="14"/>
         <v>563</v>
       </c>
       <c r="G11" s="3">
-        <f>+G9-G10</f>
+        <f t="shared" si="14"/>
         <v>1744</v>
       </c>
       <c r="H11" s="3">
-        <f>+H9-H10</f>
+        <f t="shared" si="14"/>
         <v>3604</v>
       </c>
       <c r="I11" s="3">
-        <f>+I9-I10</f>
+        <f t="shared" si="14"/>
         <v>4247</v>
       </c>
       <c r="J11" s="3">
-        <f>+J9-J10</f>
+        <f t="shared" si="14"/>
         <v>6259</v>
       </c>
       <c r="K11" s="3">
-        <f>+K9-K10</f>
+        <f t="shared" si="14"/>
         <v>5049</v>
       </c>
       <c r="L11" s="3">
-        <f>+L9-L10</f>
+        <f t="shared" si="14"/>
         <v>3368</v>
       </c>
       <c r="M11" s="3">
-        <f>+M9*0.83</f>
-        <v>3594.73</v>
+        <f>+M9-M10</f>
+        <v>2264</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ref="N11:R11" si="13">+N9*0.83</f>
-        <v>3345.73</v>
+        <f>+N9*0.7</f>
+        <v>1973.9999999999998</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="13"/>
-        <v>3013.73</v>
+        <f>+O9*0.7</f>
+        <v>1694</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="13"/>
-        <v>2598.73</v>
+        <f>+P9*0.7</f>
+        <v>1344</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="13"/>
-        <v>2100.73</v>
+        <f>+Q9*0.7</f>
+        <v>923.99999999999989</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="13"/>
-        <v>1519.73</v>
+        <f>+R9*0.7</f>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
@@ -2021,29 +1990,28 @@
       <c r="L12" s="1">
         <v>710</v>
       </c>
-      <c r="M12" s="1">
-        <f>+L12+50</f>
-        <v>760</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" ref="N12:R12" si="14">+M12+50</f>
-        <v>810</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="14"/>
-        <v>860</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="14"/>
-        <v>910</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="14"/>
-        <v>960</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="14"/>
-        <v>1010</v>
+      <c r="M12" s="3">
+        <v>820</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ref="N12:R12" si="15">+M12+50</f>
+        <v>870</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="15"/>
+        <v>920</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="15"/>
+        <v>970</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="15"/>
+        <v>1020</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="15"/>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
@@ -2074,29 +2042,28 @@
       <c r="L13" s="1">
         <v>211</v>
       </c>
-      <c r="M13" s="1">
-        <f>+L13+20</f>
-        <v>231</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" ref="N13:R13" si="15">+M13+20</f>
-        <v>251</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="15"/>
-        <v>271</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="15"/>
-        <v>291</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="15"/>
-        <v>311</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="15"/>
-        <v>331</v>
+      <c r="M13" s="3">
+        <v>278</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ref="N13:R13" si="16">+M13+20</f>
+        <v>298</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="16"/>
+        <v>318</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="16"/>
+        <v>338</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="16"/>
+        <v>358</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="16"/>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
@@ -2104,60 +2071,60 @@
         <v>32</v>
       </c>
       <c r="E14" s="1">
-        <f>+E12+E13</f>
+        <f t="shared" ref="E14:L14" si="17">+E12+E13</f>
         <v>392</v>
       </c>
       <c r="F14" s="1">
-        <f>+F12+F13</f>
+        <f t="shared" si="17"/>
         <v>838</v>
       </c>
       <c r="G14" s="1">
-        <f>+G12+G13</f>
+        <f t="shared" si="17"/>
         <v>478</v>
       </c>
       <c r="H14" s="1">
-        <f>+H12+H13</f>
+        <f t="shared" si="17"/>
         <v>542</v>
       </c>
       <c r="I14" s="1">
-        <f>+I12+I13</f>
+        <f t="shared" si="17"/>
         <v>689</v>
       </c>
       <c r="J14" s="1">
-        <f>+J12+J13</f>
+        <f t="shared" si="17"/>
         <v>849</v>
       </c>
       <c r="K14" s="1">
-        <f>+K12+K13</f>
+        <f t="shared" si="17"/>
         <v>822</v>
       </c>
       <c r="L14" s="1">
-        <f>+L12+L13</f>
+        <f t="shared" si="17"/>
         <v>921</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" ref="M14:O14" si="16">+M12+M13</f>
-        <v>991</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="16"/>
-        <v>1061</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="16"/>
-        <v>1131</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" ref="P14" si="17">+P12+P13</f>
-        <v>1201</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" ref="Q14" si="18">+Q12+Q13</f>
-        <v>1271</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" ref="R14" si="19">+R12+R13</f>
-        <v>1341</v>
+      <c r="M14" s="3">
+        <f t="shared" ref="M14:O14" si="18">+M12+M13</f>
+        <v>1098</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="18"/>
+        <v>1168</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="18"/>
+        <v>1238</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14" si="19">+P12+P13</f>
+        <v>1308</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" ref="Q14" si="20">+Q12+Q13</f>
+        <v>1378</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" ref="R14" si="21">+R12+R13</f>
+        <v>1448</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
@@ -2165,60 +2132,60 @@
         <v>33</v>
       </c>
       <c r="E15" s="3">
-        <f>+E11-E14</f>
+        <f t="shared" ref="E15:L15" si="22">+E11-E14</f>
         <v>-235</v>
       </c>
       <c r="F15" s="3">
-        <f>+F11-F14</f>
+        <f t="shared" si="22"/>
         <v>-275</v>
       </c>
       <c r="G15" s="3">
-        <f>+G11-G14</f>
+        <f t="shared" si="22"/>
         <v>1266</v>
       </c>
       <c r="H15" s="3">
-        <f>+H11-H14</f>
+        <f t="shared" si="22"/>
         <v>3062</v>
       </c>
       <c r="I15" s="3">
-        <f>+I11-I14</f>
+        <f t="shared" si="22"/>
         <v>3558</v>
       </c>
       <c r="J15" s="3">
-        <f>+J11-J14</f>
+        <f t="shared" si="22"/>
         <v>5410</v>
       </c>
       <c r="K15" s="3">
-        <f>+K11-K14</f>
+        <f t="shared" si="22"/>
         <v>4227</v>
       </c>
       <c r="L15" s="3">
-        <f>+L11-L14</f>
+        <f t="shared" si="22"/>
         <v>2447</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" ref="M15:O15" si="20">+M11-M14</f>
-        <v>2603.73</v>
+        <f t="shared" ref="M15:O15" si="23">+M11-M14</f>
+        <v>1166</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="20"/>
-        <v>2284.73</v>
+        <f t="shared" si="23"/>
+        <v>805.99999999999977</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="20"/>
-        <v>1882.73</v>
+        <f t="shared" si="23"/>
+        <v>456</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" ref="P15" si="21">+P11-P14</f>
-        <v>1397.73</v>
+        <f t="shared" ref="P15" si="24">+P11-P14</f>
+        <v>36</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" ref="Q15" si="22">+Q11-Q14</f>
-        <v>829.73</v>
+        <f t="shared" ref="Q15" si="25">+Q11-Q14</f>
+        <v>-454.00000000000011</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" ref="R15" si="23">+R11-R14</f>
-        <v>178.73000000000002</v>
+        <f t="shared" ref="R15" si="26">+R11-R14</f>
+        <v>-1014</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
@@ -2256,66 +2223,70 @@
         <f>40-13</f>
         <v>27</v>
       </c>
+      <c r="M16" s="1">
+        <f>58-7</f>
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="3">
-        <f>+E15+E16</f>
+        <f t="shared" ref="E17:L17" si="27">+E15+E16</f>
         <v>-232</v>
       </c>
       <c r="F17" s="3">
-        <f>+F15+F16</f>
+        <f t="shared" si="27"/>
         <v>-271</v>
       </c>
       <c r="G17" s="3">
-        <f>+G15+G16</f>
+        <f t="shared" si="27"/>
         <v>1260</v>
       </c>
       <c r="H17" s="3">
-        <f>+H15+H16</f>
+        <f t="shared" si="27"/>
         <v>3063</v>
       </c>
       <c r="I17" s="3">
-        <f>+I15+I16</f>
+        <f t="shared" si="27"/>
         <v>3552</v>
       </c>
       <c r="J17" s="3">
-        <f>+J15+J16</f>
+        <f t="shared" si="27"/>
         <v>5410</v>
       </c>
       <c r="K17" s="3">
-        <f>+K15+K16</f>
+        <f t="shared" si="27"/>
         <v>4229</v>
       </c>
       <c r="L17" s="3">
-        <f>+L15+L16</f>
+        <f t="shared" si="27"/>
         <v>2474</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" ref="M17:R17" si="24">+M15+M16</f>
-        <v>2603.73</v>
+        <f t="shared" ref="M17:R17" si="28">+M15+M16</f>
+        <v>1217</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="24"/>
-        <v>2284.73</v>
+        <f t="shared" si="28"/>
+        <v>805.99999999999977</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="24"/>
-        <v>1882.73</v>
+        <f t="shared" si="28"/>
+        <v>456</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="24"/>
-        <v>1397.73</v>
+        <f t="shared" si="28"/>
+        <v>36</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="24"/>
-        <v>829.73</v>
+        <f t="shared" si="28"/>
+        <v>-454.00000000000011</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="24"/>
-        <v>178.73000000000002</v>
+        <f t="shared" si="28"/>
+        <v>-1014</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -2347,28 +2318,27 @@
         <v>277</v>
       </c>
       <c r="M18" s="3">
-        <f>+M17*0.15</f>
-        <v>390.55950000000001</v>
+        <v>174</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" ref="N18:R18" si="25">+N17*0.15</f>
-        <v>342.70949999999999</v>
+        <f t="shared" ref="N18:R18" si="29">+N17*0.15</f>
+        <v>120.89999999999996</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="25"/>
-        <v>282.40949999999998</v>
+        <f t="shared" si="29"/>
+        <v>68.399999999999991</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="25"/>
-        <v>209.65950000000001</v>
+        <f t="shared" si="29"/>
+        <v>5.3999999999999995</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="25"/>
-        <v>124.45949999999999</v>
+        <f t="shared" si="29"/>
+        <v>-68.100000000000009</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="25"/>
-        <v>26.809500000000003</v>
+        <f t="shared" si="29"/>
+        <v>-152.1</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -2376,60 +2346,60 @@
         <v>28</v>
       </c>
       <c r="E19" s="3">
-        <f>+E17-E18</f>
+        <f t="shared" ref="E19:L19" si="30">+E17-E18</f>
         <v>-233</v>
       </c>
       <c r="F19" s="3">
-        <f>+F17-F18</f>
+        <f t="shared" si="30"/>
         <v>-272</v>
       </c>
       <c r="G19" s="3">
-        <f>+G17-G18</f>
+        <f t="shared" si="30"/>
         <v>1221</v>
       </c>
       <c r="H19" s="3">
-        <f>+H17-H18</f>
+        <f t="shared" si="30"/>
         <v>2780</v>
       </c>
       <c r="I19" s="3">
-        <f>+I17-I18</f>
+        <f t="shared" si="30"/>
         <v>3333</v>
       </c>
       <c r="J19" s="3">
-        <f>+J17-J18</f>
+        <f t="shared" si="30"/>
         <v>4868</v>
       </c>
       <c r="K19" s="3">
-        <f>+K17-K18</f>
+        <f t="shared" si="30"/>
         <v>3657</v>
       </c>
       <c r="L19" s="3">
-        <f>+L17-L18</f>
+        <f t="shared" si="30"/>
         <v>2197</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ref="M19:R19" si="26">+M17-M18</f>
-        <v>2213.1705000000002</v>
+        <f t="shared" ref="M19:R19" si="31">+M17-M18</f>
+        <v>1043</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="26"/>
-        <v>1942.0205000000001</v>
+        <f t="shared" si="31"/>
+        <v>685.0999999999998</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="26"/>
-        <v>1600.3205</v>
+        <f t="shared" si="31"/>
+        <v>387.6</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="26"/>
-        <v>1188.0705</v>
+        <f t="shared" si="31"/>
+        <v>30.6</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="26"/>
-        <v>705.27050000000008</v>
+        <f t="shared" si="31"/>
+        <v>-385.90000000000009</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="26"/>
-        <v>151.9205</v>
+        <f t="shared" si="31"/>
+        <v>-861.9</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -2437,60 +2407,60 @@
         <v>27</v>
       </c>
       <c r="E20" s="6">
-        <f>+E19/E21</f>
+        <f t="shared" ref="E20:L20" si="32">+E19/E21</f>
         <v>-0.58987341772151902</v>
       </c>
       <c r="F20" s="6">
-        <f>+F19/F21</f>
+        <f t="shared" si="32"/>
         <v>-0.68513853904282118</v>
       </c>
       <c r="G20" s="6">
-        <f>+G19/G21</f>
+        <f t="shared" si="32"/>
         <v>2.8395348837209302</v>
       </c>
       <c r="H20" s="6">
-        <f>+H19/H21</f>
+        <f t="shared" si="32"/>
         <v>6.4501160092807428</v>
       </c>
       <c r="I20" s="6">
-        <f>+I19/I21</f>
+        <f t="shared" si="32"/>
         <v>7.6797235023041477</v>
       </c>
       <c r="J20" s="6">
-        <f>+J19/J21</f>
+        <f t="shared" si="32"/>
         <v>11.294663573085847</v>
       </c>
       <c r="K20" s="6">
-        <f>+K19/K21</f>
+        <f t="shared" si="32"/>
         <v>8.5845070422535219</v>
       </c>
       <c r="L20" s="6">
-        <f>+L19/L21</f>
+        <f t="shared" si="32"/>
         <v>5.2434367541766109</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" ref="M20:R20" si="27">+M19/M21</f>
-        <v>5.2820298329355611</v>
+        <f t="shared" ref="M20:R20" si="33">+M19/M21</f>
+        <v>2.5315533980582523</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="27"/>
-        <v>4.6348937947494031</v>
+        <f t="shared" si="33"/>
+        <v>1.6628640776699024</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="27"/>
-        <v>3.8193806682577565</v>
+        <f t="shared" si="33"/>
+        <v>0.94077669902912631</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="27"/>
-        <v>2.8354904534606207</v>
+        <f t="shared" si="33"/>
+        <v>7.4271844660194181E-2</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="27"/>
-        <v>1.6832231503579955</v>
+        <f t="shared" si="33"/>
+        <v>-0.93665048543689344</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="27"/>
-        <v>0.36257875894988068</v>
+        <f t="shared" si="33"/>
+        <v>-2.0919902912621358</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -2522,149 +2492,148 @@
         <v>419</v>
       </c>
       <c r="M21" s="1">
-        <f>+L21</f>
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" ref="N21:R21" si="28">+M21</f>
-        <v>419</v>
+        <f t="shared" ref="N21:R21" si="34">+M21</f>
+        <v>412</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="28"/>
-        <v>419</v>
+        <f t="shared" si="34"/>
+        <v>412</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="28"/>
-        <v>419</v>
+        <f t="shared" si="34"/>
+        <v>412</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="28"/>
-        <v>419</v>
+        <f t="shared" si="34"/>
+        <v>412</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="28"/>
-        <v>419</v>
+        <f t="shared" si="34"/>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="23">
+        <v>109</v>
+      </c>
+      <c r="E23" s="20">
         <f>E11/E9</f>
         <v>1</v>
       </c>
-      <c r="F23" s="23">
-        <f t="shared" ref="F23:R23" si="29">F11/F9</f>
+      <c r="F23" s="20">
+        <f t="shared" ref="F23:R23" si="35">F11/F9</f>
         <v>0.98598949211908937</v>
       </c>
-      <c r="G23" s="23">
-        <f t="shared" si="29"/>
+      <c r="G23" s="20">
+        <f t="shared" si="35"/>
         <v>0.90036138358286011</v>
       </c>
-      <c r="H23" s="23">
-        <f t="shared" si="29"/>
+      <c r="H23" s="20">
+        <f t="shared" si="35"/>
         <v>0.82774460266421679</v>
       </c>
-      <c r="I23" s="23">
-        <f t="shared" si="29"/>
+      <c r="I23" s="20">
+        <f t="shared" si="35"/>
         <v>0.85469913463473535</v>
       </c>
-      <c r="J23" s="23">
-        <f t="shared" si="29"/>
+      <c r="J23" s="20">
+        <f t="shared" si="35"/>
         <v>0.86797947580085977</v>
       </c>
-      <c r="K23" s="23">
-        <f t="shared" si="29"/>
+      <c r="K23" s="20">
+        <f t="shared" si="35"/>
         <v>0.83234421364985167</v>
       </c>
-      <c r="L23" s="23">
-        <f t="shared" si="29"/>
+      <c r="L23" s="20">
+        <f t="shared" si="35"/>
         <v>0.7092019372499474</v>
       </c>
-      <c r="M23" s="23">
-        <f t="shared" si="29"/>
-        <v>0.83</v>
-      </c>
-      <c r="N23" s="23">
-        <f t="shared" si="29"/>
-        <v>0.83</v>
-      </c>
-      <c r="O23" s="23">
-        <f t="shared" si="29"/>
-        <v>0.83</v>
-      </c>
-      <c r="P23" s="23">
-        <f t="shared" si="29"/>
-        <v>0.83</v>
-      </c>
-      <c r="Q23" s="23">
-        <f t="shared" si="29"/>
-        <v>0.83</v>
-      </c>
-      <c r="R23" s="23">
-        <f t="shared" si="29"/>
-        <v>0.83</v>
+      <c r="M23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.67300832342449468</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="B24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="20">
         <f>E18/E17</f>
         <v>-4.3103448275862068E-3</v>
       </c>
-      <c r="F24" s="23">
-        <f t="shared" ref="F24:R24" si="30">F18/F17</f>
+      <c r="F24" s="20">
+        <f t="shared" ref="F24:R24" si="36">F18/F17</f>
         <v>-3.6900369003690036E-3</v>
       </c>
-      <c r="G24" s="23">
-        <f t="shared" si="30"/>
+      <c r="G24" s="20">
+        <f t="shared" si="36"/>
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="H24" s="23">
-        <f t="shared" si="30"/>
+      <c r="H24" s="20">
+        <f t="shared" si="36"/>
         <v>9.2393078681031665E-2</v>
       </c>
-      <c r="I24" s="23">
-        <f t="shared" si="30"/>
+      <c r="I24" s="20">
+        <f t="shared" si="36"/>
         <v>6.1655405405405407E-2</v>
       </c>
-      <c r="J24" s="23">
-        <f t="shared" si="30"/>
+      <c r="J24" s="20">
+        <f t="shared" si="36"/>
         <v>0.10018484288354898</v>
       </c>
-      <c r="K24" s="23">
-        <f t="shared" si="30"/>
+      <c r="K24" s="20">
+        <f t="shared" si="36"/>
         <v>0.13525656183494916</v>
       </c>
-      <c r="L24" s="23">
-        <f t="shared" si="30"/>
+      <c r="L24" s="20">
+        <f t="shared" si="36"/>
         <v>0.11196443007275667</v>
       </c>
-      <c r="M24" s="23">
-        <f t="shared" si="30"/>
+      <c r="M24" s="20">
+        <f t="shared" si="36"/>
+        <v>0.142974527526705</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="N24" s="23">
-        <f t="shared" si="30"/>
+      <c r="O24" s="20">
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="O24" s="23">
-        <f t="shared" si="30"/>
+      <c r="P24" s="20">
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="P24" s="23">
-        <f t="shared" si="30"/>
+      <c r="Q24" s="20">
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="Q24" s="23">
-        <f t="shared" si="30"/>
-        <v>0.15</v>
-      </c>
-      <c r="R24" s="23">
-        <f t="shared" si="30"/>
+      <c r="R24" s="20">
+        <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
     </row>
@@ -2688,7 +2657,10 @@
         <f>2873+5024+10162+12</f>
         <v>18071</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <f>3027+5321+8655+14</f>
+        <v>17017</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2709,7 +2681,9 @@
       <c r="L28" s="3">
         <v>2691</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <v>2695</v>
+      </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2730,7 +2704,9 @@
       <c r="L29" s="3">
         <v>1921</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>2077</v>
+      </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2751,7 +2727,9 @@
       <c r="L30" s="3">
         <v>1054</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>1177</v>
+      </c>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2772,7 +2750,9 @@
       <c r="L31" s="3">
         <v>1324</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3">
+        <v>2019</v>
+      </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2793,7 +2773,9 @@
       <c r="L32" s="3">
         <v>122</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3">
+        <v>113</v>
+      </c>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2814,7 +2796,9 @@
       <c r="L33" s="3">
         <v>785</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3">
+        <v>920</v>
+      </c>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2835,7 +2819,9 @@
       <c r="L34" s="3">
         <v>75</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="3">
+        <v>38</v>
+      </c>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2858,7 +2844,10 @@
         <f>SUM(L27:L34)</f>
         <v>26043</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3">
+        <f>SUM(M27:M34)</f>
+        <v>26056</v>
+      </c>
       <c r="N35" s="3"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2879,7 +2868,9 @@
       <c r="L37" s="3">
         <v>181</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="3">
+        <v>330</v>
+      </c>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2900,7 +2891,9 @@
       <c r="L38" s="3">
         <v>1780</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3">
+        <v>1856</v>
+      </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2923,7 +2916,10 @@
         <f>4093+405</f>
         <v>4498</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="3">
+        <f>175+4002</f>
+        <v>4177</v>
+      </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2944,7 +2940,9 @@
       <c r="L40" s="3">
         <v>349</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="3">
+        <v>66</v>
+      </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2965,7 +2963,9 @@
       <c r="L41" s="3">
         <v>409</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="3">
+        <v>553</v>
+      </c>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,9 @@
       <c r="L42" s="3">
         <v>87</v>
       </c>
-      <c r="M42" s="3"/>
+      <c r="M42" s="3">
+        <v>79</v>
+      </c>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3007,12 +3009,14 @@
       <c r="L43" s="3">
         <v>641</v>
       </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="3">
+        <v>922</v>
+      </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3028,7 +3032,9 @@
       <c r="L44" s="3">
         <v>113</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="3">
+        <v>81</v>
+      </c>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3049,7 +3055,9 @@
       <c r="L45" s="3">
         <v>17985</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="3">
+        <v>17992</v>
+      </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3072,12 +3080,15 @@
         <f>SUM(L37:L45)</f>
         <v>26043</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="3">
+        <f>SUM(M37:M45)</f>
+        <v>26056</v>
+      </c>
       <c r="N46" s="3"/>
     </row>
     <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3093,12 +3104,49 @@
       <c r="L49" s="3">
         <v>3400</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="3">
+        <v>3700</v>
+      </c>
       <c r="N49" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{DB90B18F-E33E-46EE-878C-F69A84A89155}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3004E3C-71B5-4048-B117-3278C772E1BF}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6CB10CB8-6C09-45F1-B4FB-08DC5B4E751B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA823B9-2833-4DD9-9F2A-CB0965EAE8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EF42B-DDD8-40C7-B2BB-D9572AB69139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="-31350" yWindow="2250" windowWidth="30135" windowHeight="17865" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Spikevax" sheetId="3" r:id="rId3"/>
+    <sheet name="4157" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
   <si>
     <t>Price</t>
   </si>
@@ -403,9 +404,6 @@
     <t>II</t>
   </si>
   <si>
-    <t>Q422: 4157 p2 data</t>
-  </si>
-  <si>
     <t>Q123: RSV data</t>
   </si>
   <si>
@@ -413,13 +411,34 @@
   </si>
   <si>
     <t>Spikevax, fka mRNA-1273</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>personalized mRNA vaccine</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>RFS HR=0.56 p=0.0266 (one-sided!)</t>
+  </si>
+  <si>
+    <t>Phase IIb "KEYNOTE-942" n=157 adjuvant melanoma - NCT0389788</t>
+  </si>
+  <si>
+    <t>MRK 50/50 global P&amp;L profit share</t>
+  </si>
+  <si>
+    <t>12/13/22: 4157 Phase II data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -444,6 +463,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -555,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -576,13 +603,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,6 +622,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1035,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
   <dimension ref="B2:M28"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1044,38 +1079,39 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="23" t="s">
         <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="23">
-        <v>171</v>
+      <c r="L2" s="20">
+        <v>184.94</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1085,7 +1121,9 @@
       <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="24"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -1097,22 +1135,22 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="23"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>65694.860199000002</v>
+        <v>71050.335936860007</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1122,10 +1160,12 @@
       <c r="D5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="24"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -1144,10 +1184,12 @@
       <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="24"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1165,14 +1207,16 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="24"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>48691.860199000002</v>
+        <v>54047.335936860007</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1182,8 +1226,10 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
@@ -1192,8 +1238,10 @@
       <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
@@ -1202,8 +1250,10 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
@@ -1212,8 +1262,10 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="I11" s="10"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="24"/>
       <c r="K11" t="s">
         <v>71</v>
       </c>
@@ -1225,8 +1277,10 @@
       <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="I12" s="10"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="24"/>
       <c r="K12" t="s">
         <v>78</v>
       </c>
@@ -1238,8 +1292,10 @@
       <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="I13" s="10"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="24"/>
       <c r="K13" t="s">
         <v>102</v>
       </c>
@@ -1251,8 +1307,10 @@
       <c r="D14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="I14" s="10"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
@@ -1261,8 +1319,10 @@
       <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="I15" s="10"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
@@ -1271,8 +1331,10 @@
       <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="I16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
@@ -1284,11 +1346,13 @@
       <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="I17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="22" t="s">
         <v>113</v>
       </c>
       <c r="D18" t="s">
@@ -1297,10 +1361,14 @@
       <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
@@ -1309,8 +1377,10 @@
       <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="I19" s="10"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
@@ -1322,10 +1392,12 @@
       <c r="E20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
@@ -1334,8 +1406,10 @@
       <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="I21" s="10"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
@@ -1347,10 +1421,12 @@
       <c r="E22" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
@@ -1359,42 +1435,46 @@
       <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="H23" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" location="'4157'!A1" display="mRNA-4157/V940" xr:uid="{D955C29F-0D73-4368-B48E-9F918E568DFA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1419,7 +1499,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2519,120 +2599,120 @@
       <c r="B23" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <f>E11/E9</f>
         <v>1</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <f t="shared" ref="F23:R23" si="35">F11/F9</f>
         <v>0.98598949211908937</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="17">
         <f t="shared" si="35"/>
         <v>0.90036138358286011</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="17">
         <f t="shared" si="35"/>
         <v>0.82774460266421679</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="17">
         <f t="shared" si="35"/>
         <v>0.85469913463473535</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="17">
         <f t="shared" si="35"/>
         <v>0.86797947580085977</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="17">
         <f t="shared" si="35"/>
         <v>0.83234421364985167</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="17">
         <f t="shared" si="35"/>
         <v>0.7092019372499474</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="17">
         <f t="shared" si="35"/>
         <v>0.67300832342449468</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="17">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="17">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="17">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="17">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R23" s="17">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="17">
         <f>E18/E17</f>
         <v>-4.3103448275862068E-3</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <f t="shared" ref="F24:R24" si="36">F18/F17</f>
         <v>-3.6900369003690036E-3</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="17">
         <f t="shared" si="36"/>
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="17">
         <f t="shared" si="36"/>
         <v>9.2393078681031665E-2</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="17">
         <f t="shared" si="36"/>
         <v>6.1655405405405407E-2</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="17">
         <f t="shared" si="36"/>
         <v>0.10018484288354898</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="17">
         <f t="shared" si="36"/>
         <v>0.13525656183494916</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="17">
         <f t="shared" si="36"/>
         <v>0.11196443007275667</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="17">
         <f t="shared" si="36"/>
         <v>0.142974527526705</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="17">
         <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="17">
         <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="17">
         <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="17">
         <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="17">
         <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
@@ -3123,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3004E3C-71B5-4048-B117-3278C772E1BF}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3131,7 +3211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3140,7 +3220,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3149,4 +3229,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9A87B-AEA3-4FAB-8F81-CC20E0ED2CA0}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9BD2B3A6-7328-4643-A4E3-83B7BE45E630}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EF42B-DDD8-40C7-B2BB-D9572AB69139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DADB00-2D0C-4C94-9597-8A26D29E8FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31350" yWindow="2250" windowWidth="30135" windowHeight="17865" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="-25170" yWindow="990" windowWidth="24060" windowHeight="19425" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>tc={7A88566D-7393-4EDB-9417-9FF15ED60EED}</author>
   </authors>
   <commentList>
-    <comment ref="Z6" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+    <comment ref="AC6" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Price</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>mRNA-1345</t>
-  </si>
-  <si>
     <t>RSV</t>
   </si>
   <si>
@@ -432,12 +429,27 @@
   </si>
   <si>
     <t>12/13/22: 4157 Phase II data</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>mRESVIA (mRNA-1345)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -639,7 +651,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{75BB2248-80F9-44E9-A8DB-CDF8EE045604}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -705,13 +719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -763,9 +777,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -803,7 +817,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -909,7 +923,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,7 +1065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1059,7 +1073,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z6" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+  <threadedComment ref="AC6" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
     <text>Q222 guidance: Reiterates 21B expected delivery
 Q322 guidance: 18-19B</text>
   </threadedComment>
@@ -1071,7 +1085,7 @@
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1116,7 @@
         <v>60</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>61</v>
@@ -1111,15 +1125,15 @@
         <v>0</v>
       </c>
       <c r="L2" s="20">
-        <v>184.94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1128,64 +1142,62 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>384.18046900000002</v>
+        <v>384.39605999999998</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="24"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>71050.335936860007</v>
+        <v>29598.496619999998</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="24"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="23"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>3027+5321+8655</f>
-        <v>17003</v>
+        <f>2478+6010+2326</f>
+        <v>10814</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1197,15 +1209,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1216,15 +1228,15 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>54047.335936860007</v>
+        <v>18784.496619999998</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1233,10 +1245,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1245,10 +1257,10 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1257,55 +1269,55 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="24"/>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="24"/>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="24"/>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1314,10 +1326,10 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -1326,10 +1338,10 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -1338,13 +1350,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -1353,29 +1365,29 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -1384,16 +1396,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
         <v>103</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -1401,10 +1413,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -1413,16 +1425,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
         <v>107</v>
       </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -1430,25 +1442,25 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="16"/>
@@ -1458,17 +1470,17 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1482,13 +1494,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763993C8-90F0-44F5-B32B-73F90FF84785}">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AP49"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1498,12 +1510,12 @@
     <col min="3" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1552,75 +1564,87 @@
       <c r="R2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W2">
+      <c r="S2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z2">
         <v>2019</v>
       </c>
-      <c r="X2">
-        <f>+W2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2020</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AD2" si="0">+X2+1</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AG2" si="0">+AA2+1</f>
         <v>2021</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AE2">
-        <f>+AD2+1</f>
+      <c r="AH2">
+        <f>+AG2+1</f>
         <v>2027</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AM2" si="1">+AE2+1</f>
+      <c r="AI2">
+        <f t="shared" ref="AI2:AP2" si="1">+AH2+1</f>
         <v>2028</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
@@ -1640,23 +1664,32 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1698,79 +1731,83 @@
         <v>2420</v>
       </c>
       <c r="P6" s="3">
-        <f>+O6-500</f>
-        <v>1920</v>
+        <v>293</v>
       </c>
       <c r="Q6" s="3">
         <f>+P6-600</f>
-        <v>1320</v>
+        <v>-307</v>
       </c>
       <c r="R6" s="3">
         <f>+Q6-700</f>
-        <v>620</v>
-      </c>
-      <c r="Y6" s="2">
+        <v>-1007</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
+        <v>184</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="AB6" s="2">
         <f>SUM(G6:J6)</f>
         <v>17675</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AC6" s="2">
         <f>SUM(K6:N6)</f>
         <v>16396</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AD6" s="2">
         <f>SUM(O6:R6)</f>
-        <v>6280</v>
-      </c>
-      <c r="AB6" s="2">
-        <f>+AA6*0.2</f>
-        <v>1256</v>
-      </c>
-      <c r="AC6" s="2">
-        <f t="shared" ref="AC6:AM6" si="2">+AB6*0.2</f>
-        <v>251.20000000000002</v>
-      </c>
-      <c r="AD6" s="2">
-        <f t="shared" si="2"/>
-        <v>50.240000000000009</v>
+        <v>1399</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="2"/>
-        <v>10.048000000000002</v>
+        <f>+AD6*0.2</f>
+        <v>279.8</v>
       </c>
       <c r="AF6" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0096000000000003</v>
+        <f t="shared" ref="AF6:AP6" si="2">+AE6*0.2</f>
+        <v>55.960000000000008</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="2"/>
-        <v>0.40192000000000005</v>
+        <v>11.192000000000002</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="2"/>
-        <v>8.0384000000000011E-2</v>
+        <v>2.2384000000000004</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" si="2"/>
-        <v>1.6076800000000002E-2</v>
+        <v>0.44768000000000008</v>
       </c>
       <c r="AJ6" s="2">
         <f t="shared" si="2"/>
-        <v>3.2153600000000004E-3</v>
+        <v>8.9536000000000018E-2</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" si="2"/>
-        <v>6.4307200000000017E-4</v>
+        <v>1.7907200000000005E-2</v>
       </c>
       <c r="AL6" s="2">
         <f t="shared" si="2"/>
-        <v>1.2861440000000004E-4</v>
+        <v>3.5814400000000013E-3</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" si="2"/>
-        <v>2.5722880000000009E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7.1628800000000025E-4</v>
+      </c>
+      <c r="AN6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4325760000000006E-4</v>
+      </c>
+      <c r="AO6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8651520000000013E-5</v>
+      </c>
+      <c r="AP6" s="2">
+        <f t="shared" si="2"/>
+        <v>5.7303040000000027E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1804,16 +1841,16 @@
         <v>144</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <f>SUM(G7:J7)</f>
         <v>735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <f>SUM(K7:N7)</f>
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1847,16 +1884,22 @@
         <v>100</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="Y8" s="2">
+      <c r="P8" s="2">
+        <v>51</v>
+      </c>
+      <c r="T8" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="2">
         <f>SUM(G8:J8)</f>
         <v>61</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AC8" s="2">
         <f>SUM(K8:N8)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1908,26 +1951,42 @@
       </c>
       <c r="P9" s="5">
         <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
-        <v>1920</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
-        <v>1320</v>
+        <v>-307</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ref="R9" si="8">SUM(R6:R8)</f>
-        <v>620</v>
-      </c>
-      <c r="Y9" s="4">
-        <f>SUM(Y6:Y8)</f>
+        <f t="shared" ref="R9:V9" si="8">SUM(R6:R8)</f>
+        <v>-1007</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>SUM(AB6:AB8)</f>
         <v>18471</v>
       </c>
-      <c r="Z9" s="4">
-        <f>SUM(Z6:Z8)</f>
+      <c r="AC9" s="4">
+        <f>SUM(AC6:AC8)</f>
         <v>16999</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1969,52 +2028,56 @@
         <v>726</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" ref="P10" si="11">+P9-P11</f>
-        <v>576</v>
+        <v>731</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="12">+Q9-Q11</f>
-        <v>396.00000000000011</v>
+        <f t="shared" ref="Q10" si="11">+Q9-Q11</f>
+        <v>-92.100000000000023</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ref="R10" si="13">+R9-R11</f>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R10" si="12">+R9-R11</f>
+        <v>-302.10000000000002</v>
+      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>115</v>
+      </c>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11:L11" si="14">+E9-E10</f>
+        <f t="shared" ref="E11:L11" si="13">+E9-E10</f>
         <v>157</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>563</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1744</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3604</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4247</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6259</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5049</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3368</v>
       </c>
       <c r="M11" s="3">
@@ -2030,19 +2093,25 @@
         <v>1694</v>
       </c>
       <c r="P11" s="3">
-        <f>+P9*0.7</f>
-        <v>1344</v>
+        <f>+P9-P10</f>
+        <v>-387</v>
       </c>
       <c r="Q11" s="3">
         <f>+Q9*0.7</f>
-        <v>923.99999999999989</v>
+        <v>-214.89999999999998</v>
       </c>
       <c r="R11" s="3">
         <f>+R9*0.7</f>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+        <v>-704.9</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <f>+T9-T10</f>
+        <v>126</v>
+      </c>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2074,27 +2143,31 @@
         <v>820</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" ref="N12:R12" si="15">+M12+50</f>
+        <f t="shared" ref="N12:R12" si="14">+M12+50</f>
         <v>870</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>920</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="15"/>
-        <v>970</v>
+        <v>1148</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="15"/>
-        <v>1020</v>
+        <f t="shared" si="14"/>
+        <v>1198</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" si="15"/>
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>1248</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
+        <v>1221</v>
+      </c>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2126,149 +2199,165 @@
         <v>278</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" ref="N13:R13" si="16">+M13+20</f>
+        <f t="shared" ref="N13:R13" si="15">+M13+20</f>
         <v>298</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>318</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="16"/>
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="16"/>
-        <v>358</v>
+        <f t="shared" si="15"/>
+        <v>352</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="16"/>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>372</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>268</v>
+      </c>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:L14" si="17">+E12+E13</f>
+        <f t="shared" ref="E14:L14" si="16">+E12+E13</f>
         <v>392</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="16"/>
+        <v>838</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="16"/>
+        <v>478</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="16"/>
+        <v>542</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="16"/>
+        <v>689</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="16"/>
+        <v>849</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="16"/>
+        <v>822</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="16"/>
+        <v>921</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" ref="M14:O14" si="17">+M12+M13</f>
+        <v>1098</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="17"/>
-        <v>838</v>
-      </c>
-      <c r="G14" s="1">
+        <v>1168</v>
+      </c>
+      <c r="O14" s="3">
         <f t="shared" si="17"/>
-        <v>478</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="17"/>
-        <v>542</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="17"/>
-        <v>689</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="17"/>
-        <v>849</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="17"/>
-        <v>822</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="17"/>
-        <v>921</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" ref="M14:O14" si="18">+M12+M13</f>
-        <v>1098</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="18"/>
-        <v>1168</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="18"/>
         <v>1238</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14" si="19">+P12+P13</f>
-        <v>1308</v>
+        <f t="shared" ref="P14" si="18">+P12+P13</f>
+        <v>1480</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" ref="Q14" si="20">+Q12+Q13</f>
-        <v>1378</v>
+        <f t="shared" ref="Q14" si="19">+Q12+Q13</f>
+        <v>1550</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" ref="R14" si="21">+R12+R13</f>
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R14" si="20">+R12+R13</f>
+        <v>1620</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
+        <f>+T13+T12</f>
+        <v>1489</v>
+      </c>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" ref="E15:L15" si="22">+E11-E14</f>
+        <f t="shared" ref="E15:L15" si="21">+E11-E14</f>
         <v>-235</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="21"/>
+        <v>-275</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="21"/>
+        <v>1266</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="21"/>
+        <v>3062</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="21"/>
+        <v>3558</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="21"/>
+        <v>5410</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="21"/>
+        <v>4227</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="21"/>
+        <v>2447</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" ref="M15:O15" si="22">+M11-M14</f>
+        <v>1166</v>
+      </c>
+      <c r="N15" s="3">
         <f t="shared" si="22"/>
-        <v>-275</v>
-      </c>
-      <c r="G15" s="3">
+        <v>805.99999999999977</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="22"/>
-        <v>1266</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="22"/>
-        <v>3062</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="22"/>
-        <v>3558</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="22"/>
-        <v>5410</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="22"/>
-        <v>4227</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="22"/>
-        <v>2447</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" ref="M15:O15" si="23">+M11-M14</f>
-        <v>1166</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="23"/>
-        <v>805.99999999999977</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="23"/>
         <v>456</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" ref="P15" si="24">+P11-P14</f>
-        <v>36</v>
+        <f t="shared" ref="P15" si="23">+P11-P14</f>
+        <v>-1867</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" ref="Q15" si="25">+Q11-Q14</f>
-        <v>-454.00000000000011</v>
+        <f t="shared" ref="Q15" si="24">+Q11-Q14</f>
+        <v>-1764.9</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" ref="R15" si="26">+R11-R14</f>
-        <v>-1014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R15" si="25">+R11-R14</f>
+        <v>-2324.9</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
+        <f>+T11-T14</f>
+        <v>-1363</v>
+      </c>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -2307,69 +2396,83 @@
         <f>58-7</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <f>104+14</f>
+        <v>118</v>
+      </c>
+      <c r="T16">
+        <f>111-27</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" ref="E17:L17" si="27">+E15+E16</f>
+        <f t="shared" ref="E17:L17" si="26">+E15+E16</f>
         <v>-232</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="26"/>
+        <v>-271</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="26"/>
+        <v>1260</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="26"/>
+        <v>3063</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="26"/>
+        <v>3552</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="26"/>
+        <v>5410</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="26"/>
+        <v>4229</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="26"/>
+        <v>2474</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" ref="M17:R17" si="27">+M15+M16</f>
+        <v>1217</v>
+      </c>
+      <c r="N17" s="3">
         <f t="shared" si="27"/>
-        <v>-271</v>
-      </c>
-      <c r="G17" s="3">
+        <v>805.99999999999977</v>
+      </c>
+      <c r="O17" s="3">
         <f t="shared" si="27"/>
-        <v>1260</v>
-      </c>
-      <c r="H17" s="3">
+        <v>456</v>
+      </c>
+      <c r="P17" s="3">
         <f t="shared" si="27"/>
-        <v>3063</v>
-      </c>
-      <c r="I17" s="3">
+        <v>-1749</v>
+      </c>
+      <c r="Q17" s="3">
         <f t="shared" si="27"/>
-        <v>3552</v>
-      </c>
-      <c r="J17" s="3">
+        <v>-1764.9</v>
+      </c>
+      <c r="R17" s="3">
         <f t="shared" si="27"/>
-        <v>5410</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="27"/>
-        <v>4229</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="27"/>
-        <v>2474</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ref="M17:R17" si="28">+M15+M16</f>
-        <v>1217</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="28"/>
-        <v>805.99999999999977</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="28"/>
-        <v>456</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="28"/>
-        <v>36</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="28"/>
-        <v>-454.00000000000011</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="28"/>
-        <v>-1014</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-2324.9</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <f>+T15+T16</f>
+        <v>-1279</v>
+      </c>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -2401,149 +2504,165 @@
         <v>174</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" ref="N18:R18" si="29">+N17*0.15</f>
+        <f t="shared" ref="N18:R18" si="28">+N17*0.15</f>
         <v>120.89999999999996</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>68.399999999999991</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="29"/>
-        <v>5.3999999999999995</v>
+        <v>-369</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="29"/>
-        <v>-68.100000000000009</v>
+        <f t="shared" si="28"/>
+        <v>-264.73500000000001</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="29"/>
-        <v>-152.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>-348.73500000000001</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ref="E19:L19" si="30">+E17-E18</f>
+        <f t="shared" ref="E19:L19" si="29">+E17-E18</f>
         <v>-233</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="29"/>
+        <v>-272</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="29"/>
+        <v>1221</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="29"/>
+        <v>2780</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="29"/>
+        <v>3333</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="29"/>
+        <v>4868</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="29"/>
+        <v>3657</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="29"/>
+        <v>2197</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ref="M19:R19" si="30">+M17-M18</f>
+        <v>1043</v>
+      </c>
+      <c r="N19" s="3">
         <f t="shared" si="30"/>
-        <v>-272</v>
-      </c>
-      <c r="G19" s="3">
+        <v>685.0999999999998</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="30"/>
-        <v>1221</v>
-      </c>
-      <c r="H19" s="3">
+        <v>387.6</v>
+      </c>
+      <c r="P19" s="3">
         <f t="shared" si="30"/>
-        <v>2780</v>
-      </c>
-      <c r="I19" s="3">
+        <v>-1380</v>
+      </c>
+      <c r="Q19" s="3">
         <f t="shared" si="30"/>
-        <v>3333</v>
-      </c>
-      <c r="J19" s="3">
+        <v>-1500.165</v>
+      </c>
+      <c r="R19" s="3">
         <f t="shared" si="30"/>
-        <v>4868</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="30"/>
-        <v>3657</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="30"/>
-        <v>2197</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" ref="M19:R19" si="31">+M17-M18</f>
-        <v>1043</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="31"/>
-        <v>685.0999999999998</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="31"/>
-        <v>387.6</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="31"/>
-        <v>30.6</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="31"/>
-        <v>-385.90000000000009</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="31"/>
-        <v>-861.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-1976.165</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3">
+        <f>+T17-T18</f>
+        <v>-1279</v>
+      </c>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20:L20" si="32">+E19/E21</f>
+        <f t="shared" ref="E20:L20" si="31">+E19/E21</f>
         <v>-0.58987341772151902</v>
       </c>
       <c r="F20" s="6">
+        <f t="shared" si="31"/>
+        <v>-0.68513853904282118</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="31"/>
+        <v>2.8395348837209302</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="31"/>
+        <v>6.4501160092807428</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="31"/>
+        <v>7.6797235023041477</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="31"/>
+        <v>11.294663573085847</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="31"/>
+        <v>8.5845070422535219</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="31"/>
+        <v>5.2434367541766109</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" ref="M20:R20" si="32">+M19/M21</f>
+        <v>2.5315533980582523</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="32"/>
-        <v>-0.68513853904282118</v>
-      </c>
-      <c r="G20" s="6">
+        <v>1.6628640776699024</v>
+      </c>
+      <c r="O20" s="6">
         <f t="shared" si="32"/>
-        <v>2.8395348837209302</v>
-      </c>
-      <c r="H20" s="6">
+        <v>0.94077669902912631</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="32"/>
-        <v>6.4501160092807428</v>
-      </c>
-      <c r="I20" s="6">
+        <v>-3.622047244094488</v>
+      </c>
+      <c r="Q20" s="6">
         <f t="shared" si="32"/>
-        <v>7.6797235023041477</v>
-      </c>
-      <c r="J20" s="6">
+        <v>-3.9374409448818897</v>
+      </c>
+      <c r="R20" s="6">
         <f t="shared" si="32"/>
-        <v>11.294663573085847</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="32"/>
-        <v>8.5845070422535219</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="32"/>
-        <v>5.2434367541766109</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" ref="M20:R20" si="33">+M19/M21</f>
-        <v>2.5315533980582523</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="33"/>
-        <v>1.6628640776699024</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="33"/>
-        <v>0.94077669902912631</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="33"/>
-        <v>7.4271844660194181E-2</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="33"/>
-        <v>-0.93665048543689344</v>
-      </c>
-      <c r="R20" s="6">
-        <f t="shared" si="33"/>
-        <v>-2.0919902912621358</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-5.1867847769028872</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6">
+        <f>+T19/T21</f>
+        <v>-3.3307291666666665</v>
+      </c>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2575,90 +2694,103 @@
         <v>412</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" ref="N21:R21" si="34">+M21</f>
+        <f t="shared" ref="N21:R21" si="33">+M21</f>
         <v>412</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>412</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="34"/>
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="34"/>
-        <v>412</v>
+        <f t="shared" si="33"/>
+        <v>381</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="34"/>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>381</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
+        <v>384</v>
+      </c>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="17">
         <f>E11/E9</f>
         <v>1</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" ref="F23:R23" si="35">F11/F9</f>
+        <f t="shared" ref="F23:R23" si="34">F11/F9</f>
         <v>0.98598949211908937</v>
       </c>
       <c r="G23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.90036138358286011</v>
+      </c>
+      <c r="H23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.82774460266421679</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.85469913463473535</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.86797947580085977</v>
+      </c>
+      <c r="K23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.83234421364985167</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.7092019372499474</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.67300832342449468</v>
+      </c>
+      <c r="N23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="O23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="34"/>
+        <v>-1.125</v>
+      </c>
+      <c r="Q23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="R23" s="17">
+        <f t="shared" si="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="S23" s="17" t="e">
+        <f t="shared" ref="S23:T23" si="35">S11/S9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="17">
         <f t="shared" si="35"/>
-        <v>0.90036138358286011</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.82774460266421679</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.85469913463473535</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.86797947580085977</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.83234421364985167</v>
-      </c>
-      <c r="L23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.7092019372499474</v>
-      </c>
-      <c r="M23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.67300832342449468</v>
-      </c>
-      <c r="N23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-      <c r="O23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-      <c r="P23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-      <c r="Q23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-      <c r="R23" s="17">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0.52282157676348551</v>
+      </c>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="17">
         <f>E18/E17</f>
@@ -2706,7 +2838,7 @@
       </c>
       <c r="P24" s="17">
         <f t="shared" si="36"/>
-        <v>0.15</v>
+        <v>0.21097770154373929</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="36"/>
@@ -2716,8 +2848,17 @@
         <f t="shared" si="36"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="17" t="e">
+        <f t="shared" ref="S24:T24" si="37">S18/S17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="27" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2742,8 +2883,12 @@
         <v>17017</v>
       </c>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T27" s="2">
+        <f>2478+6010+2326</f>
+        <v>10814</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
@@ -2765,8 +2910,11 @@
         <v>2695</v>
       </c>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T28" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -2788,8 +2936,11 @@
         <v>2077</v>
       </c>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T29" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
@@ -2811,8 +2962,11 @@
         <v>1177</v>
       </c>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T30" s="2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
@@ -2834,8 +2988,11 @@
         <v>2019</v>
       </c>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="2">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -2857,8 +3014,11 @@
         <v>113</v>
       </c>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T32" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -2880,8 +3040,11 @@
         <v>920</v>
       </c>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T33" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
@@ -2903,8 +3066,11 @@
         <v>38</v>
       </c>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T34" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
@@ -2929,8 +3095,12 @@
         <v>26056</v>
       </c>
       <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T35" s="2">
+        <f>SUM(T27:T34)</f>
+        <v>15680</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2952,8 +3122,11 @@
         <v>330</v>
       </c>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T37" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2975,8 +3148,11 @@
         <v>1856</v>
       </c>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T38" s="2">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
@@ -3001,8 +3177,12 @@
         <v>4177</v>
       </c>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T39" s="2">
+        <f>702+95</f>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>29</v>
       </c>
@@ -3024,8 +3204,11 @@
         <v>66</v>
       </c>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T40" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
@@ -3047,8 +3230,11 @@
         <v>553</v>
       </c>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T41" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
@@ -3070,8 +3256,11 @@
         <v>79</v>
       </c>
       <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T42" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -3093,10 +3282,13 @@
         <v>922</v>
       </c>
       <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T43" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3116,8 +3308,11 @@
         <v>81</v>
       </c>
       <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T44" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>52</v>
       </c>
@@ -3139,8 +3334,11 @@
         <v>17992</v>
       </c>
       <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T45" s="2">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>53</v>
       </c>
@@ -3165,10 +3363,14 @@
         <v>26056</v>
       </c>
       <c r="N46" s="3"/>
+      <c r="T46" s="2">
+        <f>SUM(T37:T45)</f>
+        <v>15680</v>
+      </c>
     </row>
     <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3220,7 +3422,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3253,15 +3455,15 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,22 +3471,22 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DADB00-2D0C-4C94-9597-8A26D29E8FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E7DB0A-2053-4550-8C38-5AF9D5FA2F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25170" yWindow="990" windowWidth="24060" windowHeight="19425" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="-27135" yWindow="750" windowWidth="24255" windowHeight="19950" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Spikevax" sheetId="3" r:id="rId3"/>
-    <sheet name="4157" sheetId="4" r:id="rId4"/>
+    <sheet name="Master" sheetId="5" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Spikevax" sheetId="3" r:id="rId4"/>
+    <sheet name="4157" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
     <author>tc={7A88566D-7393-4EDB-9417-9FF15ED60EED}</author>
   </authors>
   <commentList>
-    <comment ref="AC6" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+    <comment ref="AC10" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
   <si>
     <t>Price</t>
   </si>
@@ -227,9 +228,6 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Generic</t>
-  </si>
-  <si>
     <t>Indication</t>
   </si>
   <si>
@@ -248,9 +246,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>RSV</t>
-  </si>
-  <si>
     <t>mRNA-1010</t>
   </si>
   <si>
@@ -444,6 +439,54 @@
   </si>
   <si>
     <t>mRESVIA (mRNA-1345)</t>
+  </si>
+  <si>
+    <t>mRNA-1403</t>
+  </si>
+  <si>
+    <t>Norovirus</t>
+  </si>
+  <si>
+    <t>RSV older adults</t>
+  </si>
+  <si>
+    <t>III, data YE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>mRNA-5671</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>Fate</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>mRNA-0184</t>
+  </si>
+  <si>
+    <t>relaxin</t>
+  </si>
+  <si>
+    <t>mRNA-1345</t>
+  </si>
+  <si>
+    <t>Abrysvo</t>
+  </si>
+  <si>
+    <t>Arvexy</t>
+  </si>
+  <si>
+    <t>mRNA-1083</t>
+  </si>
+  <si>
+    <t>COVID-19+Influenza</t>
   </si>
 </sst>
 </file>
@@ -669,16 +712,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>43615</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20554</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>43615</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>122322</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -693,8 +736,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7984457" y="20554"/>
-          <a:ext cx="0" cy="7662111"/>
+          <a:off x="12248753" y="0"/>
+          <a:ext cx="0" cy="7840856"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -727,7 +770,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1073,7 +1116,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AC6" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+  <threadedComment ref="AC10" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
     <text>Q222 guidance: Reiterates 21B expected delivery
 Q322 guidance: 18-19B</text>
   </threadedComment>
@@ -1081,24 +1124,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
-  <dimension ref="B2:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED57A4C7-646C-471C-BC3A-3C06D5B3D5C6}">
+  <dimension ref="A6:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Main!A1" display="Main" xr:uid="{4A3D7D45-F375-4E89-89FF-4AFD27F5F9B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
+  <dimension ref="B2:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>56</v>
@@ -1109,398 +1213,423 @@
       <c r="E2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="20">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K2" s="20">
+        <v>58.29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="24"/>
-      <c r="K3" t="s">
+      <c r="H3" s="24"/>
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+      <c r="K3" s="2">
         <v>384.39605999999998</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2024</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="24"/>
-      <c r="K4" t="s">
+      <c r="H4" s="24"/>
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
-        <f>+L2*L3</f>
-        <v>29598.496619999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K4" s="2">
+        <f>+K2*K3</f>
+        <v>22406.446337399997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="E5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="23"/>
-      <c r="K5" t="s">
+      <c r="H5" s="23"/>
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
         <f>2478+6010+2326</f>
         <v>10814</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="24"/>
-      <c r="K6" t="s">
+      <c r="H6" s="24"/>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="24"/>
-      <c r="K7" t="s">
+      <c r="H7" s="24"/>
+      <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2">
-        <f>+L4-L5+L6</f>
-        <v>18784.496619999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <f>+K4-K5+K6</f>
+        <v>11592.446337399997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="24"/>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="24"/>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H12" s="24"/>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="24"/>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" s="24"/>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H15" s="24"/>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>92</v>
       </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>102</v>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>115</v>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" location="'4157'!A1" display="mRNA-4157/V940" xr:uid="{D955C29F-0D73-4368-B48E-9F918E568DFA}"/>
+    <hyperlink ref="B20" location="'4157'!A1" display="mRNA-4157/V940" xr:uid="{D955C29F-0D73-4368-B48E-9F918E568DFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763993C8-90F0-44F5-B32B-73F90FF84785}">
-  <dimension ref="A1:AP49"/>
+  <dimension ref="A1:AP53"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1565,16 +1694,16 @@
         <v>23</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="Z2">
         <v>2019</v>
@@ -1669,6 +1798,9 @@
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1676,10 +1808,17 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1100</v>
+      </c>
+      <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1688,307 +1827,73 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>200</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1733</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4197</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4810</v>
-      </c>
-      <c r="J6" s="3">
-        <v>6935</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5925</v>
-      </c>
-      <c r="L6" s="3">
-        <v>4531</v>
-      </c>
-      <c r="M6" s="3">
-        <v>3120</v>
-      </c>
-      <c r="N6" s="3">
-        <f>+M6-300</f>
-        <v>2820</v>
-      </c>
-      <c r="O6" s="3">
-        <f>+N6-400</f>
-        <v>2420</v>
-      </c>
-      <c r="P6" s="3">
-        <v>293</v>
-      </c>
-      <c r="Q6" s="3">
-        <f>+P6-600</f>
-        <v>-307</v>
-      </c>
-      <c r="R6" s="3">
-        <f>+Q6-700</f>
-        <v>-1007</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3">
-        <v>184</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="AB6" s="2">
-        <f>SUM(G6:J6)</f>
-        <v>17675</v>
-      </c>
-      <c r="AC6" s="2">
-        <f>SUM(K6:N6)</f>
-        <v>16396</v>
-      </c>
-      <c r="AD6" s="2">
-        <f>SUM(O6:R6)</f>
-        <v>1399</v>
-      </c>
-      <c r="AE6" s="2">
-        <f>+AD6*0.2</f>
-        <v>279.8</v>
-      </c>
-      <c r="AF6" s="2">
-        <f t="shared" ref="AF6:AP6" si="2">+AE6*0.2</f>
-        <v>55.960000000000008</v>
-      </c>
-      <c r="AG6" s="2">
-        <f t="shared" si="2"/>
-        <v>11.192000000000002</v>
-      </c>
-      <c r="AH6" s="2">
-        <f t="shared" si="2"/>
-        <v>2.2384000000000004</v>
-      </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44768000000000008</v>
-      </c>
-      <c r="AJ6" s="2">
-        <f t="shared" si="2"/>
-        <v>8.9536000000000018E-2</v>
-      </c>
-      <c r="AK6" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7907200000000005E-2</v>
-      </c>
-      <c r="AL6" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5814400000000013E-3</v>
-      </c>
-      <c r="AM6" s="2">
-        <f t="shared" si="2"/>
-        <v>7.1628800000000025E-4</v>
-      </c>
-      <c r="AN6" s="2">
-        <f t="shared" si="2"/>
-        <v>1.4325760000000006E-4</v>
-      </c>
-      <c r="AO6" s="2">
-        <f t="shared" si="2"/>
-        <v>2.8651520000000013E-5</v>
-      </c>
-      <c r="AP6" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7303040000000027E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>145</v>
-      </c>
-      <c r="F7" s="3">
-        <v>341</v>
-      </c>
-      <c r="G7" s="3">
-        <v>194</v>
-      </c>
-      <c r="H7" s="3">
-        <v>139</v>
-      </c>
-      <c r="I7" s="3">
-        <v>140</v>
-      </c>
-      <c r="J7" s="3">
-        <v>262</v>
-      </c>
-      <c r="K7" s="3">
-        <v>126</v>
-      </c>
-      <c r="L7" s="3">
-        <v>183</v>
-      </c>
-      <c r="M7" s="3">
-        <v>144</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="AB7" s="2">
-        <f>SUM(G7:J7)</f>
-        <v>735</v>
-      </c>
-      <c r="AC7" s="2">
-        <f>SUM(K7:N7)</f>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3">
-        <v>14</v>
-      </c>
-      <c r="K8" s="3">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3">
-        <v>35</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3"/>
-      <c r="P8" s="2">
-        <v>51</v>
-      </c>
-      <c r="T8" s="2">
-        <v>57</v>
-      </c>
-      <c r="AB8" s="2">
-        <f>SUM(G8:J8)</f>
-        <v>61</v>
-      </c>
-      <c r="AC8" s="2">
-        <f>SUM(K8:N8)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <f t="shared" ref="E9:L9" si="3">SUM(E6:E8)</f>
-        <v>157</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>571</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>1937</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>4354</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="3"/>
-        <v>4969</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="3"/>
-        <v>7211</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>6066</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="3"/>
-        <v>4749</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" ref="M9:N9" si="4">SUM(M6:M8)</f>
-        <v>3364</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="4"/>
-        <v>2820</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" ref="O9" si="5">SUM(O6:O8)</f>
-        <v>2420</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" ref="P9" si="6">SUM(P6:P8)</f>
-        <v>344</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" ref="Q9" si="7">SUM(Q6:Q8)</f>
-        <v>-307</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R9:V9" si="8">SUM(R6:R8)</f>
-        <v>-1007</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="8"/>
-        <v>241</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4">
-        <f>SUM(AB6:AB8)</f>
-        <v>18471</v>
-      </c>
-      <c r="AC9" s="4">
-        <f>SUM(AC6:AC8)</f>
-        <v>16999</v>
+      <c r="AE5" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AF5" s="2"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="AE7" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="AF8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="AF9" s="2">
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1996,979 +1901,1258 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1733</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4197</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4810</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6935</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5925</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4531</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3120</v>
+      </c>
+      <c r="N10" s="3">
+        <v>4859</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1828</v>
+      </c>
+      <c r="P10" s="3">
+        <v>293</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1757</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2793</v>
+      </c>
+      <c r="S10" s="3">
+        <v>167</v>
+      </c>
+      <c r="T10" s="3">
+        <v>184</v>
+      </c>
+      <c r="U10" s="3">
+        <f>+T10</f>
+        <v>184</v>
+      </c>
+      <c r="V10" s="2">
+        <f>+U10</f>
+        <v>184</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>SUM(G10:J10)</f>
+        <v>17675</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>SUM(K10:N10)</f>
+        <v>18435</v>
+      </c>
+      <c r="AD10" s="2">
+        <f>SUM(O10:R10)</f>
+        <v>6671</v>
+      </c>
+      <c r="AE10" s="2">
+        <f>SUM(S10:V10)</f>
+        <v>719</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" ref="AG10:AP10" si="2">+AF10*0.2</f>
+        <v>100</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000008E-2</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="2"/>
+        <v>6.400000000000002E-3</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2800000000000005E-3</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.560000000000001E-4</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="2"/>
+        <v>5.1200000000000025E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>145</v>
+      </c>
+      <c r="F11" s="3">
+        <v>341</v>
+      </c>
+      <c r="G11" s="3">
+        <v>194</v>
+      </c>
+      <c r="H11" s="3">
+        <v>139</v>
+      </c>
+      <c r="I11" s="3">
+        <v>140</v>
+      </c>
+      <c r="J11" s="3">
+        <v>262</v>
+      </c>
+      <c r="K11" s="3">
+        <v>126</v>
+      </c>
+      <c r="L11" s="3">
+        <v>183</v>
+      </c>
+      <c r="M11" s="3">
+        <v>144</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="AB11" s="2">
+        <f>SUM(G11:J11)</f>
+        <v>735</v>
+      </c>
+      <c r="AC11" s="2">
+        <f>SUM(K11:N11)</f>
+        <v>453</v>
+      </c>
+      <c r="AD11" s="2">
+        <f>SUM(O11:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <f>SUM(S11:V11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15</v>
+      </c>
+      <c r="L12" s="3">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>225</v>
+      </c>
+      <c r="O12" s="2">
+        <v>34</v>
+      </c>
+      <c r="P12" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>74</v>
+      </c>
+      <c r="R12" s="2">
+        <v>18</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>57</v>
+      </c>
+      <c r="U12" s="2">
+        <f>+T12</f>
+        <v>57</v>
+      </c>
+      <c r="V12" s="2">
+        <f>+U12</f>
+        <v>57</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>SUM(G12:J12)</f>
+        <v>61</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>SUM(K12:N12)</f>
+        <v>375</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>SUM(O12:R12)</f>
+        <v>177</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>SUM(S12:V12)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:L13" si="3">SUM(E10:E12)</f>
+        <v>157</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>571</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>1937</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="3"/>
+        <v>4354</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>4969</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>7211</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>6066</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>4749</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" ref="M13:N13" si="4">SUM(M10:M12)</f>
+        <v>3364</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="4"/>
+        <v>5084</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" ref="O13" si="5">SUM(O10:O12)</f>
+        <v>1862</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" ref="P13" si="6">SUM(P10:P12)</f>
+        <v>344</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" ref="Q13" si="7">SUM(Q10:Q12)</f>
+        <v>1831</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" ref="R13:V13" si="8">SUM(R10:R12)</f>
+        <v>2811</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>SUM(AB10:AB12)</f>
+        <v>18471</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>SUM(AC10:AC12)</f>
+        <v>19263</v>
+      </c>
+      <c r="AD13" s="4">
+        <f>SUM(AD10:AD12)</f>
+        <v>6848</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM(AE7:AE12)</f>
+        <v>940</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM(AF7:AF12)</f>
+        <v>2700</v>
+      </c>
+      <c r="AG13" s="4">
+        <f>SUM(AG7:AG12)</f>
+        <v>100</v>
+      </c>
+      <c r="AH13" s="4">
+        <f>SUM(AH7:AH12)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G14" s="3">
         <v>193</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H14" s="3">
         <v>750</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I14" s="3">
         <v>722</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J14" s="3">
         <v>952</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K14" s="3">
         <v>1017</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L14" s="3">
         <v>1381</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" ref="N10" si="9">+N9-N11</f>
-        <v>846.00000000000023</v>
-      </c>
-      <c r="O10" s="3">
-        <f t="shared" ref="O10" si="10">+O9-O11</f>
-        <v>726</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N14" s="3">
+        <v>1918</v>
+      </c>
+      <c r="O14" s="3">
+        <v>792</v>
+      </c>
+      <c r="P14" s="3">
         <v>731</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="11">+Q9-Q11</f>
-        <v>-92.100000000000023</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" ref="R10" si="12">+R9-R11</f>
-        <v>-302.10000000000002</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3">
+      <c r="Q14" s="3">
+        <v>2241</v>
+      </c>
+      <c r="R14" s="3">
+        <v>929</v>
+      </c>
+      <c r="S14" s="3">
+        <v>96</v>
+      </c>
+      <c r="T14" s="3">
         <v>115</v>
       </c>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" ref="E11:L11" si="13">+E9-E10</f>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:L15" si="9">+E13-E14</f>
         <v>157</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="13"/>
+      <c r="F15" s="3">
+        <f t="shared" si="9"/>
         <v>563</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="13"/>
+      <c r="G15" s="3">
+        <f t="shared" si="9"/>
         <v>1744</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" si="13"/>
+      <c r="H15" s="3">
+        <f t="shared" si="9"/>
         <v>3604</v>
       </c>
-      <c r="I11" s="3">
-        <f t="shared" si="13"/>
+      <c r="I15" s="3">
+        <f t="shared" si="9"/>
         <v>4247</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="13"/>
+      <c r="J15" s="3">
+        <f t="shared" si="9"/>
         <v>6259</v>
       </c>
-      <c r="K11" s="3">
-        <f t="shared" si="13"/>
+      <c r="K15" s="3">
+        <f t="shared" si="9"/>
         <v>5049</v>
       </c>
-      <c r="L11" s="3">
-        <f t="shared" si="13"/>
+      <c r="L15" s="3">
+        <f t="shared" si="9"/>
         <v>3368</v>
       </c>
-      <c r="M11" s="3">
-        <f>+M9-M10</f>
+      <c r="M15" s="3">
+        <f>+M13-M14</f>
         <v>2264</v>
       </c>
-      <c r="N11" s="3">
-        <f>+N9*0.7</f>
-        <v>1973.9999999999998</v>
-      </c>
-      <c r="O11" s="3">
-        <f>+O9*0.7</f>
-        <v>1694</v>
-      </c>
-      <c r="P11" s="3">
-        <f>+P9-P10</f>
+      <c r="N15" s="3">
+        <f>+N13-N14</f>
+        <v>3166</v>
+      </c>
+      <c r="O15" s="3">
+        <f>+O13-O14</f>
+        <v>1070</v>
+      </c>
+      <c r="P15" s="3">
+        <f>+P13-P14</f>
         <v>-387</v>
       </c>
-      <c r="Q11" s="3">
-        <f>+Q9*0.7</f>
-        <v>-214.89999999999998</v>
-      </c>
-      <c r="R11" s="3">
-        <f>+R9*0.7</f>
-        <v>-704.9</v>
-      </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3">
-        <f>+T9-T10</f>
+      <c r="Q15" s="3">
+        <f>+Q13-Q14</f>
+        <v>-410</v>
+      </c>
+      <c r="R15" s="3">
+        <f>+R13-R14</f>
+        <v>1882</v>
+      </c>
+      <c r="S15" s="3">
+        <f>+S13-S14</f>
+        <v>71</v>
+      </c>
+      <c r="T15" s="3">
+        <f>+T13-T14</f>
         <v>126</v>
       </c>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E16" s="1">
         <v>344</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="1">
         <v>759</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G16" s="1">
         <v>401</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="1">
         <v>421</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I16" s="1">
         <v>521</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J16" s="1">
         <v>648</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K16" s="1">
         <v>554</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L16" s="1">
         <v>710</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M16" s="3">
         <v>820</v>
       </c>
-      <c r="N12" s="3">
-        <f t="shared" ref="N12:R12" si="14">+M12+50</f>
-        <v>870</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="N16" s="3">
+        <v>1211</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1131</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1148</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1160</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1406</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1063</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1221</v>
+      </c>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1">
+        <v>121</v>
+      </c>
+      <c r="I17" s="1">
+        <v>168</v>
+      </c>
+      <c r="J17" s="1">
+        <v>201</v>
+      </c>
+      <c r="K17" s="1">
+        <v>268</v>
+      </c>
+      <c r="L17" s="1">
+        <v>211</v>
+      </c>
+      <c r="M17" s="3">
+        <v>278</v>
+      </c>
+      <c r="N17" s="3">
+        <v>375</v>
+      </c>
+      <c r="O17" s="3">
+        <v>305</v>
+      </c>
+      <c r="P17" s="3">
+        <v>332</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>442</v>
+      </c>
+      <c r="R17" s="3">
+        <v>470</v>
+      </c>
+      <c r="S17" s="3">
+        <v>274</v>
+      </c>
+      <c r="T17" s="3">
+        <v>268</v>
+      </c>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:L18" si="10">+E16+E17</f>
+        <v>392</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="10"/>
+        <v>838</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="10"/>
+        <v>478</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="10"/>
+        <v>542</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="10"/>
+        <v>689</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="10"/>
+        <v>849</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="10"/>
+        <v>822</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="10"/>
+        <v>921</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" ref="M18:O18" si="11">+M16+M17</f>
+        <v>1098</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="11"/>
+        <v>1586</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="11"/>
+        <v>1436</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" ref="P18" si="12">+P16+P17</f>
+        <v>1480</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" ref="Q18" si="13">+Q16+Q17</f>
+        <v>1602</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" ref="R18:S18" si="14">+R16+R17</f>
+        <v>1876</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="14"/>
-        <v>920</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1148</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="14"/>
-        <v>1198</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="14"/>
-        <v>1248</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3">
-        <v>1221</v>
-      </c>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1">
-        <v>79</v>
-      </c>
-      <c r="G13" s="1">
-        <v>77</v>
-      </c>
-      <c r="H13" s="1">
-        <v>121</v>
-      </c>
-      <c r="I13" s="1">
-        <v>168</v>
-      </c>
-      <c r="J13" s="1">
-        <v>201</v>
-      </c>
-      <c r="K13" s="1">
-        <v>268</v>
-      </c>
-      <c r="L13" s="1">
-        <v>211</v>
-      </c>
-      <c r="M13" s="3">
-        <v>278</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" ref="N13:R13" si="15">+M13+20</f>
-        <v>298</v>
-      </c>
-      <c r="O13" s="3">
+        <v>1337</v>
+      </c>
+      <c r="T18" s="3">
+        <f>+T17+T16</f>
+        <v>1489</v>
+      </c>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19:L19" si="15">+E15-E18</f>
+        <v>-235</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="15"/>
-        <v>318</v>
-      </c>
-      <c r="P13" s="3">
-        <v>332</v>
-      </c>
-      <c r="Q13" s="3">
+        <v>-275</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="15"/>
-        <v>352</v>
-      </c>
-      <c r="R13" s="3">
+        <v>1266</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="15"/>
-        <v>372</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3">
-        <v>268</v>
-      </c>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" ref="E14:L14" si="16">+E12+E13</f>
-        <v>392</v>
-      </c>
-      <c r="F14" s="1">
+        <v>3062</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="15"/>
+        <v>3558</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="15"/>
+        <v>5410</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="15"/>
+        <v>4227</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="15"/>
+        <v>2447</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ref="M19:O19" si="16">+M15-M18</f>
+        <v>1166</v>
+      </c>
+      <c r="N19" s="3">
         <f t="shared" si="16"/>
-        <v>838</v>
-      </c>
-      <c r="G14" s="1">
+        <v>1580</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="16"/>
-        <v>478</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="16"/>
-        <v>542</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="16"/>
-        <v>689</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="16"/>
-        <v>849</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="16"/>
-        <v>822</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="16"/>
-        <v>921</v>
-      </c>
-      <c r="M14" s="3">
-        <f t="shared" ref="M14:O14" si="17">+M12+M13</f>
-        <v>1098</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="17"/>
-        <v>1168</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="17"/>
-        <v>1238</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" ref="P14" si="18">+P12+P13</f>
-        <v>1480</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" ref="Q14" si="19">+Q12+Q13</f>
-        <v>1550</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" ref="R14" si="20">+R12+R13</f>
-        <v>1620</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3">
-        <f>+T13+T12</f>
-        <v>1489</v>
-      </c>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15:L15" si="21">+E11-E14</f>
-        <v>-235</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="21"/>
-        <v>-275</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="21"/>
-        <v>1266</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="21"/>
-        <v>3062</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="21"/>
-        <v>3558</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="21"/>
-        <v>5410</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="21"/>
-        <v>4227</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="21"/>
-        <v>2447</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" ref="M15:O15" si="22">+M11-M14</f>
-        <v>1166</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="22"/>
-        <v>805.99999999999977</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="22"/>
-        <v>456</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" ref="P15" si="23">+P11-P14</f>
+        <v>-366</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19" si="17">+P15-P18</f>
         <v>-1867</v>
       </c>
-      <c r="Q15" s="3">
-        <f t="shared" ref="Q15" si="24">+Q11-Q14</f>
-        <v>-1764.9</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" ref="R15" si="25">+R11-R14</f>
-        <v>-2324.9</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <f>+T11-T14</f>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="18">+Q15-Q18</f>
+        <v>-2012</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" ref="R19:S19" si="19">+R15-R18</f>
+        <v>6</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="19"/>
+        <v>-1266</v>
+      </c>
+      <c r="T19" s="3">
+        <f>+T15-T18</f>
         <v>-1363</v>
       </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E20" s="1">
         <f>6-3</f>
         <v>3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G20" s="1">
         <f>4-10</f>
         <v>-6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H20" s="1">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I20" s="1">
         <f>4-10</f>
         <v>-6</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J20" s="1">
         <f>7-7</f>
         <v>0</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K20" s="1">
         <f>15-13</f>
         <v>2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L20" s="1">
         <f>40-13</f>
         <v>27</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M20" s="1">
         <f>58-7</f>
         <v>51</v>
       </c>
-      <c r="P16">
+      <c r="N20" s="1">
+        <f>87-12</f>
+        <v>75</v>
+      </c>
+      <c r="O20">
+        <f>109-48</f>
+        <v>61</v>
+      </c>
+      <c r="P20">
         <f>104+14</f>
         <v>118</v>
       </c>
-      <c r="T16">
+      <c r="Q20">
+        <f>105-51</f>
+        <v>54</v>
+      </c>
+      <c r="R20">
+        <f>103-39</f>
+        <v>64</v>
+      </c>
+      <c r="S20">
+        <f>120-19</f>
+        <v>101</v>
+      </c>
+      <c r="T20">
         <f>111-27</f>
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17:L17" si="26">+E15+E16</f>
-        <v>-232</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="26"/>
-        <v>-271</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="26"/>
-        <v>1260</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="26"/>
-        <v>3063</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="26"/>
-        <v>3552</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="26"/>
-        <v>5410</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="26"/>
-        <v>4229</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="26"/>
-        <v>2474</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ref="M17:R17" si="27">+M15+M16</f>
-        <v>1217</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="27"/>
-        <v>805.99999999999977</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="27"/>
-        <v>456</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="27"/>
-        <v>-1749</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="27"/>
-        <v>-1764.9</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="27"/>
-        <v>-2324.9</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3">
-        <f>+T15+T16</f>
-        <v>-1279</v>
-      </c>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1">
-        <v>283</v>
-      </c>
-      <c r="I18" s="1">
-        <v>219</v>
-      </c>
-      <c r="J18" s="1">
-        <v>542</v>
-      </c>
-      <c r="K18" s="1">
-        <v>572</v>
-      </c>
-      <c r="L18" s="1">
-        <v>277</v>
-      </c>
-      <c r="M18" s="3">
-        <v>174</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" ref="N18:R18" si="28">+N17*0.15</f>
-        <v>120.89999999999996</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="28"/>
-        <v>68.399999999999991</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-369</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="28"/>
-        <v>-264.73500000000001</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="28"/>
-        <v>-348.73500000000001</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19:L19" si="29">+E17-E18</f>
-        <v>-233</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="29"/>
-        <v>-272</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="29"/>
-        <v>1221</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="29"/>
-        <v>2780</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="29"/>
-        <v>3333</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="29"/>
-        <v>4868</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="29"/>
-        <v>3657</v>
-      </c>
-      <c r="L19" s="3">
-        <f t="shared" si="29"/>
-        <v>2197</v>
-      </c>
-      <c r="M19" s="3">
-        <f t="shared" ref="M19:R19" si="30">+M17-M18</f>
-        <v>1043</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="30"/>
-        <v>685.0999999999998</v>
-      </c>
-      <c r="O19" s="3">
-        <f t="shared" si="30"/>
-        <v>387.6</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="30"/>
-        <v>-1380</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="30"/>
-        <v>-1500.165</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="30"/>
-        <v>-1976.165</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3">
-        <f>+T17-T18</f>
-        <v>-1279</v>
-      </c>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" ref="E20:L20" si="31">+E19/E21</f>
-        <v>-0.58987341772151902</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="31"/>
-        <v>-0.68513853904282118</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="31"/>
-        <v>2.8395348837209302</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="31"/>
-        <v>6.4501160092807428</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="31"/>
-        <v>7.6797235023041477</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="31"/>
-        <v>11.294663573085847</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="31"/>
-        <v>8.5845070422535219</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="31"/>
-        <v>5.2434367541766109</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" ref="M20:R20" si="32">+M19/M21</f>
-        <v>2.5315533980582523</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="32"/>
-        <v>1.6628640776699024</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="32"/>
-        <v>0.94077669902912631</v>
-      </c>
-      <c r="P20" s="6">
-        <f t="shared" si="32"/>
-        <v>-3.622047244094488</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="32"/>
-        <v>-3.9374409448818897</v>
-      </c>
-      <c r="R20" s="6">
-        <f t="shared" si="32"/>
-        <v>-5.1867847769028872</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6">
-        <f>+T19/T21</f>
-        <v>-3.3307291666666665</v>
-      </c>
-      <c r="U20" s="6"/>
-    </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="E21:L21" si="20">+E19+E20</f>
+        <v>-232</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="20"/>
+        <v>-271</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="20"/>
+        <v>1260</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="20"/>
+        <v>3063</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="20"/>
+        <v>3552</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="20"/>
+        <v>5410</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="20"/>
+        <v>4229</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="20"/>
+        <v>2474</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" ref="M21:S21" si="21">+M19+M20</f>
+        <v>1217</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="21"/>
+        <v>1655</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="21"/>
+        <v>-305</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="21"/>
+        <v>-1749</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="21"/>
+        <v>-1958</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="21"/>
+        <v>-1165</v>
+      </c>
+      <c r="T21" s="3">
+        <f>+T19+T20</f>
+        <v>-1279</v>
+      </c>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <v>395</v>
-      </c>
-      <c r="F21" s="1">
-        <v>397</v>
-      </c>
-      <c r="G21" s="1">
-        <v>430</v>
-      </c>
-      <c r="H21" s="1">
-        <v>431</v>
-      </c>
-      <c r="I21" s="1">
-        <v>434</v>
-      </c>
-      <c r="J21" s="1">
-        <v>431</v>
-      </c>
-      <c r="K21" s="1">
-        <v>426</v>
-      </c>
-      <c r="L21" s="1">
-        <v>419</v>
-      </c>
-      <c r="M21" s="1">
-        <v>412</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" ref="N21:R21" si="33">+M21</f>
-        <v>412</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="33"/>
-        <v>412</v>
-      </c>
-      <c r="P21" s="1">
-        <v>381</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="33"/>
-        <v>381</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="33"/>
-        <v>381</v>
-      </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <v>384</v>
-      </c>
-      <c r="U21" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1">
+        <v>283</v>
+      </c>
+      <c r="I22" s="1">
+        <v>219</v>
+      </c>
+      <c r="J22" s="1">
+        <v>542</v>
+      </c>
+      <c r="K22" s="1">
+        <v>572</v>
+      </c>
+      <c r="L22" s="1">
+        <v>277</v>
+      </c>
+      <c r="M22" s="3">
+        <v>174</v>
+      </c>
+      <c r="N22" s="3">
+        <v>190</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-384</v>
+      </c>
+      <c r="P22" s="3">
+        <v>-369</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1672</v>
+      </c>
+      <c r="R22" s="3">
+        <v>-147</v>
+      </c>
+      <c r="S22" s="3">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="17">
-        <f>E11/E9</f>
+        <v>28</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ref="E23:L23" si="22">+E21-E22</f>
+        <v>-233</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="22"/>
+        <v>-272</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="22"/>
+        <v>1221</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="22"/>
+        <v>2780</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="22"/>
+        <v>3333</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="22"/>
+        <v>4868</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="22"/>
+        <v>3657</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="22"/>
+        <v>2197</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" ref="M23:S23" si="23">+M21-M22</f>
+        <v>1043</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="23"/>
+        <v>1465</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="23"/>
+        <v>79</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="23"/>
+        <v>-1380</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="23"/>
+        <v>-3630</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="23"/>
+        <v>217</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="23"/>
+        <v>-1175</v>
+      </c>
+      <c r="T23" s="3">
+        <f>+T21-T22</f>
+        <v>-1279</v>
+      </c>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" ref="E24:L24" si="24">+E23/E25</f>
+        <v>-0.58987341772151902</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="24"/>
+        <v>-0.68513853904282118</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="24"/>
+        <v>2.8395348837209302</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="24"/>
+        <v>6.4501160092807428</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="24"/>
+        <v>7.6797235023041477</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="24"/>
+        <v>11.294663573085847</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="24"/>
+        <v>8.5845070422535219</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="24"/>
+        <v>5.2434367541766109</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" ref="M24:S24" si="25">+M23/M25</f>
+        <v>2.5315533980582523</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="25"/>
+        <v>3.617283950617284</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="25"/>
+        <v>0.19506172839506172</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="25"/>
+        <v>-3.622047244094488</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="25"/>
+        <v>-9.5275590551181111</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="25"/>
+        <v>0.54936708860759498</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="25"/>
+        <v>-3.075916230366492</v>
+      </c>
+      <c r="T24" s="6">
+        <f>+T23/T25</f>
+        <v>-3.3307291666666665</v>
+      </c>
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="17">
-        <f t="shared" ref="F23:R23" si="34">F11/F9</f>
+      <c r="E25" s="1">
+        <v>395</v>
+      </c>
+      <c r="F25" s="1">
+        <v>397</v>
+      </c>
+      <c r="G25" s="1">
+        <v>430</v>
+      </c>
+      <c r="H25" s="1">
+        <v>431</v>
+      </c>
+      <c r="I25" s="1">
+        <v>434</v>
+      </c>
+      <c r="J25" s="1">
+        <v>431</v>
+      </c>
+      <c r="K25" s="1">
+        <v>426</v>
+      </c>
+      <c r="L25" s="1">
+        <v>419</v>
+      </c>
+      <c r="M25" s="1">
+        <v>412</v>
+      </c>
+      <c r="N25" s="1">
+        <v>405</v>
+      </c>
+      <c r="O25" s="1">
+        <v>405</v>
+      </c>
+      <c r="P25" s="1">
+        <v>381</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>381</v>
+      </c>
+      <c r="R25" s="1">
+        <v>395</v>
+      </c>
+      <c r="S25" s="1">
+        <v>382</v>
+      </c>
+      <c r="T25" s="1">
+        <v>384</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="17">
+        <f>E15/E13</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" ref="F27:R27" si="26">F15/F13</f>
         <v>0.98598949211908937</v>
       </c>
-      <c r="G23" s="17">
-        <f t="shared" si="34"/>
+      <c r="G27" s="17">
+        <f t="shared" si="26"/>
         <v>0.90036138358286011</v>
       </c>
-      <c r="H23" s="17">
-        <f t="shared" si="34"/>
+      <c r="H27" s="17">
+        <f t="shared" si="26"/>
         <v>0.82774460266421679</v>
       </c>
-      <c r="I23" s="17">
-        <f t="shared" si="34"/>
+      <c r="I27" s="17">
+        <f t="shared" si="26"/>
         <v>0.85469913463473535</v>
       </c>
-      <c r="J23" s="17">
-        <f t="shared" si="34"/>
+      <c r="J27" s="17">
+        <f t="shared" si="26"/>
         <v>0.86797947580085977</v>
       </c>
-      <c r="K23" s="17">
-        <f t="shared" si="34"/>
+      <c r="K27" s="17">
+        <f t="shared" si="26"/>
         <v>0.83234421364985167</v>
       </c>
-      <c r="L23" s="17">
-        <f t="shared" si="34"/>
+      <c r="L27" s="17">
+        <f t="shared" si="26"/>
         <v>0.7092019372499474</v>
       </c>
-      <c r="M23" s="17">
-        <f t="shared" si="34"/>
+      <c r="M27" s="17">
+        <f t="shared" si="26"/>
         <v>0.67300832342449468</v>
       </c>
-      <c r="N23" s="17">
-        <f t="shared" si="34"/>
-        <v>0.7</v>
-      </c>
-      <c r="O23" s="17">
-        <f t="shared" si="34"/>
-        <v>0.7</v>
-      </c>
-      <c r="P23" s="17">
-        <f t="shared" si="34"/>
+      <c r="N27" s="17">
+        <f t="shared" si="26"/>
+        <v>0.62273800157356407</v>
+      </c>
+      <c r="O27" s="17">
+        <f t="shared" si="26"/>
+        <v>0.57465091299677762</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="26"/>
         <v>-1.125</v>
       </c>
-      <c r="Q23" s="17">
-        <f t="shared" si="34"/>
-        <v>0.7</v>
-      </c>
-      <c r="R23" s="17">
-        <f t="shared" si="34"/>
-        <v>0.7</v>
-      </c>
-      <c r="S23" s="17" t="e">
-        <f t="shared" ref="S23:T23" si="35">S11/S9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="17">
-        <f t="shared" si="35"/>
+      <c r="Q27" s="17">
+        <f t="shared" si="26"/>
+        <v>-0.2239213544511196</v>
+      </c>
+      <c r="R27" s="17">
+        <f t="shared" si="26"/>
+        <v>0.66951262895766628</v>
+      </c>
+      <c r="S27" s="17">
+        <f t="shared" ref="S27:T27" si="27">S15/S13</f>
+        <v>0.42514970059880242</v>
+      </c>
+      <c r="T27" s="17">
+        <f t="shared" si="27"/>
         <v>0.52282157676348551</v>
       </c>
-      <c r="U23" s="17"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="17">
-        <f>E18/E17</f>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B28" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="17">
+        <f>E22/E21</f>
         <v>-4.3103448275862068E-3</v>
       </c>
-      <c r="F24" s="17">
-        <f t="shared" ref="F24:R24" si="36">F18/F17</f>
+      <c r="F28" s="17">
+        <f t="shared" ref="F28:R28" si="28">F22/F21</f>
         <v>-3.6900369003690036E-3</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" si="36"/>
+      <c r="G28" s="17">
+        <f t="shared" si="28"/>
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="H24" s="17">
-        <f t="shared" si="36"/>
+      <c r="H28" s="17">
+        <f t="shared" si="28"/>
         <v>9.2393078681031665E-2</v>
       </c>
-      <c r="I24" s="17">
-        <f t="shared" si="36"/>
+      <c r="I28" s="17">
+        <f t="shared" si="28"/>
         <v>6.1655405405405407E-2</v>
       </c>
-      <c r="J24" s="17">
-        <f t="shared" si="36"/>
+      <c r="J28" s="17">
+        <f t="shared" si="28"/>
         <v>0.10018484288354898</v>
       </c>
-      <c r="K24" s="17">
-        <f t="shared" si="36"/>
+      <c r="K28" s="17">
+        <f t="shared" si="28"/>
         <v>0.13525656183494916</v>
       </c>
-      <c r="L24" s="17">
-        <f t="shared" si="36"/>
+      <c r="L28" s="17">
+        <f t="shared" si="28"/>
         <v>0.11196443007275667</v>
       </c>
-      <c r="M24" s="17">
-        <f t="shared" si="36"/>
+      <c r="M28" s="17">
+        <f t="shared" si="28"/>
         <v>0.142974527526705</v>
       </c>
-      <c r="N24" s="17">
-        <f t="shared" si="36"/>
-        <v>0.15</v>
-      </c>
-      <c r="O24" s="17">
-        <f t="shared" si="36"/>
-        <v>0.15</v>
-      </c>
-      <c r="P24" s="17">
-        <f t="shared" si="36"/>
+      <c r="N28" s="17">
+        <f t="shared" si="28"/>
+        <v>0.11480362537764351</v>
+      </c>
+      <c r="O28" s="17">
+        <f t="shared" si="28"/>
+        <v>1.2590163934426231</v>
+      </c>
+      <c r="P28" s="17">
+        <f t="shared" si="28"/>
         <v>0.21097770154373929</v>
       </c>
-      <c r="Q24" s="17">
-        <f t="shared" si="36"/>
-        <v>0.15</v>
-      </c>
-      <c r="R24" s="17">
-        <f t="shared" si="36"/>
-        <v>0.15</v>
-      </c>
-      <c r="S24" s="17" t="e">
-        <f t="shared" ref="S24:T24" si="37">S18/S17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="17">
-        <f t="shared" si="37"/>
+      <c r="Q28" s="17">
+        <f t="shared" si="28"/>
+        <v>-0.8539325842696629</v>
+      </c>
+      <c r="R28" s="17">
+        <f t="shared" si="28"/>
+        <v>-2.1</v>
+      </c>
+      <c r="S28" s="17">
+        <f t="shared" ref="S28:T28" si="29">S22/S21</f>
+        <v>-8.5836909871244635E-3</v>
+      </c>
+      <c r="T28" s="17">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="U24" s="17"/>
-    </row>
-    <row r="27" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <f>5048+5067+9171+12</f>
-        <v>19298</v>
-      </c>
-      <c r="L27" s="3">
-        <f>2873+5024+10162+12</f>
-        <v>18071</v>
-      </c>
-      <c r="M27" s="3">
-        <f>3027+5321+8655+14</f>
-        <v>17017</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="T27" s="2">
-        <f>2478+6010+2326</f>
-        <v>10814</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>3173</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2691</v>
-      </c>
-      <c r="M28" s="3">
-        <v>2695</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="T28" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>1942</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1921</v>
-      </c>
-      <c r="M29" s="3">
-        <v>2077</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="T29" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
-        <v>1120</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1054</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1177</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="T30" s="2">
-        <v>611</v>
-      </c>
+      <c r="U28" s="17"/>
     </row>
     <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2979,22 +3163,26 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
-        <v>1341</v>
+        <f>5048+5067+9171+12</f>
+        <v>19298</v>
       </c>
       <c r="L31" s="3">
-        <v>1324</v>
+        <f>2873+5024+10162+12</f>
+        <v>18071</v>
       </c>
       <c r="M31" s="3">
-        <v>2019</v>
+        <f>3027+5321+8655+14</f>
+        <v>17017</v>
       </c>
       <c r="N31" s="3"/>
       <c r="T31" s="2">
-        <v>2196</v>
+        <f>2478+6010+2326</f>
+        <v>10814</v>
       </c>
     </row>
     <row r="32" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3005,22 +3193,22 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
-        <v>132</v>
+        <v>3173</v>
       </c>
       <c r="L32" s="3">
-        <v>122</v>
+        <v>2691</v>
       </c>
       <c r="M32" s="3">
-        <v>113</v>
+        <v>2695</v>
       </c>
       <c r="N32" s="3"/>
       <c r="T32" s="2">
-        <v>775</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3031,22 +3219,22 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
-        <v>521</v>
+        <v>1942</v>
       </c>
       <c r="L33" s="3">
-        <v>785</v>
+        <v>1921</v>
       </c>
       <c r="M33" s="3">
-        <v>920</v>
+        <v>2077</v>
       </c>
       <c r="N33" s="3"/>
       <c r="T33" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3057,22 +3245,22 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
-        <v>82</v>
+        <v>1120</v>
       </c>
       <c r="L34" s="3">
-        <v>75</v>
+        <v>1054</v>
       </c>
       <c r="M34" s="3">
-        <v>38</v>
+        <v>1177</v>
       </c>
       <c r="N34" s="3"/>
       <c r="T34" s="2">
-        <v>641</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3083,26 +3271,48 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <f>SUM(K27:K34)</f>
-        <v>27609</v>
+        <v>1341</v>
       </c>
       <c r="L35" s="3">
-        <f>SUM(L27:L34)</f>
-        <v>26043</v>
+        <v>1324</v>
       </c>
       <c r="M35" s="3">
-        <f>SUM(M27:M34)</f>
-        <v>26056</v>
+        <v>2019</v>
       </c>
       <c r="N35" s="3"/>
       <c r="T35" s="2">
-        <f>SUM(T27:T34)</f>
-        <v>15680</v>
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>132</v>
+      </c>
+      <c r="L36" s="3">
+        <v>122</v>
+      </c>
+      <c r="M36" s="3">
+        <v>113</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="T36" s="2">
+        <v>775</v>
       </c>
     </row>
     <row r="37" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3113,22 +3323,22 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
-        <v>199</v>
+        <v>521</v>
       </c>
       <c r="L37" s="3">
-        <v>181</v>
+        <v>785</v>
       </c>
       <c r="M37" s="3">
-        <v>330</v>
+        <v>920</v>
       </c>
       <c r="N37" s="3"/>
       <c r="T37" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3139,22 +3349,22 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3">
-        <v>1608</v>
+        <v>82</v>
       </c>
       <c r="L38" s="3">
-        <v>1780</v>
+        <v>75</v>
       </c>
       <c r="M38" s="3">
-        <v>1856</v>
+        <v>38</v>
       </c>
       <c r="N38" s="3"/>
       <c r="T38" s="2">
-        <v>1333</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3165,52 +3375,26 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <f>5599+464</f>
-        <v>6063</v>
+        <f>SUM(K31:K38)</f>
+        <v>27609</v>
       </c>
       <c r="L39" s="3">
-        <f>4093+405</f>
-        <v>4498</v>
+        <f>SUM(L31:L38)</f>
+        <v>26043</v>
       </c>
       <c r="M39" s="3">
-        <f>175+4002</f>
-        <v>4177</v>
+        <f>SUM(M31:M38)</f>
+        <v>26056</v>
       </c>
       <c r="N39" s="3"/>
       <c r="T39" s="2">
-        <f>702+95</f>
-        <v>797</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3">
-        <v>1592</v>
-      </c>
-      <c r="L40" s="3">
-        <v>349</v>
-      </c>
-      <c r="M40" s="3">
-        <v>66</v>
-      </c>
-      <c r="N40" s="3"/>
-      <c r="T40" s="2">
-        <v>7</v>
+        <f>SUM(T31:T38)</f>
+        <v>15680</v>
       </c>
     </row>
     <row r="41" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -3221,22 +3405,22 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="L41" s="3">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="M41" s="3">
-        <v>553</v>
+        <v>330</v>
       </c>
       <c r="N41" s="3"/>
       <c r="T41" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3247,22 +3431,22 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
-        <v>95</v>
+        <v>1608</v>
       </c>
       <c r="L42" s="3">
-        <v>87</v>
+        <v>1780</v>
       </c>
       <c r="M42" s="3">
-        <v>79</v>
+        <v>1856</v>
       </c>
       <c r="N42" s="3"/>
       <c r="T42" s="2">
-        <v>668</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="43" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3273,22 +3457,26 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3">
-        <v>646</v>
+        <f>5599+464</f>
+        <v>6063</v>
       </c>
       <c r="L43" s="3">
-        <v>641</v>
+        <f>4093+405</f>
+        <v>4498</v>
       </c>
       <c r="M43" s="3">
-        <v>922</v>
+        <f>175+4002</f>
+        <v>4177</v>
       </c>
       <c r="N43" s="3"/>
       <c r="T43" s="2">
-        <v>576</v>
+        <f>702+95</f>
+        <v>797</v>
       </c>
     </row>
     <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3299,22 +3487,22 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <v>91</v>
+        <v>1592</v>
       </c>
       <c r="L44" s="3">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="M44" s="3">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N44" s="3"/>
       <c r="T44" s="2">
-        <v>266</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3325,22 +3513,22 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <v>17075</v>
+        <v>240</v>
       </c>
       <c r="L45" s="3">
-        <v>17985</v>
+        <v>409</v>
       </c>
       <c r="M45" s="3">
-        <v>17992</v>
+        <v>553</v>
       </c>
       <c r="N45" s="3"/>
       <c r="T45" s="2">
-        <v>11712</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3351,45 +3539,149 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <f>SUM(K37:K45)</f>
-        <v>27609</v>
+        <v>95</v>
       </c>
       <c r="L46" s="3">
-        <f>SUM(L37:L45)</f>
-        <v>26043</v>
+        <v>87</v>
       </c>
       <c r="M46" s="3">
-        <f>SUM(M37:M45)</f>
-        <v>26056</v>
+        <v>79</v>
       </c>
       <c r="N46" s="3"/>
       <c r="T46" s="2">
-        <f>SUM(T37:T45)</f>
-        <v>15680</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <v>646</v>
+      </c>
+      <c r="L47" s="3">
+        <v>641</v>
+      </c>
+      <c r="M47" s="3">
+        <v>922</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="T47" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <v>91</v>
+      </c>
+      <c r="L48" s="3">
+        <v>113</v>
+      </c>
+      <c r="M48" s="3">
+        <v>81</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="T48" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3">
-        <v>1800</v>
-      </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="3">
+        <v>17075</v>
+      </c>
       <c r="L49" s="3">
+        <v>17985</v>
+      </c>
+      <c r="M49" s="3">
+        <v>17992</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="T49" s="2">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
+        <f>SUM(K41:K49)</f>
+        <v>27609</v>
+      </c>
+      <c r="L50" s="3">
+        <f>SUM(L41:L49)</f>
+        <v>26043</v>
+      </c>
+      <c r="M50" s="3">
+        <f>SUM(M41:M49)</f>
+        <v>26056</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="T50" s="2">
+        <f>SUM(T41:T49)</f>
+        <v>15680</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
         <v>3400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M53" s="3">
         <v>3700</v>
       </c>
-      <c r="N49" s="3"/>
+      <c r="N53" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3401,7 +3693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3004E3C-71B5-4048-B117-3278C772E1BF}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3422,7 +3714,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3433,7 +3725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9A87B-AEA3-4FAB-8F81-CC20E0ED2CA0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3455,38 +3747,38 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E7DB0A-2053-4550-8C38-5AF9D5FA2F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822566C5-8281-4F92-8454-EB9015955B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27135" yWindow="750" windowWidth="24255" windowHeight="19950" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="-24285" yWindow="2880" windowWidth="21795" windowHeight="16575" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>tc={7A88566D-7393-4EDB-9417-9FF15ED60EED}</author>
   </authors>
   <commentList>
-    <comment ref="AC10" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+    <comment ref="AE10" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
   <si>
     <t>Price</t>
   </si>
@@ -487,6 +487,18 @@
   </si>
   <si>
     <t>COVID-19+Influenza</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -762,13 +774,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -1116,7 +1128,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AC10" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+  <threadedComment ref="AE10" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
     <text>Q222 guidance: Reiterates 21B expected delivery
 Q322 guidance: 18-19B</text>
   </threadedComment>
@@ -1187,9 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1226,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="20">
-        <v>58.29</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1243,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>384.39605999999998</v>
+        <v>384.81781100000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1267,7 +1277,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>22406.446337399997</v>
+        <v>16393.238748600001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1284,11 +1294,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>2478+6010+2326</f>
-        <v>10814</v>
+        <f>1644+5223+2335</f>
+        <v>9202</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1311,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1330,7 +1340,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>11592.446337399997</v>
+        <v>7191.2387486000007</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1623,13 +1633,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763993C8-90F0-44F5-B32B-73F90FF84785}">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1639,12 +1649,12 @@
     <col min="3" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1705,75 +1715,87 @@
       <c r="V2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z2">
+      <c r="W2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB2">
         <v>2019</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AC2">
+        <f>+AB2+1</f>
         <v>2020</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AG2" si="0">+AA2+1</f>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AI2" si="0">+AC2+1</f>
         <v>2021</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AH2">
-        <f>+AG2+1</f>
+      <c r="AJ2">
+        <f>+AI2+1</f>
         <v>2027</v>
       </c>
-      <c r="AI2">
-        <f t="shared" ref="AI2:AP2" si="1">+AH2+1</f>
+      <c r="AK2">
+        <f t="shared" ref="AK2:AR2" si="1">+AJ2+1</f>
         <v>2028</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
@@ -1797,7 +1819,7 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>139</v>
       </c>
@@ -1808,15 +1830,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="AD4">
+      <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AG4" s="2">
         <v>1100</v>
       </c>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AH4" s="2"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>140</v>
       </c>
@@ -1827,12 +1849,12 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>1500</v>
       </c>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1840,10 +1862,10 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -1854,14 +1876,14 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>50</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>73</v>
       </c>
@@ -1872,11 +1894,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="AF8" s="2">
+      <c r="AH8" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -1887,11 +1909,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="AF9" s="2">
+      <c r="AH9" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1946,74 +1968,73 @@
         <v>184</v>
       </c>
       <c r="U10" s="3">
-        <f>+T10</f>
-        <v>184</v>
+        <v>1820</v>
       </c>
       <c r="V10" s="2">
-        <f>+U10</f>
-        <v>184</v>
-      </c>
-      <c r="AB10" s="2">
+        <f>+S10</f>
+        <v>167</v>
+      </c>
+      <c r="AD10" s="2">
         <f>SUM(G10:J10)</f>
         <v>17675</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AE10" s="2">
         <f>SUM(K10:N10)</f>
         <v>18435</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AF10" s="2">
         <f>SUM(O10:R10)</f>
         <v>6671</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AG10" s="2">
         <f>SUM(S10:V10)</f>
-        <v>719</v>
-      </c>
-      <c r="AF10" s="2">
+        <v>2338</v>
+      </c>
+      <c r="AH10" s="2">
         <v>500</v>
       </c>
-      <c r="AG10" s="2">
-        <f t="shared" ref="AG10:AP10" si="2">+AF10*0.2</f>
+      <c r="AI10" s="2">
+        <f t="shared" ref="AI10:AR10" si="2">+AH10*0.2</f>
         <v>100</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AJ10" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AK10" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AL10" s="2">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AM10" s="2">
         <f t="shared" si="2"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AN10" s="2">
         <f t="shared" si="2"/>
         <v>3.2000000000000008E-2</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AO10" s="2">
         <f t="shared" si="2"/>
         <v>6.400000000000002E-3</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AP10" s="2">
         <f t="shared" si="2"/>
         <v>1.2800000000000005E-3</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AQ10" s="2">
         <f t="shared" si="2"/>
         <v>2.560000000000001E-4</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AR10" s="2">
         <f t="shared" si="2"/>
         <v>5.1200000000000025E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2047,24 +2068,24 @@
         <v>144</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="AB11" s="2">
+      <c r="AD11" s="2">
         <f>SUM(G11:J11)</f>
         <v>735</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AE11" s="2">
         <f>SUM(K11:N11)</f>
         <v>453</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AF11" s="2">
         <f>SUM(O11:R11)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AG11" s="2">
         <f>SUM(S11:V11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2119,31 +2140,30 @@
         <v>57</v>
       </c>
       <c r="U12" s="2">
-        <f>+T12</f>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="V12" s="2">
         <f>+U12</f>
-        <v>57</v>
-      </c>
-      <c r="AB12" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD12" s="2">
         <f>SUM(G12:J12)</f>
         <v>61</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AE12" s="2">
         <f>SUM(K12:N12)</f>
         <v>375</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AF12" s="2">
         <f>SUM(O12:R12)</f>
         <v>177</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AG12" s="2">
         <f>SUM(S12:V12)</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2202,7 +2222,7 @@
         <v>1831</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" ref="R13:V13" si="8">SUM(R10:R12)</f>
+        <f t="shared" ref="R13:Z13" si="8">SUM(R10:R12)</f>
         <v>2811</v>
       </c>
       <c r="S13" s="5">
@@ -2215,42 +2235,58 @@
       </c>
       <c r="U13" s="5">
         <f t="shared" si="8"/>
-        <v>241</v>
+        <v>1862</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" si="8"/>
-        <v>241</v>
-      </c>
-      <c r="AB13" s="4">
-        <f>SUM(AB10:AB12)</f>
-        <v>18471</v>
-      </c>
-      <c r="AC13" s="4">
-        <f>SUM(AC10:AC12)</f>
-        <v>19263</v>
+        <v>209</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AD13" s="4">
         <f>SUM(AD10:AD12)</f>
+        <v>18471</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>SUM(AE10:AE12)</f>
+        <v>19263</v>
+      </c>
+      <c r="AF13" s="4">
+        <f>SUM(AF10:AF12)</f>
         <v>6848</v>
-      </c>
-      <c r="AE13" s="4">
-        <f>SUM(AE7:AE12)</f>
-        <v>940</v>
-      </c>
-      <c r="AF13" s="4">
-        <f>SUM(AF7:AF12)</f>
-        <v>2700</v>
       </c>
       <c r="AG13" s="4">
         <f>SUM(AG7:AG12)</f>
-        <v>100</v>
+        <v>2529</v>
       </c>
       <c r="AH13" s="4">
         <f>SUM(AH7:AH12)</f>
+        <v>2700</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>SUM(AI7:AI12)</f>
+        <v>100</v>
+      </c>
+      <c r="AJ13" s="4">
+        <f>SUM(AJ7:AJ12)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2304,9 +2340,11 @@
       <c r="T14" s="3">
         <v>115</v>
       </c>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
@@ -2343,40 +2381,43 @@
         <v>3368</v>
       </c>
       <c r="M15" s="3">
-        <f>+M13-M14</f>
+        <f t="shared" ref="M15:T15" si="10">+M13-M14</f>
         <v>2264</v>
       </c>
       <c r="N15" s="3">
-        <f>+N13-N14</f>
+        <f t="shared" si="10"/>
         <v>3166</v>
       </c>
       <c r="O15" s="3">
-        <f>+O13-O14</f>
+        <f t="shared" si="10"/>
         <v>1070</v>
       </c>
       <c r="P15" s="3">
-        <f>+P13-P14</f>
+        <f t="shared" si="10"/>
         <v>-387</v>
       </c>
       <c r="Q15" s="3">
-        <f>+Q13-Q14</f>
+        <f t="shared" si="10"/>
         <v>-410</v>
       </c>
       <c r="R15" s="3">
-        <f>+R13-R14</f>
+        <f t="shared" si="10"/>
         <v>1882</v>
       </c>
       <c r="S15" s="3">
-        <f>+S13-S14</f>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="T15" s="3">
-        <f>+T13-T14</f>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <f>+U13-U14</f>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2428,7 +2469,9 @@
       <c r="T16" s="3">
         <v>1221</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3">
+        <v>1137</v>
+      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
@@ -2482,147 +2525,155 @@
       <c r="T17" s="3">
         <v>268</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3">
+        <v>281</v>
+      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:L18" si="10">+E16+E17</f>
+        <f t="shared" ref="E18:L18" si="11">+E16+E17</f>
         <v>392</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>838</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>478</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>542</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>689</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>849</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>822</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>921</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" ref="M18:O18" si="11">+M16+M17</f>
+        <f t="shared" ref="M18:O18" si="12">+M16+M17</f>
         <v>1098</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1586</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1436</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" ref="P18" si="12">+P16+P17</f>
+        <f t="shared" ref="P18" si="13">+P16+P17</f>
         <v>1480</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" ref="Q18" si="13">+Q16+Q17</f>
+        <f t="shared" ref="Q18" si="14">+Q16+Q17</f>
         <v>1602</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" ref="R18:S18" si="14">+R16+R17</f>
+        <f t="shared" ref="R18:S18" si="15">+R16+R17</f>
         <v>1876</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1337</v>
       </c>
       <c r="T18" s="3">
         <f>+T17+T16</f>
         <v>1489</v>
       </c>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3">
+        <f>+U17+U16</f>
+        <v>1418</v>
+      </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ref="E19:L19" si="15">+E15-E18</f>
+        <f t="shared" ref="E19:L19" si="16">+E15-E18</f>
         <v>-235</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-275</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1266</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3062</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3558</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5410</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4227</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2447</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ref="M19:O19" si="16">+M15-M18</f>
+        <f t="shared" ref="M19:O19" si="17">+M15-M18</f>
         <v>1166</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1580</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-366</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" ref="P19" si="17">+P15-P18</f>
+        <f t="shared" ref="P19" si="18">+P15-P18</f>
         <v>-1867</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="18">+Q15-Q18</f>
+        <f t="shared" ref="Q19" si="19">+Q15-Q18</f>
         <v>-2012</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" ref="R19:S19" si="19">+R15-R18</f>
+        <f t="shared" ref="R19:S19" si="20">+R15-R18</f>
         <v>6</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1266</v>
       </c>
       <c r="T19" s="3">
         <f>+T15-T18</f>
         <v>-1363</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3">
+        <f>+U15-U18</f>
+        <v>-70</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -2691,76 +2742,83 @@
         <f>111-27</f>
         <v>84</v>
       </c>
+      <c r="U20">
+        <f>103-12</f>
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" ref="E21:L21" si="20">+E19+E20</f>
+        <f t="shared" ref="E21:L21" si="21">+E19+E20</f>
         <v>-232</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-271</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1260</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3063</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3552</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5410</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4229</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2474</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" ref="M21:S21" si="21">+M19+M20</f>
+        <f t="shared" ref="M21:S21" si="22">+M19+M20</f>
         <v>1217</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1655</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-305</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1749</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1958</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1165</v>
       </c>
       <c r="T21" s="3">
         <f>+T19+T20</f>
         <v>-1279</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="U21" s="3">
+        <f>+U19+U20</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -2814,147 +2872,155 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ref="E23:L23" si="22">+E21-E22</f>
+        <f t="shared" ref="E23:L23" si="23">+E21-E22</f>
         <v>-233</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-272</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1221</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2780</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3333</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4868</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3657</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2197</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" ref="M23:S23" si="23">+M21-M22</f>
+        <f t="shared" ref="M23:S23" si="24">+M21-M22</f>
         <v>1043</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1465</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1380</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3630</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>217</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1175</v>
       </c>
       <c r="T23" s="3">
         <f>+T21-T22</f>
         <v>-1279</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3">
+        <f>+U21-U22</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" ref="E24:L24" si="24">+E23/E25</f>
+        <f t="shared" ref="E24:L24" si="25">+E23/E25</f>
         <v>-0.58987341772151902</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.68513853904282118</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.8395348837209302</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.4501160092807428</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.6797235023041477</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11.294663573085847</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.5845070422535219</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.2434367541766109</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" ref="M24:S24" si="25">+M23/M25</f>
+        <f t="shared" ref="M24:S24" si="26">+M23/M25</f>
         <v>2.5315533980582523</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.617283950617284</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.19506172839506172</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-3.622047244094488</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-9.5275590551181111</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.54936708860759498</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-3.075916230366492</v>
       </c>
       <c r="T24" s="6">
         <f>+T23/T25</f>
         <v>-3.3307291666666665</v>
       </c>
-      <c r="U24" s="6"/>
+      <c r="U24" s="6">
+        <f>+U23/U25</f>
+        <v>3.2581453634085211E-2</v>
+      </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -3008,7 +3074,9 @@
       <c r="T25" s="1">
         <v>384</v>
       </c>
-      <c r="U25" s="1"/>
+      <c r="U25" s="1">
+        <v>399</v>
+      </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -3019,66 +3087,69 @@
         <v>1</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" ref="F27:R27" si="26">F15/F13</f>
+        <f t="shared" ref="F27:R27" si="27">F15/F13</f>
         <v>0.98598949211908937</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.90036138358286011</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.82774460266421679</v>
       </c>
       <c r="I27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.85469913463473535</v>
       </c>
       <c r="J27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.86797947580085977</v>
       </c>
       <c r="K27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.83234421364985167</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.7092019372499474</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.67300832342449468</v>
       </c>
       <c r="N27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.62273800157356407</v>
       </c>
       <c r="O27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.57465091299677762</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.125</v>
       </c>
       <c r="Q27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.2239213544511196</v>
       </c>
       <c r="R27" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.66951262895766628</v>
       </c>
       <c r="S27" s="17">
-        <f t="shared" ref="S27:T27" si="27">S15/S13</f>
+        <f t="shared" ref="S27:U27" si="28">S15/S13</f>
         <v>0.42514970059880242</v>
       </c>
       <c r="T27" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.52282157676348551</v>
       </c>
-      <c r="U27" s="17"/>
+      <c r="U27" s="17">
+        <f t="shared" si="28"/>
+        <v>0.72395273899033297</v>
+      </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
@@ -3089,66 +3160,69 @@
         <v>-4.3103448275862068E-3</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" ref="F28:R28" si="28">F22/F21</f>
+        <f t="shared" ref="F28:R28" si="29">F22/F21</f>
         <v>-3.6900369003690036E-3</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.0952380952380953E-2</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.2393078681031665E-2</v>
       </c>
       <c r="I28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.1655405405405407E-2</v>
       </c>
       <c r="J28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.10018484288354898</v>
       </c>
       <c r="K28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.13525656183494916</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11196443007275667</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.142974527526705</v>
       </c>
       <c r="N28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11480362537764351</v>
       </c>
       <c r="O28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.2590163934426231</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.21097770154373929</v>
       </c>
       <c r="Q28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.8539325842696629</v>
       </c>
       <c r="R28" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1</v>
       </c>
       <c r="S28" s="17">
-        <f t="shared" ref="S28:T28" si="29">S22/S21</f>
+        <f t="shared" ref="S28:U28" si="30">S22/S21</f>
         <v>-8.5836909871244635E-3</v>
       </c>
       <c r="T28" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U28" s="17"/>
+      <c r="U28" s="17">
+        <f t="shared" si="30"/>
+        <v>0.38095238095238093</v>
+      </c>
     </row>
     <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">

--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822566C5-8281-4F92-8454-EB9015955B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B8725-E9BD-4765-94C2-6039F6F0ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="2880" windowWidth="21795" windowHeight="16575" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="-25665" yWindow="510" windowWidth="25080" windowHeight="19755" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="5" r:id="rId1"/>
@@ -724,16 +724,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>43615</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4201</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>59121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>43615</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>122322</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4201</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -748,8 +748,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12248753" y="0"/>
-          <a:ext cx="0" cy="7840856"/>
+          <a:off x="12820253" y="59121"/>
+          <a:ext cx="0" cy="8497753"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1199,7 +1199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1236,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="20">
-        <v>42.6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1277,7 +1279,7 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>16393.238748600001</v>
+        <v>12698.987763000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1340,7 +1342,7 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>7191.2387486000007</v>
+        <v>3496.987763000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1639,7 +1641,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1971,8 +1973,8 @@
         <v>1820</v>
       </c>
       <c r="V10" s="2">
-        <f>+S10</f>
-        <v>167</v>
+        <f>3050-U10-T10-S10</f>
+        <v>879</v>
       </c>
       <c r="AD10" s="2">
         <f>SUM(G10:J10)</f>
@@ -1988,7 +1990,7 @@
       </c>
       <c r="AG10" s="2">
         <f>SUM(S10:V10)</f>
-        <v>2338</v>
+        <v>3050</v>
       </c>
       <c r="AH10" s="2">
         <v>500</v>
@@ -2239,7 +2241,7 @@
       </c>
       <c r="V13" s="5">
         <f t="shared" si="8"/>
-        <v>209</v>
+        <v>921</v>
       </c>
       <c r="W13" s="5">
         <f t="shared" si="8"/>
@@ -2271,7 +2273,7 @@
       </c>
       <c r="AG13" s="4">
         <f>SUM(AG7:AG12)</f>
-        <v>2529</v>
+        <v>3241</v>
       </c>
       <c r="AH13" s="4">
         <f>SUM(AH7:AH12)</f>

--- a/MRNA.xlsx
+++ b/MRNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B8725-E9BD-4765-94C2-6039F6F0ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12219747-9B5D-4D96-A357-2625219F7961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25665" yWindow="510" windowWidth="25080" windowHeight="19755" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
+    <workbookView xWindow="10430" yWindow="3830" windowWidth="22990" windowHeight="13690" activeTab="1" xr2:uid="{57C30761-CAF2-4DE9-93D4-20A7306FD955}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Model" sheetId="2" r:id="rId3"/>
     <sheet name="Spikevax" sheetId="3" r:id="rId4"/>
     <sheet name="4157" sheetId="4" r:id="rId5"/>
+    <sheet name="1647" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,9 +43,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={7A88566D-7393-4EDB-9417-9FF15ED60EED}</author>
+    <author>tc={8F36830E-5A19-46F9-85C3-8F6136215DC4}</author>
   </authors>
   <commentList>
-    <comment ref="AE10" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+    <comment ref="AE11" authorId="0" shapeId="0" xr:uid="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,12 +55,20 @@
 Q322 guidance: 18-19B</t>
       </text>
     </comment>
+    <comment ref="AH14" authorId="1" shapeId="0" xr:uid="{8F36830E-5A19-46F9-85C3-8F6136215DC4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424: guidance of 1.5-2.5B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
   <si>
     <t>Price</t>
   </si>
@@ -474,9 +484,6 @@
     <t>relaxin</t>
   </si>
   <si>
-    <t>mRNA-1345</t>
-  </si>
-  <si>
     <t>Abrysvo</t>
   </si>
   <si>
@@ -499,6 +506,51 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>mRESVIA</t>
+  </si>
+  <si>
+    <t>trivalent</t>
+  </si>
+  <si>
+    <t>pivotal</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>early efficacy criteria not met</t>
+  </si>
+  <si>
+    <t>Phase III - data in 2025</t>
+  </si>
+  <si>
+    <t>mRNA-1283</t>
+  </si>
+  <si>
+    <t>Filed/III</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
@@ -550,7 +602,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -644,12 +696,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -700,6 +783,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -724,16 +820,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4201</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21718</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:rowOff>41604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4201</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21718</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>17219</xdr:rowOff>
+      <xdr:rowOff>157357</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -748,8 +844,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12820253" y="59121"/>
-          <a:ext cx="0" cy="8497753"/>
+          <a:off x="13834063" y="41604"/>
+          <a:ext cx="0" cy="8331339"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -774,16 +870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>33721</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>33721</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -798,8 +894,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15268575" y="0"/>
-          <a:ext cx="0" cy="7734300"/>
+          <a:off x="20588183" y="4379"/>
+          <a:ext cx="0" cy="11552621"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1128,9 +1224,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AE10" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
+  <threadedComment ref="AE11" dT="2022-09-10T06:51:40.15" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{7A88566D-7393-4EDB-9417-9FF15ED60EED}">
     <text>Q222 guidance: Reiterates 21B expected delivery
 Q322 guidance: 18-19B</text>
+  </threadedComment>
+  <threadedComment ref="AH14" dT="2025-02-19T17:24:24.34" personId="{7F1476AF-D443-4543-BE7B-E432FEBB72DB}" id="{8F36830E-5A19-46F9-85C3-8F6136215DC4}">
+    <text>Q424: guidance of 1.5-2.5B</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1143,18 +1242,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -1165,7 +1264,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -1176,7 +1275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>136</v>
       </c>
@@ -1197,22 +1296,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89E1D1F-1382-40BF-BCB1-9D97F23C48F4}">
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>131</v>
       </c>
@@ -1238,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>83</v>
       </c>
@@ -1258,10 +1357,10 @@
         <v>384.81781100000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>126</v>
       </c>
@@ -1279,10 +1378,10 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>12698.987763000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>13468.623385000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1296,26 +1395,27 @@
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>1644+5223+2335</f>
-        <v>9202</v>
+        <f>5098+1927+2494</f>
+        <v>9519</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="24"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -1323,310 +1423,325 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="24"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>3496.987763000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>3949.6233850000008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="24"/>
       <c r="J12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="24"/>
       <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="D15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="24"/>
       <c r="J15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" location="'4157'!A1" display="mRNA-4157/V940" xr:uid="{D955C29F-0D73-4368-B48E-9F918E568DFA}"/>
+    <hyperlink ref="B18" location="'4157'!A1" display="mRNA-4157/V940" xr:uid="{D955C29F-0D73-4368-B48E-9F918E568DFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1635,28 +1750,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763993C8-90F0-44F5-B32B-73F90FF84785}">
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:EI59"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomRight" activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="1"/>
+    <col min="47" max="47" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1718,16 +1834,16 @@
         <v>125</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="AB2">
         <v>2019</v>
@@ -1797,7 +1913,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
@@ -1821,9 +1937,9 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1840,9 +1956,9 @@
       </c>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1856,7 +1972,7 @@
       </c>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1867,9 +1983,9 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1877,15 +1993,77 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7">
+        <f>+V7+5</f>
+        <v>20</v>
+      </c>
+      <c r="X7">
+        <f>+W7+5</f>
+        <v>25</v>
+      </c>
+      <c r="Y7">
+        <f>+X7+5</f>
+        <v>30</v>
+      </c>
+      <c r="Z7">
+        <f>+Y7+5</f>
+        <v>35</v>
+      </c>
       <c r="AG7" s="2">
         <v>50</v>
       </c>
       <c r="AH7" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+        <f>SUM(W7:Z7)</f>
+        <v>110</v>
+      </c>
+      <c r="AI7" s="2">
+        <f>+AH7*1.3</f>
+        <v>143</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f>+AI7*1.3</f>
+        <v>185.9</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>+AJ7*1.3</f>
+        <v>241.67000000000002</v>
+      </c>
+      <c r="AL7" s="2">
+        <f>+AK7*1.1</f>
+        <v>265.83700000000005</v>
+      </c>
+      <c r="AM7" s="2">
+        <f>+AL7*1.1</f>
+        <v>292.42070000000007</v>
+      </c>
+      <c r="AN7" s="2">
+        <f>+AM7*1.1</f>
+        <v>321.66277000000008</v>
+      </c>
+      <c r="AO7" s="2">
+        <f>+AN7*1.05</f>
+        <v>337.7459085000001</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>+AO7*1.05</f>
+        <v>354.63320392500015</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f>+AP7*1.05</f>
+        <v>372.36486412125015</v>
+      </c>
+      <c r="AR7" s="2">
+        <f>+AQ7*1.05</f>
+        <v>390.98310732731267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>73</v>
       </c>
@@ -1897,10 +2075,50 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="AH8" s="2">
+        <f>SUM(W8:Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="2">
+        <f>+AI8*1.01</f>
+        <v>1010</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" ref="AK8:AR8" si="2">+AJ8*1.01</f>
+        <v>1020.1</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" si="2"/>
+        <v>1030.3009999999999</v>
+      </c>
+      <c r="AM8" s="2">
+        <f t="shared" si="2"/>
+        <v>1040.60401</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" si="2"/>
+        <v>1051.0100500999999</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" si="2"/>
+        <v>1061.5201506009998</v>
+      </c>
+      <c r="AP8" s="2">
+        <f t="shared" si="2"/>
+        <v>1072.1353521070098</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f t="shared" si="2"/>
+        <v>1082.8567056280799</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="2"/>
+        <v>1093.6852726843608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>63</v>
       </c>
@@ -1912,49 +2130,56 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="AH9" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+        <f>SUM(W9:Z9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1733</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4197</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4810</v>
-      </c>
-      <c r="J10" s="3">
-        <v>6935</v>
-      </c>
-      <c r="K10" s="3">
-        <v>5925</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4531</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3120</v>
-      </c>
-      <c r="N10" s="3">
-        <v>4859</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1828</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="AI9" s="2">
+        <f t="shared" ref="AI9:AR9" si="3">+AH10*0.5</f>
+        <v>858.75</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="3"/>
+        <v>687</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="3"/>
+        <v>549.6</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="3"/>
+        <v>439.68000000000006</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="3"/>
+        <v>351.74400000000009</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="3"/>
+        <v>281.3952000000001</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="3"/>
+        <v>225.11616000000009</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="3"/>
+        <v>180.09292800000009</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="3"/>
+        <v>144.07434240000006</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="3"/>
+        <v>115.25947392000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
         <v>293</v>
       </c>
       <c r="Q10" s="3">
@@ -1966,1299 +2191,2445 @@
       <c r="S10" s="3">
         <v>167</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <v>184</v>
       </c>
       <c r="U10" s="3">
-        <v>1820</v>
-      </c>
-      <c r="V10" s="2">
-        <f>3050-U10-T10-S10</f>
-        <v>879</v>
-      </c>
-      <c r="AD10" s="2">
-        <f>SUM(G10:J10)</f>
-        <v>17675</v>
-      </c>
-      <c r="AE10" s="2">
-        <f>SUM(K10:N10)</f>
-        <v>18435</v>
-      </c>
-      <c r="AF10" s="2">
-        <f>SUM(O10:R10)</f>
-        <v>6671</v>
+        <v>1810</v>
+      </c>
+      <c r="V10">
+        <f>244+679</f>
+        <v>923</v>
+      </c>
+      <c r="W10" s="2">
+        <f>+S10</f>
+        <v>167</v>
+      </c>
+      <c r="X10" s="2">
+        <f>+T10</f>
+        <v>184</v>
+      </c>
+      <c r="Y10">
+        <f>+U10*0.5</f>
+        <v>905</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>+V10*0.5</f>
+        <v>461.5</v>
       </c>
       <c r="AG10" s="2">
         <f>SUM(S10:V10)</f>
-        <v>3050</v>
+        <v>3084</v>
       </c>
       <c r="AH10" s="2">
-        <v>500</v>
+        <f>SUM(W10:Z10)</f>
+        <v>1717.5</v>
       </c>
       <c r="AI10" s="2">
-        <f t="shared" ref="AI10:AR10" si="2">+AH10*0.2</f>
-        <v>100</v>
+        <f>+AH10*0.8</f>
+        <v>1374</v>
       </c>
       <c r="AJ10" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" ref="AJ10:AR10" si="4">+AI10*0.8</f>
+        <v>1099.2</v>
       </c>
       <c r="AK10" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>879.36000000000013</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="4"/>
+        <v>703.48800000000017</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16000000000000003</v>
+        <f t="shared" si="4"/>
+        <v>562.7904000000002</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000008E-2</v>
+        <f t="shared" si="4"/>
+        <v>450.23232000000019</v>
       </c>
       <c r="AO10" s="2">
-        <f t="shared" si="2"/>
-        <v>6.400000000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>360.18585600000017</v>
       </c>
       <c r="AP10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.2800000000000005E-3</v>
+        <f t="shared" si="4"/>
+        <v>288.14868480000013</v>
       </c>
       <c r="AQ10" s="2">
-        <f t="shared" si="2"/>
-        <v>2.560000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>230.51894784000012</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="2"/>
-        <v>5.1200000000000025E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>184.4151582720001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>341</v>
+        <v>200</v>
       </c>
       <c r="G11" s="3">
-        <v>194</v>
+        <v>1733</v>
       </c>
       <c r="H11" s="3">
-        <v>139</v>
+        <v>4197</v>
       </c>
       <c r="I11" s="3">
-        <v>140</v>
+        <v>4810</v>
       </c>
       <c r="J11" s="3">
-        <v>262</v>
+        <v>6935</v>
       </c>
       <c r="K11" s="3">
-        <v>126</v>
+        <v>5925</v>
       </c>
       <c r="L11" s="3">
-        <v>183</v>
+        <v>4531</v>
       </c>
       <c r="M11" s="3">
-        <v>144</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>3120</v>
+      </c>
+      <c r="N11" s="3">
+        <v>4859</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1828</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" ref="P11:Z11" si="5">+P10+P7</f>
+        <v>293</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="5"/>
+        <v>1757</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="5"/>
+        <v>2793</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="5"/>
+        <v>1820</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="5"/>
+        <v>938</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="5"/>
+        <v>935</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="5"/>
+        <v>496.5</v>
+      </c>
       <c r="AD11" s="2">
         <f>SUM(G11:J11)</f>
-        <v>735</v>
+        <v>17675</v>
       </c>
       <c r="AE11" s="2">
         <f>SUM(K11:N11)</f>
-        <v>453</v>
+        <v>18435</v>
       </c>
       <c r="AF11" s="2">
         <f>SUM(O11:R11)</f>
-        <v>0</v>
+        <v>6671</v>
       </c>
       <c r="AG11" s="2">
-        <f>SUM(S11:V11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AG10+AG7</f>
+        <v>3134</v>
+      </c>
+      <c r="AH11" s="2">
+        <f>SUM(AH7:AH10)</f>
+        <v>1827.5</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" ref="AI11:AR11" si="6">+AH11*0.2</f>
+        <v>365.5</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="6"/>
+        <v>73.100000000000009</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="6"/>
+        <v>14.620000000000003</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="6"/>
+        <v>2.9240000000000008</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.58480000000000021</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11696000000000005</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="6"/>
+        <v>2.339200000000001E-2</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6784000000000018E-3</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3568000000000037E-4</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8713600000000007E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="F12" s="3">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="G12" s="3">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="H12" s="3">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I12" s="3">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="J12" s="3">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="K12" s="3">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="L12" s="3">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>225</v>
-      </c>
-      <c r="O12" s="2">
-        <v>34</v>
-      </c>
-      <c r="P12" s="2">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>74</v>
-      </c>
-      <c r="R12" s="2">
-        <v>18</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>57</v>
-      </c>
-      <c r="U12" s="2">
-        <v>42</v>
-      </c>
-      <c r="V12" s="2">
-        <f>+U12</f>
-        <v>42</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N12" s="3"/>
       <c r="AD12" s="2">
         <f>SUM(G12:J12)</f>
-        <v>61</v>
+        <v>735</v>
       </c>
       <c r="AE12" s="2">
         <f>SUM(K12:N12)</f>
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="AF12" s="2">
         <f>SUM(O12:R12)</f>
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2">
         <f>SUM(S12:V12)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>SUM(W12:Z12)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3">
+        <v>35</v>
+      </c>
+      <c r="M13" s="3">
+        <v>100</v>
+      </c>
+      <c r="N13" s="3">
+        <v>225</v>
+      </c>
+      <c r="O13" s="2">
+        <v>34</v>
+      </c>
+      <c r="P13" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>74</v>
+      </c>
+      <c r="R13" s="2">
+        <v>18</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>57</v>
+      </c>
+      <c r="U13" s="2">
+        <v>42</v>
+      </c>
+      <c r="V13" s="2">
+        <v>28</v>
+      </c>
+      <c r="W13" s="2">
+        <f>+S13</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <f>+T13</f>
+        <v>57</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>+U13</f>
+        <v>42</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>+V13</f>
+        <v>28</v>
+      </c>
+      <c r="AD13" s="2">
+        <f>SUM(G13:J13)</f>
+        <v>61</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>SUM(K13:N13)</f>
+        <v>375</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>SUM(O13:R13)</f>
+        <v>177</v>
+      </c>
+      <c r="AG13" s="2">
+        <f>SUM(S13:V13)</f>
+        <v>127</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>SUM(W13:Z13)</f>
+        <v>127</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>+AH13</f>
+        <v>127</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" ref="AJ13:AR13" si="7">+AI13</f>
+        <v>127</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="7"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <f t="shared" ref="E13:L13" si="3">SUM(E10:E12)</f>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <f t="shared" ref="E14:L14" si="8">SUM(E11:E13)</f>
         <v>157</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="3"/>
+      <c r="F14" s="5">
+        <f t="shared" si="8"/>
         <v>571</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
+      <c r="G14" s="5">
+        <f t="shared" si="8"/>
         <v>1937</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="3"/>
+      <c r="H14" s="5">
+        <f t="shared" si="8"/>
         <v>4354</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
+      <c r="I14" s="5">
+        <f t="shared" si="8"/>
         <v>4969</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="3"/>
+      <c r="J14" s="5">
+        <f t="shared" si="8"/>
         <v>7211</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="3"/>
+      <c r="K14" s="5">
+        <f t="shared" si="8"/>
         <v>6066</v>
       </c>
-      <c r="L13" s="5">
-        <f t="shared" si="3"/>
+      <c r="L14" s="5">
+        <f t="shared" si="8"/>
         <v>4749</v>
       </c>
-      <c r="M13" s="5">
-        <f t="shared" ref="M13:N13" si="4">SUM(M10:M12)</f>
+      <c r="M14" s="5">
+        <f t="shared" ref="M14:N14" si="9">SUM(M11:M13)</f>
         <v>3364</v>
       </c>
-      <c r="N13" s="5">
-        <f t="shared" si="4"/>
+      <c r="N14" s="5">
+        <f t="shared" si="9"/>
         <v>5084</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" ref="O13" si="5">SUM(O10:O12)</f>
+      <c r="O14" s="5">
+        <f t="shared" ref="O14" si="10">SUM(O11:O13)</f>
         <v>1862</v>
       </c>
-      <c r="P13" s="5">
-        <f t="shared" ref="P13" si="6">SUM(P10:P12)</f>
+      <c r="P14" s="5">
+        <f t="shared" ref="P14" si="11">SUM(P11:P13)</f>
         <v>344</v>
       </c>
-      <c r="Q13" s="5">
-        <f t="shared" ref="Q13" si="7">SUM(Q10:Q12)</f>
+      <c r="Q14" s="5">
+        <f t="shared" ref="Q14" si="12">SUM(Q11:Q13)</f>
         <v>1831</v>
       </c>
-      <c r="R13" s="5">
-        <f t="shared" ref="R13:Z13" si="8">SUM(R10:R12)</f>
+      <c r="R14" s="5">
+        <f t="shared" ref="R14:Z14" si="13">SUM(R11:R13)</f>
         <v>2811</v>
       </c>
-      <c r="S13" s="5">
-        <f t="shared" si="8"/>
+      <c r="S14" s="5">
+        <f t="shared" si="13"/>
         <v>167</v>
       </c>
-      <c r="T13" s="5">
-        <f t="shared" si="8"/>
+      <c r="T14" s="5">
+        <f t="shared" si="13"/>
         <v>241</v>
       </c>
-      <c r="U13" s="5">
-        <f t="shared" si="8"/>
+      <c r="U14" s="5">
+        <f t="shared" si="13"/>
         <v>1862</v>
       </c>
-      <c r="V13" s="5">
-        <f t="shared" si="8"/>
+      <c r="V14" s="5">
+        <f>SUM(V11:V13)</f>
+        <v>966</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="13"/>
+        <v>266</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="13"/>
+        <v>977</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="13"/>
+        <v>524.5</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>SUM(AD11:AD13)</f>
+        <v>18471</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>SUM(AE11:AE13)</f>
+        <v>19263</v>
+      </c>
+      <c r="AF14" s="4">
+        <f>SUM(AF11:AF13)</f>
+        <v>6848</v>
+      </c>
+      <c r="AG14" s="4">
+        <f>SUM(AG7:AG13)</f>
+        <v>6395</v>
+      </c>
+      <c r="AH14" s="4">
+        <f>+AH13+AH12+AH11</f>
+        <v>1954.5</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>SUM(AI7:AI13)</f>
+        <v>3868.25</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f>SUM(AJ7:AJ13)</f>
+        <v>3182.2000000000003</v>
+      </c>
+      <c r="AK14" s="4">
+        <f t="shared" ref="AK14:AR14" si="14">SUM(AK7:AK13)</f>
+        <v>2832.35</v>
+      </c>
+      <c r="AL14" s="4">
+        <f t="shared" si="14"/>
+        <v>2569.23</v>
+      </c>
+      <c r="AM14" s="4">
+        <f t="shared" si="14"/>
+        <v>2375.1439100000007</v>
+      </c>
+      <c r="AN14" s="4">
+        <f t="shared" si="14"/>
+        <v>2231.4173001000004</v>
+      </c>
+      <c r="AO14" s="4">
+        <f t="shared" si="14"/>
+        <v>2111.591467101</v>
+      </c>
+      <c r="AP14" s="4">
+        <f t="shared" si="14"/>
+        <v>2022.0148472320102</v>
+      </c>
+      <c r="AQ14" s="4">
+        <f t="shared" si="14"/>
+        <v>1956.8157956693303</v>
+      </c>
+      <c r="AR14" s="4">
+        <f t="shared" si="14"/>
+        <v>1911.3431993396737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>193</v>
+      </c>
+      <c r="H15" s="3">
+        <v>750</v>
+      </c>
+      <c r="I15" s="3">
+        <v>722</v>
+      </c>
+      <c r="J15" s="3">
+        <v>952</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1017</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1381</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1918</v>
+      </c>
+      <c r="O15" s="3">
+        <v>792</v>
+      </c>
+      <c r="P15" s="3">
+        <v>731</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2241</v>
+      </c>
+      <c r="R15" s="3">
+        <v>929</v>
+      </c>
+      <c r="S15" s="3">
+        <v>96</v>
+      </c>
+      <c r="T15" s="3">
+        <v>115</v>
+      </c>
+      <c r="U15" s="3">
+        <v>514</v>
+      </c>
+      <c r="V15" s="2">
+        <v>739</v>
+      </c>
+      <c r="AH15" s="2">
+        <f>+AH14-AH16</f>
+        <v>586.35000000000014</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" ref="AI15:AR15" si="15">+AI14-AI16</f>
+        <v>1160.4750000000004</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="15"/>
+        <v>954.66000000000031</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="15"/>
+        <v>849.70500000000015</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="15"/>
+        <v>770.76900000000023</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="15"/>
+        <v>712.54317300000025</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="15"/>
+        <v>669.42519003000029</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="15"/>
+        <v>633.47744013030001</v>
+      </c>
+      <c r="AP15" s="2">
+        <f t="shared" si="15"/>
+        <v>606.60445416960306</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f t="shared" si="15"/>
+        <v>587.04473870079914</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" si="15"/>
+        <v>573.40295980190217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16:L16" si="16">+E14-E15</f>
+        <v>157</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="16"/>
+        <v>563</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="16"/>
+        <v>1744</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="16"/>
+        <v>3604</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="16"/>
+        <v>4247</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="16"/>
+        <v>6259</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="16"/>
+        <v>5049</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="16"/>
+        <v>3368</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" ref="M16:T16" si="17">+M14-M15</f>
+        <v>2264</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="17"/>
+        <v>3166</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="17"/>
+        <v>1070</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="17"/>
+        <v>-387</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="17"/>
+        <v>-410</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="17"/>
+        <v>1882</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="17"/>
+        <v>126</v>
+      </c>
+      <c r="U16" s="3">
+        <f>+U14-U15</f>
+        <v>1348</v>
+      </c>
+      <c r="V16" s="2">
+        <f>+V14-V15</f>
+        <v>227</v>
+      </c>
+      <c r="AH16" s="2">
+        <f>+AH14*0.7</f>
+        <v>1368.1499999999999</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" ref="AI16:AR16" si="18">+AI14*0.7</f>
+        <v>2707.7749999999996</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="18"/>
+        <v>2227.54</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="18"/>
+        <v>1982.6449999999998</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="18"/>
+        <v>1798.4609999999998</v>
+      </c>
+      <c r="AM16" s="2">
+        <f t="shared" si="18"/>
+        <v>1662.6007370000004</v>
+      </c>
+      <c r="AN16" s="2">
+        <f t="shared" si="18"/>
+        <v>1561.9921100700001</v>
+      </c>
+      <c r="AO16" s="2">
+        <f t="shared" si="18"/>
+        <v>1478.1140269707</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="18"/>
+        <v>1415.4103930624071</v>
+      </c>
+      <c r="AQ16" s="2">
+        <f t="shared" si="18"/>
+        <v>1369.7710569685312</v>
+      </c>
+      <c r="AR16" s="2">
+        <f t="shared" si="18"/>
+        <v>1337.9402395377715</v>
+      </c>
+    </row>
+    <row r="17" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>344</v>
+      </c>
+      <c r="F17" s="1">
+        <v>759</v>
+      </c>
+      <c r="G17" s="1">
+        <v>401</v>
+      </c>
+      <c r="H17" s="1">
+        <v>421</v>
+      </c>
+      <c r="I17" s="1">
+        <v>521</v>
+      </c>
+      <c r="J17" s="1">
+        <v>648</v>
+      </c>
+      <c r="K17" s="1">
+        <v>554</v>
+      </c>
+      <c r="L17" s="1">
+        <v>710</v>
+      </c>
+      <c r="M17" s="3">
+        <v>820</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1211</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1131</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1148</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1160</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1406</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1063</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1221</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1137</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1">
+        <v>77</v>
+      </c>
+      <c r="H18" s="1">
+        <v>121</v>
+      </c>
+      <c r="I18" s="1">
+        <v>168</v>
+      </c>
+      <c r="J18" s="1">
+        <v>201</v>
+      </c>
+      <c r="K18" s="1">
+        <v>268</v>
+      </c>
+      <c r="L18" s="1">
+        <v>211</v>
+      </c>
+      <c r="M18" s="3">
+        <v>278</v>
+      </c>
+      <c r="N18" s="3">
+        <v>375</v>
+      </c>
+      <c r="O18" s="3">
+        <v>305</v>
+      </c>
+      <c r="P18" s="3">
+        <v>332</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>442</v>
+      </c>
+      <c r="R18" s="3">
+        <v>470</v>
+      </c>
+      <c r="S18" s="3">
+        <v>274</v>
+      </c>
+      <c r="T18" s="3">
+        <v>268</v>
+      </c>
+      <c r="U18" s="3">
+        <v>281</v>
+      </c>
+      <c r="V18" s="2">
+        <v>351</v>
+      </c>
+      <c r="AH18" s="2">
+        <f>+AH14*0.25</f>
+        <v>488.625</v>
+      </c>
+      <c r="AI18" s="2">
+        <f t="shared" ref="AI18:AR18" si="19">+AI14*0.25</f>
+        <v>967.0625</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="19"/>
+        <v>795.55000000000007</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="19"/>
+        <v>708.08749999999998</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="19"/>
+        <v>642.3075</v>
+      </c>
+      <c r="AM18" s="2">
+        <f t="shared" si="19"/>
+        <v>593.78597750000017</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" si="19"/>
+        <v>557.85432502500009</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="19"/>
+        <v>527.89786677525001</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" si="19"/>
+        <v>505.50371180800255</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f t="shared" si="19"/>
+        <v>489.20394891733258</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="19"/>
+        <v>477.83579983491842</v>
+      </c>
+    </row>
+    <row r="19" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:L19" si="20">+E17+E18</f>
+        <v>392</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="20"/>
+        <v>838</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="20"/>
+        <v>478</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="20"/>
+        <v>542</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="20"/>
+        <v>689</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="20"/>
+        <v>849</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="20"/>
+        <v>822</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="20"/>
         <v>921</v>
       </c>
-      <c r="W13" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="4">
-        <f>SUM(AD10:AD12)</f>
-        <v>18471</v>
-      </c>
-      <c r="AE13" s="4">
-        <f>SUM(AE10:AE12)</f>
-        <v>19263</v>
-      </c>
-      <c r="AF13" s="4">
-        <f>SUM(AF10:AF12)</f>
-        <v>6848</v>
-      </c>
-      <c r="AG13" s="4">
-        <f>SUM(AG7:AG12)</f>
-        <v>3241</v>
-      </c>
-      <c r="AH13" s="4">
-        <f>SUM(AH7:AH12)</f>
-        <v>2700</v>
-      </c>
-      <c r="AI13" s="4">
-        <f>SUM(AI7:AI12)</f>
-        <v>100</v>
-      </c>
-      <c r="AJ13" s="4">
-        <f>SUM(AJ7:AJ12)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>193</v>
-      </c>
-      <c r="H14" s="3">
-        <v>750</v>
-      </c>
-      <c r="I14" s="3">
-        <v>722</v>
-      </c>
-      <c r="J14" s="3">
-        <v>952</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1017</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1381</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1918</v>
-      </c>
-      <c r="O14" s="3">
-        <v>792</v>
-      </c>
-      <c r="P14" s="3">
-        <v>731</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2241</v>
-      </c>
-      <c r="R14" s="3">
-        <v>929</v>
-      </c>
-      <c r="S14" s="3">
-        <v>96</v>
-      </c>
-      <c r="T14" s="3">
-        <v>115</v>
-      </c>
-      <c r="U14" s="3">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15:L15" si="9">+E13-E14</f>
-        <v>157</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="9"/>
-        <v>563</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="9"/>
-        <v>1744</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="9"/>
-        <v>3604</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="9"/>
-        <v>4247</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="9"/>
-        <v>6259</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="9"/>
-        <v>5049</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="9"/>
-        <v>3368</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" ref="M15:T15" si="10">+M13-M14</f>
-        <v>2264</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="10"/>
-        <v>3166</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" si="10"/>
-        <v>1070</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="10"/>
-        <v>-387</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="10"/>
-        <v>-410</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="10"/>
-        <v>1882</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="10"/>
-        <v>71</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="10"/>
-        <v>126</v>
-      </c>
-      <c r="U15" s="3">
-        <f>+U13-U14</f>
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1">
-        <v>344</v>
-      </c>
-      <c r="F16" s="1">
-        <v>759</v>
-      </c>
-      <c r="G16" s="1">
-        <v>401</v>
-      </c>
-      <c r="H16" s="1">
-        <v>421</v>
-      </c>
-      <c r="I16" s="1">
-        <v>521</v>
-      </c>
-      <c r="J16" s="1">
-        <v>648</v>
-      </c>
-      <c r="K16" s="1">
-        <v>554</v>
-      </c>
-      <c r="L16" s="1">
-        <v>710</v>
-      </c>
-      <c r="M16" s="3">
-        <v>820</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1211</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1131</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1148</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1160</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1406</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1063</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1221</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="1">
-        <v>48</v>
-      </c>
-      <c r="F17" s="1">
-        <v>79</v>
-      </c>
-      <c r="G17" s="1">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1">
-        <v>121</v>
-      </c>
-      <c r="I17" s="1">
-        <v>168</v>
-      </c>
-      <c r="J17" s="1">
-        <v>201</v>
-      </c>
-      <c r="K17" s="1">
-        <v>268</v>
-      </c>
-      <c r="L17" s="1">
-        <v>211</v>
-      </c>
-      <c r="M17" s="3">
-        <v>278</v>
-      </c>
-      <c r="N17" s="3">
-        <v>375</v>
-      </c>
-      <c r="O17" s="3">
-        <v>305</v>
-      </c>
-      <c r="P17" s="3">
-        <v>332</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>442</v>
-      </c>
-      <c r="R17" s="3">
-        <v>470</v>
-      </c>
-      <c r="S17" s="3">
-        <v>274</v>
-      </c>
-      <c r="T17" s="3">
-        <v>268</v>
-      </c>
-      <c r="U17" s="3">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" ref="E18:L18" si="11">+E16+E17</f>
-        <v>392</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="11"/>
-        <v>838</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="11"/>
-        <v>478</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="11"/>
-        <v>542</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="11"/>
-        <v>689</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="11"/>
-        <v>849</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="11"/>
-        <v>822</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="11"/>
-        <v>921</v>
-      </c>
-      <c r="M18" s="3">
-        <f t="shared" ref="M18:O18" si="12">+M16+M17</f>
+      <c r="M19" s="3">
+        <f t="shared" ref="M19:O19" si="21">+M17+M18</f>
         <v>1098</v>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" si="12"/>
+      <c r="N19" s="3">
+        <f t="shared" si="21"/>
         <v>1586</v>
       </c>
-      <c r="O18" s="3">
-        <f t="shared" si="12"/>
+      <c r="O19" s="3">
+        <f t="shared" si="21"/>
         <v>1436</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" ref="P18" si="13">+P16+P17</f>
+      <c r="P19" s="3">
+        <f t="shared" ref="P19" si="22">+P17+P18</f>
         <v>1480</v>
       </c>
-      <c r="Q18" s="3">
-        <f t="shared" ref="Q18" si="14">+Q16+Q17</f>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="23">+Q17+Q18</f>
         <v>1602</v>
       </c>
-      <c r="R18" s="3">
-        <f t="shared" ref="R18:S18" si="15">+R16+R17</f>
+      <c r="R19" s="3">
+        <f t="shared" ref="R19:S19" si="24">+R17+R18</f>
         <v>1876</v>
       </c>
-      <c r="S18" s="3">
-        <f t="shared" si="15"/>
+      <c r="S19" s="3">
+        <f t="shared" si="24"/>
         <v>1337</v>
       </c>
-      <c r="T18" s="3">
-        <f>+T17+T16</f>
+      <c r="T19" s="3">
+        <f>+T18+T17</f>
         <v>1489</v>
       </c>
-      <c r="U18" s="3">
-        <f>+U17+U16</f>
+      <c r="U19" s="3">
+        <f>+U18+U17</f>
         <v>1418</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="V19" s="3">
+        <f>+V18+V17</f>
+        <v>1473</v>
+      </c>
+      <c r="AH19" s="2">
+        <f>+AH18+AH17</f>
+        <v>488.625</v>
+      </c>
+      <c r="AI19" s="2">
+        <f t="shared" ref="AI19:AR19" si="25">+AI18+AI17</f>
+        <v>967.0625</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f t="shared" si="25"/>
+        <v>795.55000000000007</v>
+      </c>
+      <c r="AK19" s="2">
+        <f t="shared" si="25"/>
+        <v>708.08749999999998</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="25"/>
+        <v>642.3075</v>
+      </c>
+      <c r="AM19" s="2">
+        <f t="shared" si="25"/>
+        <v>593.78597750000017</v>
+      </c>
+      <c r="AN19" s="2">
+        <f t="shared" si="25"/>
+        <v>557.85432502500009</v>
+      </c>
+      <c r="AO19" s="2">
+        <f t="shared" si="25"/>
+        <v>527.89786677525001</v>
+      </c>
+      <c r="AP19" s="2">
+        <f t="shared" si="25"/>
+        <v>505.50371180800255</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f t="shared" si="25"/>
+        <v>489.20394891733258</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" si="25"/>
+        <v>477.83579983491842</v>
+      </c>
+      <c r="AS19" s="2"/>
+    </row>
+    <row r="20" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19:L19" si="16">+E15-E18</f>
+      <c r="E20" s="3">
+        <f t="shared" ref="E20:L20" si="26">+E16-E19</f>
         <v>-235</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="16"/>
+      <c r="F20" s="3">
+        <f t="shared" si="26"/>
         <v>-275</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="16"/>
+      <c r="G20" s="3">
+        <f t="shared" si="26"/>
         <v>1266</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" si="16"/>
+      <c r="H20" s="3">
+        <f t="shared" si="26"/>
         <v>3062</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" si="16"/>
+      <c r="I20" s="3">
+        <f t="shared" si="26"/>
         <v>3558</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" si="16"/>
+      <c r="J20" s="3">
+        <f t="shared" si="26"/>
         <v>5410</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="16"/>
+      <c r="K20" s="3">
+        <f t="shared" si="26"/>
         <v>4227</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" si="16"/>
+      <c r="L20" s="3">
+        <f t="shared" si="26"/>
         <v>2447</v>
       </c>
-      <c r="M19" s="3">
-        <f t="shared" ref="M19:O19" si="17">+M15-M18</f>
+      <c r="M20" s="3">
+        <f t="shared" ref="M20:O20" si="27">+M16-M19</f>
         <v>1166</v>
       </c>
-      <c r="N19" s="3">
-        <f t="shared" si="17"/>
+      <c r="N20" s="3">
+        <f t="shared" si="27"/>
         <v>1580</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="17"/>
+      <c r="O20" s="3">
+        <f t="shared" si="27"/>
         <v>-366</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" ref="P19" si="18">+P15-P18</f>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20" si="28">+P16-P19</f>
         <v>-1867</v>
       </c>
-      <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="19">+Q15-Q18</f>
+      <c r="Q20" s="3">
+        <f t="shared" ref="Q20" si="29">+Q16-Q19</f>
         <v>-2012</v>
       </c>
-      <c r="R19" s="3">
-        <f t="shared" ref="R19:S19" si="20">+R15-R18</f>
+      <c r="R20" s="3">
+        <f t="shared" ref="R20:S20" si="30">+R16-R19</f>
         <v>6</v>
       </c>
-      <c r="S19" s="3">
-        <f t="shared" si="20"/>
+      <c r="S20" s="3">
+        <f t="shared" si="30"/>
         <v>-1266</v>
       </c>
-      <c r="T19" s="3">
-        <f>+T15-T18</f>
+      <c r="T20" s="3">
+        <f>+T16-T19</f>
         <v>-1363</v>
       </c>
-      <c r="U19" s="3">
-        <f>+U15-U18</f>
+      <c r="U20" s="3">
+        <f>+U16-U19</f>
         <v>-70</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="V20" s="3">
+        <f>+V16-V19</f>
+        <v>-1246</v>
+      </c>
+      <c r="AH20" s="2">
+        <f>+AH16-AH19</f>
+        <v>879.52499999999986</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" ref="AI20:AR20" si="31">+AI16-AI19</f>
+        <v>1740.7124999999996</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="31"/>
+        <v>1431.9899999999998</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="31"/>
+        <v>1274.5574999999999</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="31"/>
+        <v>1156.1534999999999</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="31"/>
+        <v>1068.8147595000003</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="31"/>
+        <v>1004.137785045</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="31"/>
+        <v>950.21616019545002</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" si="31"/>
+        <v>909.90668125440459</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f t="shared" si="31"/>
+        <v>880.5671080511986</v>
+      </c>
+      <c r="AR20" s="2">
+        <f t="shared" si="31"/>
+        <v>860.10443970285314</v>
+      </c>
+      <c r="AS20" s="2"/>
+    </row>
+    <row r="21" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <f>6-3</f>
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <f>4-10</f>
         <v>-6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <f>3-2</f>
         <v>1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I21" s="1">
         <f>4-10</f>
         <v>-6</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J21" s="1">
         <f>7-7</f>
         <v>0</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K21" s="1">
         <f>15-13</f>
         <v>2</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L21" s="1">
         <f>40-13</f>
         <v>27</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="1">
         <f>58-7</f>
         <v>51</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="1">
         <f>87-12</f>
         <v>75</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <f>109-48</f>
         <v>61</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <f>104+14</f>
         <v>118</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <f>105-51</f>
         <v>54</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <f>103-39</f>
         <v>64</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>120-19</f>
         <v>101</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>111-27</f>
         <v>84</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <f>103-12</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="V21">
+        <f>91-29</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="3">
-        <f t="shared" ref="E21:L21" si="21">+E19+E20</f>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:L22" si="32">+E20+E21</f>
         <v>-232</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="21"/>
+      <c r="F22" s="3">
+        <f t="shared" si="32"/>
         <v>-271</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" si="21"/>
+      <c r="G22" s="3">
+        <f t="shared" si="32"/>
         <v>1260</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="21"/>
+      <c r="H22" s="3">
+        <f t="shared" si="32"/>
         <v>3063</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="21"/>
+      <c r="I22" s="3">
+        <f t="shared" si="32"/>
         <v>3552</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" si="21"/>
+      <c r="J22" s="3">
+        <f t="shared" si="32"/>
         <v>5410</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" si="21"/>
+      <c r="K22" s="3">
+        <f t="shared" si="32"/>
         <v>4229</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="21"/>
+      <c r="L22" s="3">
+        <f t="shared" si="32"/>
         <v>2474</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" ref="M21:S21" si="22">+M19+M20</f>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22:S22" si="33">+M20+M21</f>
         <v>1217</v>
       </c>
-      <c r="N21" s="3">
-        <f t="shared" si="22"/>
+      <c r="N22" s="3">
+        <f t="shared" si="33"/>
         <v>1655</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="22"/>
+      <c r="O22" s="3">
+        <f t="shared" si="33"/>
         <v>-305</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="22"/>
+      <c r="P22" s="3">
+        <f t="shared" si="33"/>
         <v>-1749</v>
       </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="22"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="33"/>
         <v>-1958</v>
       </c>
-      <c r="R21" s="3">
-        <f t="shared" si="22"/>
+      <c r="R22" s="3">
+        <f t="shared" si="33"/>
         <v>70</v>
       </c>
-      <c r="S21" s="3">
-        <f t="shared" si="22"/>
+      <c r="S22" s="3">
+        <f t="shared" si="33"/>
         <v>-1165</v>
       </c>
-      <c r="T21" s="3">
-        <f>+T19+T20</f>
+      <c r="T22" s="3">
+        <f>+T20+T21</f>
         <v>-1279</v>
       </c>
-      <c r="U21" s="3">
-        <f>+U19+U20</f>
+      <c r="U22" s="3">
+        <f>+U20+U21</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="V22" s="3">
+        <f>+V20+V21</f>
+        <v>-1184</v>
+      </c>
+      <c r="AH22" s="2">
+        <f>+AH20+AH21</f>
+        <v>879.52499999999986</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" ref="AI22:AR22" si="34">+AI20+AI21</f>
+        <v>1740.7124999999996</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="34"/>
+        <v>1431.9899999999998</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="34"/>
+        <v>1274.5574999999999</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="34"/>
+        <v>1156.1534999999999</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="34"/>
+        <v>1068.8147595000003</v>
+      </c>
+      <c r="AN22" s="2">
+        <f t="shared" si="34"/>
+        <v>1004.137785045</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" si="34"/>
+        <v>950.21616019545002</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" si="34"/>
+        <v>909.90668125440459</v>
+      </c>
+      <c r="AQ22" s="2">
+        <f t="shared" si="34"/>
+        <v>880.5671080511986</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" si="34"/>
+        <v>860.10443970285314</v>
+      </c>
+    </row>
+    <row r="23" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>39</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>283</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <v>219</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <v>542</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K23" s="1">
         <v>572</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L23" s="1">
         <v>277</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <v>174</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>190</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="3">
         <v>-384</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="3">
         <v>-369</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q23" s="3">
         <v>1672</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <v>-147</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S23" s="3">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U23" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="V23" s="3">
+        <v>-64</v>
+      </c>
+      <c r="AH23" s="2">
+        <f>+AH22*0.2</f>
+        <v>175.90499999999997</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" ref="AI23:AR23" si="35">+AI22*0.2</f>
+        <v>348.14249999999993</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="35"/>
+        <v>286.39799999999997</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="35"/>
+        <v>254.91149999999999</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="35"/>
+        <v>231.23069999999998</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="35"/>
+        <v>213.76295190000008</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="35"/>
+        <v>200.827557009</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" si="35"/>
+        <v>190.04323203909001</v>
+      </c>
+      <c r="AP23" s="2">
+        <f t="shared" si="35"/>
+        <v>181.98133625088093</v>
+      </c>
+      <c r="AQ23" s="2">
+        <f t="shared" si="35"/>
+        <v>176.11342161023973</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="35"/>
+        <v>172.02088794057065</v>
+      </c>
+    </row>
+    <row r="24" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3">
-        <f t="shared" ref="E23:L23" si="23">+E21-E22</f>
+      <c r="E24" s="3">
+        <f t="shared" ref="E24:L24" si="36">+E22-E23</f>
         <v>-233</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="23"/>
+      <c r="F24" s="3">
+        <f t="shared" si="36"/>
         <v>-272</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="23"/>
+      <c r="G24" s="3">
+        <f t="shared" si="36"/>
         <v>1221</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="23"/>
+      <c r="H24" s="3">
+        <f t="shared" si="36"/>
         <v>2780</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="23"/>
+      <c r="I24" s="3">
+        <f t="shared" si="36"/>
         <v>3333</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="23"/>
+      <c r="J24" s="3">
+        <f t="shared" si="36"/>
         <v>4868</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="23"/>
+      <c r="K24" s="3">
+        <f t="shared" si="36"/>
         <v>3657</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="23"/>
+      <c r="L24" s="3">
+        <f t="shared" si="36"/>
         <v>2197</v>
       </c>
-      <c r="M23" s="3">
-        <f t="shared" ref="M23:S23" si="24">+M21-M22</f>
+      <c r="M24" s="3">
+        <f t="shared" ref="M24:S24" si="37">+M22-M23</f>
         <v>1043</v>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" si="24"/>
+      <c r="N24" s="3">
+        <f t="shared" si="37"/>
         <v>1465</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="24"/>
+      <c r="O24" s="3">
+        <f t="shared" si="37"/>
         <v>79</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="24"/>
+      <c r="P24" s="3">
+        <f t="shared" si="37"/>
         <v>-1380</v>
       </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="24"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="37"/>
         <v>-3630</v>
       </c>
-      <c r="R23" s="3">
-        <f t="shared" si="24"/>
+      <c r="R24" s="3">
+        <f t="shared" si="37"/>
         <v>217</v>
       </c>
-      <c r="S23" s="3">
-        <f t="shared" si="24"/>
+      <c r="S24" s="3">
+        <f t="shared" si="37"/>
         <v>-1175</v>
       </c>
-      <c r="T23" s="3">
-        <f>+T21-T22</f>
+      <c r="T24" s="3">
+        <f>+T22-T23</f>
         <v>-1279</v>
       </c>
-      <c r="U23" s="3">
-        <f>+U21-U22</f>
+      <c r="U24" s="3">
+        <f>+U22-U23</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="V24" s="3">
+        <f>+V22-V23</f>
+        <v>-1120</v>
+      </c>
+      <c r="AH24" s="2">
+        <f>+AH22-AH23</f>
+        <v>703.61999999999989</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" ref="AI24:AR24" si="38">+AI22-AI23</f>
+        <v>1392.5699999999997</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="38"/>
+        <v>1145.5919999999999</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="38"/>
+        <v>1019.646</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="38"/>
+        <v>924.92279999999994</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="38"/>
+        <v>855.05180760000019</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="38"/>
+        <v>803.31022803600001</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="38"/>
+        <v>760.17292815636006</v>
+      </c>
+      <c r="AP24" s="2">
+        <f t="shared" si="38"/>
+        <v>727.92534500352372</v>
+      </c>
+      <c r="AQ24" s="2">
+        <f t="shared" si="38"/>
+        <v>704.4536864409589</v>
+      </c>
+      <c r="AR24" s="2">
+        <f t="shared" si="38"/>
+        <v>688.08355176228247</v>
+      </c>
+      <c r="AS24" s="2">
+        <f>+AR24*(1+$AU$30)</f>
+        <v>653.67937417416829</v>
+      </c>
+      <c r="AT24" s="2">
+        <f t="shared" ref="AT24:DE24" si="39">+AS24*(1+$AU$30)</f>
+        <v>620.99540546545984</v>
+      </c>
+      <c r="AU24" s="2">
+        <f t="shared" si="39"/>
+        <v>589.94563519218684</v>
+      </c>
+      <c r="AV24" s="2">
+        <f t="shared" si="39"/>
+        <v>560.44835343257751</v>
+      </c>
+      <c r="AW24" s="2">
+        <f t="shared" si="39"/>
+        <v>532.42593576094862</v>
+      </c>
+      <c r="AX24" s="2">
+        <f t="shared" si="39"/>
+        <v>505.80463897290116</v>
+      </c>
+      <c r="AY24" s="2">
+        <f t="shared" si="39"/>
+        <v>480.51440702425606</v>
+      </c>
+      <c r="AZ24" s="2">
+        <f t="shared" si="39"/>
+        <v>456.48868667304322</v>
+      </c>
+      <c r="BA24" s="2">
+        <f t="shared" si="39"/>
+        <v>433.66425233939106</v>
+      </c>
+      <c r="BB24" s="2">
+        <f t="shared" si="39"/>
+        <v>411.98103972242149</v>
+      </c>
+      <c r="BC24" s="2">
+        <f t="shared" si="39"/>
+        <v>391.3819877363004</v>
+      </c>
+      <c r="BD24" s="2">
+        <f t="shared" si="39"/>
+        <v>371.81288834948538</v>
+      </c>
+      <c r="BE24" s="2">
+        <f t="shared" si="39"/>
+        <v>353.22224393201111</v>
+      </c>
+      <c r="BF24" s="2">
+        <f t="shared" si="39"/>
+        <v>335.56113173541053</v>
+      </c>
+      <c r="BG24" s="2">
+        <f t="shared" si="39"/>
+        <v>318.78307514863997</v>
+      </c>
+      <c r="BH24" s="2">
+        <f t="shared" si="39"/>
+        <v>302.84392139120797</v>
+      </c>
+      <c r="BI24" s="2">
+        <f t="shared" si="39"/>
+        <v>287.70172532164759</v>
+      </c>
+      <c r="BJ24" s="2">
+        <f t="shared" si="39"/>
+        <v>273.31663905556519</v>
+      </c>
+      <c r="BK24" s="2">
+        <f t="shared" si="39"/>
+        <v>259.65080710278693</v>
+      </c>
+      <c r="BL24" s="2">
+        <f t="shared" si="39"/>
+        <v>246.66826674764758</v>
+      </c>
+      <c r="BM24" s="2">
+        <f t="shared" si="39"/>
+        <v>234.3348534102652</v>
+      </c>
+      <c r="BN24" s="2">
+        <f t="shared" si="39"/>
+        <v>222.61811073975193</v>
+      </c>
+      <c r="BO24" s="2">
+        <f t="shared" si="39"/>
+        <v>211.48720520276433</v>
+      </c>
+      <c r="BP24" s="2">
+        <f t="shared" si="39"/>
+        <v>200.91284494262609</v>
+      </c>
+      <c r="BQ24" s="2">
+        <f t="shared" si="39"/>
+        <v>190.86720269549477</v>
+      </c>
+      <c r="BR24" s="2">
+        <f t="shared" si="39"/>
+        <v>181.32384256072001</v>
+      </c>
+      <c r="BS24" s="2">
+        <f t="shared" si="39"/>
+        <v>172.25765043268399</v>
+      </c>
+      <c r="BT24" s="2">
+        <f t="shared" si="39"/>
+        <v>163.64476791104977</v>
+      </c>
+      <c r="BU24" s="2">
+        <f t="shared" si="39"/>
+        <v>155.46252951549727</v>
+      </c>
+      <c r="BV24" s="2">
+        <f t="shared" si="39"/>
+        <v>147.68940303972241</v>
+      </c>
+      <c r="BW24" s="2">
+        <f t="shared" si="39"/>
+        <v>140.30493288773627</v>
+      </c>
+      <c r="BX24" s="2">
+        <f t="shared" si="39"/>
+        <v>133.28968624334945</v>
+      </c>
+      <c r="BY24" s="2">
+        <f t="shared" si="39"/>
+        <v>126.62520193118198</v>
+      </c>
+      <c r="BZ24" s="2">
+        <f t="shared" si="39"/>
+        <v>120.29394183462287</v>
+      </c>
+      <c r="CA24" s="2">
+        <f t="shared" si="39"/>
+        <v>114.27924474289172</v>
+      </c>
+      <c r="CB24" s="2">
+        <f t="shared" si="39"/>
+        <v>108.56528250574713</v>
+      </c>
+      <c r="CC24" s="2">
+        <f t="shared" si="39"/>
+        <v>103.13701838045978</v>
+      </c>
+      <c r="CD24" s="2">
+        <f t="shared" si="39"/>
+        <v>97.980167461436778</v>
+      </c>
+      <c r="CE24" s="2">
+        <f t="shared" si="39"/>
+        <v>93.081159088364942</v>
+      </c>
+      <c r="CF24" s="2">
+        <f t="shared" si="39"/>
+        <v>88.427101133946692</v>
+      </c>
+      <c r="CG24" s="2">
+        <f t="shared" si="39"/>
+        <v>84.005746077249356</v>
+      </c>
+      <c r="CH24" s="2">
+        <f t="shared" si="39"/>
+        <v>79.805458773386889</v>
+      </c>
+      <c r="CI24" s="2">
+        <f t="shared" si="39"/>
+        <v>75.815185834717539</v>
+      </c>
+      <c r="CJ24" s="2">
+        <f t="shared" si="39"/>
+        <v>72.024426542981658</v>
+      </c>
+      <c r="CK24" s="2">
+        <f t="shared" si="39"/>
+        <v>68.423205215832567</v>
+      </c>
+      <c r="CL24" s="2">
+        <f t="shared" si="39"/>
+        <v>65.00204495504093</v>
+      </c>
+      <c r="CM24" s="2">
+        <f t="shared" si="39"/>
+        <v>61.751942707288883</v>
+      </c>
+      <c r="CN24" s="2">
+        <f t="shared" si="39"/>
+        <v>58.664345571924436</v>
+      </c>
+      <c r="CO24" s="2">
+        <f t="shared" si="39"/>
+        <v>55.731128293328211</v>
+      </c>
+      <c r="CP24" s="2">
+        <f t="shared" si="39"/>
+        <v>52.944571878661797</v>
+      </c>
+      <c r="CQ24" s="2">
+        <f t="shared" si="39"/>
+        <v>50.297343284728704</v>
+      </c>
+      <c r="CR24" s="2">
+        <f t="shared" si="39"/>
+        <v>47.782476120492269</v>
+      </c>
+      <c r="CS24" s="2">
+        <f t="shared" si="39"/>
+        <v>45.393352314467656</v>
+      </c>
+      <c r="CT24" s="2">
+        <f t="shared" si="39"/>
+        <v>43.12368469874427</v>
+      </c>
+      <c r="CU24" s="2">
+        <f t="shared" si="39"/>
+        <v>40.967500463807056</v>
+      </c>
+      <c r="CV24" s="2">
+        <f t="shared" si="39"/>
+        <v>38.919125440616703</v>
+      </c>
+      <c r="CW24" s="2">
+        <f t="shared" si="39"/>
+        <v>36.973169168585869</v>
+      </c>
+      <c r="CX24" s="2">
+        <f t="shared" si="39"/>
+        <v>35.124510710156571</v>
+      </c>
+      <c r="CY24" s="2">
+        <f t="shared" si="39"/>
+        <v>33.36828517464874</v>
+      </c>
+      <c r="CZ24" s="2">
+        <f t="shared" si="39"/>
+        <v>31.6998709159163</v>
+      </c>
+      <c r="DA24" s="2">
+        <f t="shared" si="39"/>
+        <v>30.114877370120485</v>
+      </c>
+      <c r="DB24" s="2">
+        <f t="shared" si="39"/>
+        <v>28.609133501614458</v>
+      </c>
+      <c r="DC24" s="2">
+        <f t="shared" si="39"/>
+        <v>27.178676826533735</v>
+      </c>
+      <c r="DD24" s="2">
+        <f t="shared" si="39"/>
+        <v>25.819742985207046</v>
+      </c>
+      <c r="DE24" s="2">
+        <f t="shared" si="39"/>
+        <v>24.528755835946694</v>
+      </c>
+      <c r="DF24" s="2">
+        <f t="shared" ref="DF24:EI24" si="40">+DE24*(1+$AU$30)</f>
+        <v>23.302318044149359</v>
+      </c>
+      <c r="DG24" s="2">
+        <f t="shared" si="40"/>
+        <v>22.137202141941891</v>
+      </c>
+      <c r="DH24" s="2">
+        <f t="shared" si="40"/>
+        <v>21.030342034844796</v>
+      </c>
+      <c r="DI24" s="2">
+        <f t="shared" si="40"/>
+        <v>19.978824933102555</v>
+      </c>
+      <c r="DJ24" s="2">
+        <f t="shared" si="40"/>
+        <v>18.979883686447426</v>
+      </c>
+      <c r="DK24" s="2">
+        <f t="shared" si="40"/>
+        <v>18.030889502125053</v>
+      </c>
+      <c r="DL24" s="2">
+        <f t="shared" si="40"/>
+        <v>17.1293450270188</v>
+      </c>
+      <c r="DM24" s="2">
+        <f t="shared" si="40"/>
+        <v>16.272877775667858</v>
+      </c>
+      <c r="DN24" s="2">
+        <f t="shared" si="40"/>
+        <v>15.459233886884464</v>
+      </c>
+      <c r="DO24" s="2">
+        <f t="shared" si="40"/>
+        <v>14.68627219254024</v>
+      </c>
+      <c r="DP24" s="2">
+        <f t="shared" si="40"/>
+        <v>13.951958582913228</v>
+      </c>
+      <c r="DQ24" s="2">
+        <f t="shared" si="40"/>
+        <v>13.254360653767566</v>
+      </c>
+      <c r="DR24" s="2">
+        <f t="shared" si="40"/>
+        <v>12.591642621079188</v>
+      </c>
+      <c r="DS24" s="2">
+        <f t="shared" si="40"/>
+        <v>11.962060490025229</v>
+      </c>
+      <c r="DT24" s="2">
+        <f t="shared" si="40"/>
+        <v>11.363957465523967</v>
+      </c>
+      <c r="DU24" s="2">
+        <f t="shared" si="40"/>
+        <v>10.795759592247768</v>
+      </c>
+      <c r="DV24" s="2">
+        <f t="shared" si="40"/>
+        <v>10.255971612635379</v>
+      </c>
+      <c r="DW24" s="2">
+        <f t="shared" si="40"/>
+        <v>9.7431730320036092</v>
+      </c>
+      <c r="DX24" s="2">
+        <f t="shared" si="40"/>
+        <v>9.2560143804034283</v>
+      </c>
+      <c r="DY24" s="2">
+        <f t="shared" si="40"/>
+        <v>8.7932136613832572</v>
+      </c>
+      <c r="DZ24" s="2">
+        <f t="shared" si="40"/>
+        <v>8.3535529783140934</v>
+      </c>
+      <c r="EA24" s="2">
+        <f t="shared" si="40"/>
+        <v>7.9358753293983879</v>
+      </c>
+      <c r="EB24" s="2">
+        <f t="shared" si="40"/>
+        <v>7.5390815629284678</v>
+      </c>
+      <c r="EC24" s="2">
+        <f t="shared" si="40"/>
+        <v>7.1621274847820438</v>
+      </c>
+      <c r="ED24" s="2">
+        <f t="shared" si="40"/>
+        <v>6.8040211105429416</v>
+      </c>
+      <c r="EE24" s="2">
+        <f t="shared" si="40"/>
+        <v>6.4638200550157938</v>
+      </c>
+      <c r="EF24" s="2">
+        <f t="shared" si="40"/>
+        <v>6.1406290522650036</v>
+      </c>
+      <c r="EG24" s="2">
+        <f t="shared" si="40"/>
+        <v>5.8335975996517533</v>
+      </c>
+      <c r="EH24" s="2">
+        <f t="shared" si="40"/>
+        <v>5.5419177196691658</v>
+      </c>
+      <c r="EI24" s="2">
+        <f t="shared" si="40"/>
+        <v>5.2648218336857076</v>
+      </c>
+    </row>
+    <row r="25" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="6">
-        <f t="shared" ref="E24:L24" si="25">+E23/E25</f>
+      <c r="E25" s="6">
+        <f t="shared" ref="E25:L25" si="41">+E24/E26</f>
         <v>-0.58987341772151902</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="25"/>
+      <c r="F25" s="6">
+        <f t="shared" si="41"/>
         <v>-0.68513853904282118</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="25"/>
+      <c r="G25" s="6">
+        <f t="shared" si="41"/>
         <v>2.8395348837209302</v>
       </c>
-      <c r="H24" s="6">
-        <f t="shared" si="25"/>
+      <c r="H25" s="6">
+        <f t="shared" si="41"/>
         <v>6.4501160092807428</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="25"/>
+      <c r="I25" s="6">
+        <f t="shared" si="41"/>
         <v>7.6797235023041477</v>
       </c>
-      <c r="J24" s="6">
-        <f t="shared" si="25"/>
+      <c r="J25" s="6">
+        <f t="shared" si="41"/>
         <v>11.294663573085847</v>
       </c>
-      <c r="K24" s="6">
-        <f t="shared" si="25"/>
+      <c r="K25" s="6">
+        <f t="shared" si="41"/>
         <v>8.5845070422535219</v>
       </c>
-      <c r="L24" s="6">
-        <f t="shared" si="25"/>
+      <c r="L25" s="6">
+        <f t="shared" si="41"/>
         <v>5.2434367541766109</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" ref="M24:S24" si="26">+M23/M25</f>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25:S25" si="42">+M24/M26</f>
         <v>2.5315533980582523</v>
       </c>
-      <c r="N24" s="6">
-        <f t="shared" si="26"/>
+      <c r="N25" s="6">
+        <f t="shared" si="42"/>
         <v>3.617283950617284</v>
       </c>
-      <c r="O24" s="6">
-        <f t="shared" si="26"/>
+      <c r="O25" s="6">
+        <f t="shared" si="42"/>
         <v>0.19506172839506172</v>
       </c>
-      <c r="P24" s="6">
-        <f t="shared" si="26"/>
+      <c r="P25" s="6">
+        <f t="shared" si="42"/>
         <v>-3.622047244094488</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="26"/>
+      <c r="Q25" s="6">
+        <f t="shared" si="42"/>
         <v>-9.5275590551181111</v>
       </c>
-      <c r="R24" s="6">
-        <f t="shared" si="26"/>
+      <c r="R25" s="6">
+        <f t="shared" si="42"/>
         <v>0.54936708860759498</v>
       </c>
-      <c r="S24" s="6">
-        <f t="shared" si="26"/>
+      <c r="S25" s="6">
+        <f t="shared" si="42"/>
         <v>-3.075916230366492</v>
       </c>
-      <c r="T24" s="6">
-        <f>+T23/T25</f>
+      <c r="T25" s="6">
+        <f>+T24/T26</f>
         <v>-3.3307291666666665</v>
       </c>
-      <c r="U24" s="6">
-        <f>+U23/U25</f>
+      <c r="U25" s="6">
+        <f>+U24/U26</f>
         <v>3.2581453634085211E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="V25" s="6">
+        <f>+V24/V26</f>
+        <v>-2.9090909090909092</v>
+      </c>
+      <c r="AH25" s="20">
+        <f>+AH24/AH26</f>
+        <v>1.8157935483870964</v>
+      </c>
+      <c r="AI25" s="20">
+        <f t="shared" ref="AI25:AR25" si="43">+AI24/AI26</f>
+        <v>3.5937290322580639</v>
+      </c>
+      <c r="AJ25" s="20">
+        <f t="shared" si="43"/>
+        <v>2.9563664516129027</v>
+      </c>
+      <c r="AK25" s="20">
+        <f t="shared" si="43"/>
+        <v>2.6313445161290323</v>
+      </c>
+      <c r="AL25" s="20">
+        <f t="shared" si="43"/>
+        <v>2.3868975483870964</v>
+      </c>
+      <c r="AM25" s="20">
+        <f t="shared" si="43"/>
+        <v>2.2065853099354844</v>
+      </c>
+      <c r="AN25" s="20">
+        <f t="shared" si="43"/>
+        <v>2.0730586529961292</v>
+      </c>
+      <c r="AO25" s="20">
+        <f t="shared" si="43"/>
+        <v>1.9617365887906066</v>
+      </c>
+      <c r="AP25" s="20">
+        <f t="shared" si="43"/>
+        <v>1.8785170193639322</v>
+      </c>
+      <c r="AQ25" s="20">
+        <f t="shared" si="43"/>
+        <v>1.8179449972669908</v>
+      </c>
+      <c r="AR25" s="20">
+        <f t="shared" si="43"/>
+        <v>1.7756994884187935</v>
+      </c>
+    </row>
+    <row r="26" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>395</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>397</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>430</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="1">
         <v>431</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <v>434</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J26" s="1">
         <v>431</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K26" s="1">
         <v>426</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L26" s="1">
         <v>419</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M26" s="1">
         <v>412</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N26" s="1">
         <v>405</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O26" s="1">
         <v>405</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P26" s="1">
         <v>381</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q26" s="1">
         <v>381</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R26" s="1">
         <v>395</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S26" s="1">
         <v>382</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T26" s="1">
         <v>384</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U26" s="1">
         <v>399</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="V26" s="1">
+        <v>385</v>
+      </c>
+      <c r="AH26" s="2">
+        <f>AVERAGE(S26:V26)</f>
+        <v>387.5</v>
+      </c>
+      <c r="AI26" s="2">
+        <f>+AH26</f>
+        <v>387.5</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f>+AI26</f>
+        <v>387.5</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" ref="AK26:AR26" si="44">+AJ26</f>
+        <v>387.5</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+      <c r="AM26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+      <c r="AN26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+      <c r="AP26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+      <c r="AQ26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+      <c r="AR26" s="2">
+        <f t="shared" si="44"/>
+        <v>387.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="17">
-        <f>E15/E13</f>
+      <c r="E28" s="17">
+        <f>E16/E14</f>
         <v>1</v>
       </c>
-      <c r="F27" s="17">
-        <f t="shared" ref="F27:R27" si="27">F15/F13</f>
+      <c r="F28" s="17">
+        <f t="shared" ref="F28:R28" si="45">F16/F14</f>
         <v>0.98598949211908937</v>
       </c>
-      <c r="G27" s="17">
-        <f t="shared" si="27"/>
+      <c r="G28" s="17">
+        <f t="shared" si="45"/>
         <v>0.90036138358286011</v>
       </c>
-      <c r="H27" s="17">
-        <f t="shared" si="27"/>
+      <c r="H28" s="17">
+        <f t="shared" si="45"/>
         <v>0.82774460266421679</v>
       </c>
-      <c r="I27" s="17">
-        <f t="shared" si="27"/>
+      <c r="I28" s="17">
+        <f t="shared" si="45"/>
         <v>0.85469913463473535</v>
       </c>
-      <c r="J27" s="17">
-        <f t="shared" si="27"/>
+      <c r="J28" s="17">
+        <f t="shared" si="45"/>
         <v>0.86797947580085977</v>
       </c>
-      <c r="K27" s="17">
-        <f t="shared" si="27"/>
+      <c r="K28" s="17">
+        <f t="shared" si="45"/>
         <v>0.83234421364985167</v>
       </c>
-      <c r="L27" s="17">
-        <f t="shared" si="27"/>
+      <c r="L28" s="17">
+        <f t="shared" si="45"/>
         <v>0.7092019372499474</v>
       </c>
-      <c r="M27" s="17">
-        <f t="shared" si="27"/>
+      <c r="M28" s="17">
+        <f t="shared" si="45"/>
         <v>0.67300832342449468</v>
       </c>
-      <c r="N27" s="17">
-        <f t="shared" si="27"/>
+      <c r="N28" s="17">
+        <f t="shared" si="45"/>
         <v>0.62273800157356407</v>
       </c>
-      <c r="O27" s="17">
-        <f t="shared" si="27"/>
+      <c r="O28" s="17">
+        <f t="shared" si="45"/>
         <v>0.57465091299677762</v>
       </c>
-      <c r="P27" s="17">
-        <f t="shared" si="27"/>
+      <c r="P28" s="17">
+        <f t="shared" si="45"/>
         <v>-1.125</v>
       </c>
-      <c r="Q27" s="17">
-        <f t="shared" si="27"/>
+      <c r="Q28" s="17">
+        <f t="shared" si="45"/>
         <v>-0.2239213544511196</v>
       </c>
-      <c r="R27" s="17">
-        <f t="shared" si="27"/>
+      <c r="R28" s="17">
+        <f t="shared" si="45"/>
         <v>0.66951262895766628</v>
       </c>
-      <c r="S27" s="17">
-        <f t="shared" ref="S27:U27" si="28">S15/S13</f>
+      <c r="S28" s="17">
+        <f t="shared" ref="S28:V28" si="46">S16/S14</f>
         <v>0.42514970059880242</v>
       </c>
-      <c r="T27" s="17">
-        <f t="shared" si="28"/>
+      <c r="T28" s="17">
+        <f t="shared" si="46"/>
         <v>0.52282157676348551</v>
       </c>
-      <c r="U27" s="17">
-        <f t="shared" si="28"/>
+      <c r="U28" s="17">
+        <f t="shared" si="46"/>
         <v>0.72395273899033297</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+      <c r="V28" s="17">
+        <f t="shared" si="46"/>
+        <v>0.2349896480331263</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU28" s="18">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="17">
-        <f>E22/E21</f>
+      <c r="E29" s="17">
+        <f>E23/E22</f>
         <v>-4.3103448275862068E-3</v>
       </c>
-      <c r="F28" s="17">
-        <f t="shared" ref="F28:R28" si="29">F22/F21</f>
+      <c r="F29" s="17">
+        <f t="shared" ref="F29:R29" si="47">F23/F22</f>
         <v>-3.6900369003690036E-3</v>
       </c>
-      <c r="G28" s="17">
-        <f t="shared" si="29"/>
+      <c r="G29" s="17">
+        <f t="shared" si="47"/>
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="H28" s="17">
-        <f t="shared" si="29"/>
+      <c r="H29" s="17">
+        <f t="shared" si="47"/>
         <v>9.2393078681031665E-2</v>
       </c>
-      <c r="I28" s="17">
-        <f t="shared" si="29"/>
+      <c r="I29" s="17">
+        <f t="shared" si="47"/>
         <v>6.1655405405405407E-2</v>
       </c>
-      <c r="J28" s="17">
-        <f t="shared" si="29"/>
+      <c r="J29" s="17">
+        <f t="shared" si="47"/>
         <v>0.10018484288354898</v>
       </c>
-      <c r="K28" s="17">
-        <f t="shared" si="29"/>
+      <c r="K29" s="17">
+        <f t="shared" si="47"/>
         <v>0.13525656183494916</v>
       </c>
-      <c r="L28" s="17">
-        <f t="shared" si="29"/>
+      <c r="L29" s="17">
+        <f t="shared" si="47"/>
         <v>0.11196443007275667</v>
       </c>
-      <c r="M28" s="17">
-        <f t="shared" si="29"/>
+      <c r="M29" s="17">
+        <f t="shared" si="47"/>
         <v>0.142974527526705</v>
       </c>
-      <c r="N28" s="17">
-        <f t="shared" si="29"/>
+      <c r="N29" s="17">
+        <f t="shared" si="47"/>
         <v>0.11480362537764351</v>
       </c>
-      <c r="O28" s="17">
-        <f t="shared" si="29"/>
+      <c r="O29" s="17">
+        <f t="shared" si="47"/>
         <v>1.2590163934426231</v>
       </c>
-      <c r="P28" s="17">
-        <f t="shared" si="29"/>
+      <c r="P29" s="17">
+        <f t="shared" si="47"/>
         <v>0.21097770154373929</v>
       </c>
-      <c r="Q28" s="17">
-        <f t="shared" si="29"/>
+      <c r="Q29" s="17">
+        <f t="shared" si="47"/>
         <v>-0.8539325842696629</v>
       </c>
-      <c r="R28" s="17">
-        <f t="shared" si="29"/>
+      <c r="R29" s="17">
+        <f t="shared" si="47"/>
         <v>-2.1</v>
       </c>
-      <c r="S28" s="17">
-        <f t="shared" ref="S28:U28" si="30">S22/S21</f>
+      <c r="S29" s="17">
+        <f t="shared" ref="S29:V29" si="48">S23/S22</f>
         <v>-8.5836909871244635E-3</v>
       </c>
-      <c r="T28" s="17">
-        <f t="shared" si="30"/>
+      <c r="T29" s="17">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="U28" s="17">
-        <f t="shared" si="30"/>
+      <c r="U29" s="17">
+        <f t="shared" si="48"/>
         <v>0.38095238095238093</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="V29" s="17">
+        <f t="shared" si="48"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU29" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="AT30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU30" s="18">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="2:139" x14ac:dyDescent="0.25">
+      <c r="AT31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU31" s="2">
+        <f>NPV(AU28,AH24:EI24)+Main!K5</f>
+        <v>17584.312106225829</v>
+      </c>
+    </row>
+    <row r="32" spans="2:139" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3">
-        <f>5048+5067+9171+12</f>
-        <v>19298</v>
-      </c>
-      <c r="L31" s="3">
-        <f>2873+5024+10162+12</f>
-        <v>18071</v>
-      </c>
-      <c r="M31" s="3">
-        <f>3027+5321+8655+14</f>
-        <v>17017</v>
-      </c>
-      <c r="N31" s="3"/>
-      <c r="T31" s="2">
-        <f>2478+6010+2326</f>
-        <v>10814</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3269,22 +4640,41 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
-        <v>3173</v>
+        <f>5048+5067+9171+12</f>
+        <v>19298</v>
       </c>
       <c r="L32" s="3">
-        <v>2691</v>
+        <f>2873+5024+10162+12</f>
+        <v>18071</v>
       </c>
       <c r="M32" s="3">
-        <v>2695</v>
+        <f>3027+5321+8655+14</f>
+        <v>17017</v>
       </c>
       <c r="N32" s="3"/>
       <c r="T32" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>2478+6010+2326</f>
+        <v>10814</v>
+      </c>
+      <c r="U32" s="2">
+        <f>1644+5223+2335</f>
+        <v>9202</v>
+      </c>
+      <c r="V32" s="2">
+        <f>1927+5098+2494</f>
+        <v>9519</v>
+      </c>
+      <c r="AT32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU32" s="20">
+        <f>+AU31/Main!K3</f>
+        <v>45.695161719595738</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3295,22 +4685,28 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
-        <v>1942</v>
+        <v>3173</v>
       </c>
       <c r="L33" s="3">
-        <v>1921</v>
+        <v>2691</v>
       </c>
       <c r="M33" s="3">
-        <v>2077</v>
+        <v>2695</v>
       </c>
       <c r="N33" s="3"/>
       <c r="T33" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1564</v>
+      </c>
+      <c r="V33" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3321,22 +4717,28 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
-        <v>1120</v>
+        <v>1942</v>
       </c>
       <c r="L34" s="3">
-        <v>1054</v>
+        <v>1921</v>
       </c>
       <c r="M34" s="3">
-        <v>1177</v>
+        <v>2077</v>
       </c>
       <c r="N34" s="3"/>
       <c r="T34" s="2">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="U34" s="2">
+        <v>412</v>
+      </c>
+      <c r="V34" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3347,22 +4749,28 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <v>1341</v>
+        <v>1120</v>
       </c>
       <c r="L35" s="3">
-        <v>1324</v>
+        <v>1054</v>
       </c>
       <c r="M35" s="3">
-        <v>2019</v>
+        <v>1177</v>
       </c>
       <c r="N35" s="3"/>
       <c r="T35" s="2">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="U35" s="2">
+        <v>823</v>
+      </c>
+      <c r="V35" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3373,22 +4781,28 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3">
-        <v>132</v>
+        <v>1341</v>
       </c>
       <c r="L36" s="3">
-        <v>122</v>
+        <v>1324</v>
       </c>
       <c r="M36" s="3">
-        <v>113</v>
+        <v>2019</v>
       </c>
       <c r="N36" s="3"/>
       <c r="T36" s="2">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2196</v>
+      </c>
+      <c r="U36" s="2">
+        <v>2381</v>
+      </c>
+      <c r="V36" s="2">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3399,22 +4813,28 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
-        <v>521</v>
+        <v>132</v>
       </c>
       <c r="L37" s="3">
-        <v>785</v>
+        <v>122</v>
       </c>
       <c r="M37" s="3">
-        <v>920</v>
+        <v>113</v>
       </c>
       <c r="N37" s="3"/>
       <c r="T37" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+      <c r="U37" s="2">
+        <v>784</v>
+      </c>
+      <c r="V37" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3425,22 +4845,28 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="L38" s="3">
-        <v>75</v>
+        <v>785</v>
       </c>
       <c r="M38" s="3">
-        <v>38</v>
+        <v>920</v>
       </c>
       <c r="N38" s="3"/>
       <c r="T38" s="2">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="U38" s="2">
+        <v>81</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -3451,52 +4877,66 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <f>SUM(K31:K38)</f>
-        <v>27609</v>
+        <v>82</v>
       </c>
       <c r="L39" s="3">
-        <f>SUM(L31:L38)</f>
-        <v>26043</v>
+        <v>75</v>
       </c>
       <c r="M39" s="3">
-        <f>SUM(M31:M38)</f>
-        <v>26056</v>
+        <v>38</v>
       </c>
       <c r="N39" s="3"/>
       <c r="T39" s="2">
-        <f>SUM(T31:T38)</f>
+        <v>641</v>
+      </c>
+      <c r="U39" s="2">
+        <v>556</v>
+      </c>
+      <c r="V39" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
+        <f>SUM(K32:K39)</f>
+        <v>27609</v>
+      </c>
+      <c r="L40" s="3">
+        <f>SUM(L32:L39)</f>
+        <v>26043</v>
+      </c>
+      <c r="M40" s="3">
+        <f>SUM(M32:M39)</f>
+        <v>26056</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="T40" s="2">
+        <f>SUM(T32:T39)</f>
         <v>15680</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="U40" s="2">
+        <f>SUM(U32:U39)</f>
+        <v>15803</v>
+      </c>
+      <c r="V40" s="2">
+        <f>SUM(V32:V39)</f>
+        <v>14142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3">
-        <v>199</v>
-      </c>
-      <c r="L41" s="3">
-        <v>181</v>
-      </c>
-      <c r="M41" s="3">
-        <v>330</v>
-      </c>
-      <c r="N41" s="3"/>
-      <c r="T41" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3507,22 +4947,28 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
-        <v>1608</v>
+        <v>199</v>
       </c>
       <c r="L42" s="3">
-        <v>1780</v>
+        <v>181</v>
       </c>
       <c r="M42" s="3">
-        <v>1856</v>
+        <v>330</v>
       </c>
       <c r="N42" s="3"/>
       <c r="T42" s="2">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="U42" s="2">
+        <v>373</v>
+      </c>
+      <c r="V42" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3533,26 +4979,28 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3">
-        <f>5599+464</f>
-        <v>6063</v>
+        <v>1608</v>
       </c>
       <c r="L43" s="3">
-        <f>4093+405</f>
-        <v>4498</v>
+        <v>1780</v>
       </c>
       <c r="M43" s="3">
-        <f>175+4002</f>
-        <v>4177</v>
+        <v>1856</v>
       </c>
       <c r="N43" s="3"/>
       <c r="T43" s="2">
-        <f>702+95</f>
-        <v>797</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1333</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1376</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3563,22 +5011,34 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <v>1592</v>
+        <f>5599+464</f>
+        <v>6063</v>
       </c>
       <c r="L44" s="3">
-        <v>349</v>
+        <f>4093+405</f>
+        <v>4498</v>
       </c>
       <c r="M44" s="3">
-        <v>66</v>
+        <f>175+4002</f>
+        <v>4177</v>
       </c>
       <c r="N44" s="3"/>
       <c r="T44" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>702+95</f>
+        <v>797</v>
+      </c>
+      <c r="U44" s="2">
+        <f>379+95</f>
+        <v>474</v>
+      </c>
+      <c r="V44" s="2">
+        <f>153+58</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3589,22 +5049,28 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <v>240</v>
+        <v>1592</v>
       </c>
       <c r="L45" s="3">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="M45" s="3">
-        <v>553</v>
+        <v>66</v>
       </c>
       <c r="N45" s="3"/>
       <c r="T45" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="U45" s="2">
+        <v>4</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3615,22 +5081,28 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="L46" s="3">
-        <v>87</v>
+        <v>409</v>
       </c>
       <c r="M46" s="3">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="N46" s="3"/>
       <c r="T46" s="2">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="U46" s="2">
+        <v>69</v>
+      </c>
+      <c r="V46" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3641,22 +5113,30 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <v>646</v>
+        <v>95</v>
       </c>
       <c r="L47" s="3">
-        <v>641</v>
+        <v>87</v>
       </c>
       <c r="M47" s="3">
-        <v>922</v>
+        <v>79</v>
       </c>
       <c r="N47" s="3"/>
       <c r="T47" s="2">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+      <c r="U47" s="2">
+        <f>679+625</f>
+        <v>1304</v>
+      </c>
+      <c r="V47" s="2">
+        <f>671+39</f>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -3667,22 +5147,28 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <v>91</v>
+        <v>646</v>
       </c>
       <c r="L48" s="3">
-        <v>113</v>
+        <v>641</v>
       </c>
       <c r="M48" s="3">
-        <v>81</v>
+        <v>922</v>
       </c>
       <c r="N48" s="3"/>
       <c r="T48" s="2">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -3693,22 +5179,28 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3">
-        <v>17075</v>
+        <v>91</v>
       </c>
       <c r="L49" s="3">
-        <v>17985</v>
+        <v>113</v>
       </c>
       <c r="M49" s="3">
-        <v>17992</v>
+        <v>81</v>
       </c>
       <c r="N49" s="3"/>
       <c r="T49" s="2">
-        <v>11712</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="U49" s="2">
+        <v>276</v>
+      </c>
+      <c r="V49" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -3719,45 +5211,129 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <f>SUM(K41:K49)</f>
-        <v>27609</v>
+        <v>17075</v>
       </c>
       <c r="L50" s="3">
-        <f>SUM(L41:L49)</f>
-        <v>26043</v>
+        <v>17985</v>
       </c>
       <c r="M50" s="3">
-        <f>SUM(M41:M49)</f>
-        <v>26056</v>
+        <v>17992</v>
       </c>
       <c r="N50" s="3"/>
       <c r="T50" s="2">
-        <f>SUM(T41:T49)</f>
+        <v>11712</v>
+      </c>
+      <c r="U50" s="2">
+        <v>11927</v>
+      </c>
+      <c r="V50" s="2">
+        <v>10901</v>
+      </c>
+    </row>
+    <row r="51" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
+        <f>SUM(K42:K50)</f>
+        <v>27609</v>
+      </c>
+      <c r="L51" s="3">
+        <f>SUM(L42:L50)</f>
+        <v>26043</v>
+      </c>
+      <c r="M51" s="3">
+        <f>SUM(M42:M50)</f>
+        <v>26056</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="T51" s="2">
+        <f>SUM(T42:T50)</f>
         <v>15680</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+      <c r="U51" s="2">
+        <f>SUM(U42:U50)</f>
+        <v>15803</v>
+      </c>
+      <c r="V51" s="2">
+        <f>SUM(V42:V50)</f>
+        <v>14142</v>
+      </c>
+    </row>
+    <row r="54" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="57" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="AF57" s="2">
+        <v>-3118</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>-3004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>-707</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>-1051</v>
+      </c>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF59" s="2">
+        <f>+AF57+AF58</f>
+        <v>-3825</v>
+      </c>
+      <c r="AG59" s="2">
+        <f>+AG57+AG58</f>
+        <v>-4055</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3775,17 +5351,17 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
@@ -3807,18 +5383,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
@@ -3826,7 +5402,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>96</v>
       </c>
@@ -3834,7 +5410,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -3842,17 +5418,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>118</v>
       </c>
@@ -3863,4 +5439,65 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94C90E5-388E-4F86-BD07-F4D936022199}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1BEEEB37-0981-4EE5-B765-7BC00F2685CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>